--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EC01A7-B379-154B-972D-60B4F0F1F85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC33AB-8C78-F24D-810B-43A9BDB1AA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27740" windowHeight="16120" activeTab="6" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="-35520" yWindow="3300" windowWidth="27740" windowHeight="16000" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -6780,9 +6780,6 @@
     <t>Methylprednisolone</t>
   </si>
   <si>
-    <t>Escin</t>
-  </si>
-  <si>
     <t>Colchicine</t>
   </si>
   <si>
@@ -6969,6 +6966,9 @@
   </si>
   <si>
     <t>retrospective_registration</t>
+  </si>
+  <si>
+    <t>Other (surgery)</t>
   </si>
 </sst>
 </file>
@@ -7374,8 +7374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D462C6-375D-2A4D-81F0-358CC20C32FE}">
   <dimension ref="A1:B462"/>
   <sheetViews>
-    <sheetView topLeftCell="B364" workbookViewId="0">
-      <selection activeCell="B381" sqref="B381"/>
+    <sheetView topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11094,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
   <dimension ref="A1:G743"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="F556" sqref="F556"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16855,7 +16855,7 @@
         <v>1096</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -18319,10 +18319,10 @@
         <v>1066</v>
       </c>
       <c r="E355" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F355" s="3" t="s">
         <v>2266</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -23933,16 +23933,16 @@
         <v>2122</v>
       </c>
       <c r="C636" s="6" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>1151</v>
+        <v>1066</v>
       </c>
       <c r="E636" s="3" t="s">
-        <v>1157</v>
+        <v>1069</v>
       </c>
       <c r="F636" s="3" t="s">
-        <v>1157</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -24013,10 +24013,10 @@
         <v>2126</v>
       </c>
       <c r="C640" s="6" t="s">
-        <v>1064</v>
+        <v>1151</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>1791</v>
+        <v>1151</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>1157</v>
@@ -24312,17 +24312,17 @@
       <c r="B655" s="3" t="s">
         <v>2141</v>
       </c>
-      <c r="C655" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D655" s="6" t="s">
-        <v>1066</v>
+      <c r="C655" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>1153</v>
       </c>
       <c r="E655" s="3" t="s">
-        <v>2244</v>
+        <v>1158</v>
       </c>
       <c r="F655" s="3" t="s">
-        <v>2244</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
@@ -24339,10 +24339,10 @@
         <v>1066</v>
       </c>
       <c r="E656" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -24359,10 +24359,10 @@
         <v>1066</v>
       </c>
       <c r="E657" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F657" s="3" t="s">
         <v>2246</v>
-      </c>
-      <c r="F657" s="3" t="s">
-        <v>2247</v>
       </c>
     </row>
     <row r="658" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -24419,10 +24419,10 @@
         <v>1066</v>
       </c>
       <c r="E660" s="3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -24459,10 +24459,10 @@
         <v>1066</v>
       </c>
       <c r="E662" s="3" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="F662" s="3" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -24473,16 +24473,16 @@
         <v>2149</v>
       </c>
       <c r="C663" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D663" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E663" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="D663" s="6" t="s">
+      <c r="F663" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="E663" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F663" s="3" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="664" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -24519,10 +24519,10 @@
         <v>1152</v>
       </c>
       <c r="E665" s="3" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="F665" s="3" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="666" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -24552,11 +24552,11 @@
       <c r="B667" s="3" t="s">
         <v>2153</v>
       </c>
-      <c r="C667" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D667" s="3" t="s">
-        <v>1791</v>
+      <c r="C667" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>2306</v>
       </c>
       <c r="E667" s="3" t="s">
         <v>1157</v>
@@ -24599,7 +24599,7 @@
         <v>1066</v>
       </c>
       <c r="E669" s="3" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F669" s="3" t="s">
         <v>2237</v>
@@ -24612,11 +24612,11 @@
       <c r="B670" s="3" t="s">
         <v>2156</v>
       </c>
-      <c r="C670" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D670" s="3" t="s">
-        <v>1791</v>
+      <c r="C670" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>1065</v>
       </c>
       <c r="E670" s="3" t="s">
         <v>1157</v>
@@ -24779,10 +24779,10 @@
         <v>1066</v>
       </c>
       <c r="E678" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="679" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -24879,10 +24879,10 @@
         <v>1066</v>
       </c>
       <c r="E683" s="3" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F683" s="3" t="s">
         <v>2253</v>
-      </c>
-      <c r="F683" s="3" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="684" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -24959,10 +24959,10 @@
         <v>1066</v>
       </c>
       <c r="E687" s="3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F687" s="3" t="s">
         <v>2255</v>
-      </c>
-      <c r="F687" s="3" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="688" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -24999,7 +24999,7 @@
         <v>1066</v>
       </c>
       <c r="E689" s="3" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F689" s="3" t="s">
         <v>2237</v>
@@ -25019,10 +25019,10 @@
         <v>1066</v>
       </c>
       <c r="E690" s="3" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="F690" s="3" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -25139,10 +25139,10 @@
         <v>1142</v>
       </c>
       <c r="E696" s="3" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="F696" s="3" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="697" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -25292,11 +25292,11 @@
       <c r="B704" s="3" t="s">
         <v>2190</v>
       </c>
-      <c r="C704" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D704" s="3" t="s">
-        <v>1791</v>
+      <c r="C704" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="E704" s="3" t="s">
         <v>1157</v>
@@ -25479,10 +25479,10 @@
         <v>1066</v>
       </c>
       <c r="E713" s="3" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="F713" s="3" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -25519,10 +25519,10 @@
         <v>1066</v>
       </c>
       <c r="E715" s="3" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="F715" s="3" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -25579,10 +25579,10 @@
         <v>1066</v>
       </c>
       <c r="E718" s="3" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="F718" s="3" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.2">
@@ -25639,10 +25639,10 @@
         <v>1141</v>
       </c>
       <c r="E721" s="3" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="F721" s="3" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="722" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -25679,10 +25679,10 @@
         <v>1066</v>
       </c>
       <c r="E723" s="3" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="F723" s="3" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -25692,11 +25692,11 @@
       <c r="B724" s="3" t="s">
         <v>2210</v>
       </c>
-      <c r="C724" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D724" s="6" t="s">
-        <v>1151</v>
+      <c r="C724" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>1064</v>
       </c>
       <c r="E724" s="3" t="s">
         <v>1157</v>
@@ -25739,10 +25739,10 @@
         <v>1142</v>
       </c>
       <c r="E726" s="3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -25799,10 +25799,10 @@
         <v>1066</v>
       </c>
       <c r="E729" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="F729" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -25892,11 +25892,11 @@
       <c r="B734" s="3" t="s">
         <v>2220</v>
       </c>
-      <c r="C734" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D734" s="6" t="s">
-        <v>1791</v>
+      <c r="C734" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>1065</v>
       </c>
       <c r="E734" s="3" t="s">
         <v>1157</v>
@@ -25919,10 +25919,10 @@
         <v>1066</v>
       </c>
       <c r="E735" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="F735" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="736" spans="1:6" ht="43" x14ac:dyDescent="0.2">
@@ -26108,13 +26108,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2300</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -26122,7 +26122,7 @@
         <v>2077</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C2" s="8">
         <v>44103</v>
@@ -26133,7 +26133,7 @@
         <v>2074</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C3" s="8">
         <v>44043</v>
@@ -26144,7 +26144,7 @@
         <v>753</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C4" s="8">
         <v>44206</v>
@@ -26155,7 +26155,7 @@
         <v>927</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C5" s="8">
         <v>44196</v>
@@ -26166,7 +26166,7 @@
         <v>702</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C6" s="8">
         <v>44225</v>
@@ -26177,7 +26177,7 @@
         <v>690</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C7" s="8">
         <v>44221</v>
@@ -26188,7 +26188,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C8" s="8">
         <v>44196</v>
@@ -26199,7 +26199,7 @@
         <v>908</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C9" s="8">
         <v>44074</v>
@@ -26210,7 +26210,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C10" s="8">
         <v>44166</v>
@@ -26221,7 +26221,7 @@
         <v>905</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C11" s="8">
         <v>44561</v>
@@ -26232,7 +26232,7 @@
         <v>917</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C12" s="8">
         <v>43951</v>
@@ -26243,7 +26243,7 @@
         <v>952</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C13" s="8">
         <v>44166</v>
@@ -26254,7 +26254,7 @@
         <v>932</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C14" s="8">
         <v>44166</v>
@@ -26265,7 +26265,7 @@
         <v>1005</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C15" s="8">
         <v>43921</v>
@@ -26276,7 +26276,7 @@
         <v>1027</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C16" s="8">
         <v>44196</v>
@@ -26287,7 +26287,7 @@
         <v>1036</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C17" s="8">
         <v>44531</v>
@@ -26298,7 +26298,7 @@
         <v>1026</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C18" s="8">
         <v>44531</v>
@@ -26309,7 +26309,7 @@
         <v>1037</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C19" s="8">
         <v>44561</v>
@@ -26320,7 +26320,7 @@
         <v>844</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C20" s="8">
         <v>44561</v>
@@ -26331,7 +26331,7 @@
         <v>827</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C21" s="8">
         <v>44561</v>
@@ -26342,7 +26342,7 @@
         <v>1035</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C22" s="8">
         <v>44561</v>
@@ -26353,7 +26353,7 @@
         <v>968</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C23" s="8">
         <v>44196</v>
@@ -26364,7 +26364,7 @@
         <v>682</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C24" s="8">
         <v>44012</v>
@@ -26375,7 +26375,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C25" s="8">
         <v>43952</v>
@@ -26386,7 +26386,7 @@
         <v>926</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C26" s="8">
         <v>43921</v>
@@ -26397,7 +26397,7 @@
         <v>1000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C27" s="8">
         <v>44561</v>
@@ -26408,7 +26408,7 @@
         <v>969</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C28" s="8">
         <v>44561</v>
@@ -26419,7 +26419,7 @@
         <v>447</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C29" s="8">
         <v>44225</v>
@@ -26430,7 +26430,7 @@
         <v>997</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C30" s="8">
         <v>43951</v>
@@ -26441,7 +26441,7 @@
         <v>995</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C31" s="8">
         <v>43951</v>
@@ -26452,7 +26452,7 @@
         <v>751</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C32" s="8">
         <v>44229</v>
@@ -26463,7 +26463,7 @@
         <v>667</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C33" s="8">
         <v>44166</v>
@@ -26474,7 +26474,7 @@
         <v>658</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C34" s="8">
         <v>44042</v>
@@ -26485,7 +26485,7 @@
         <v>670</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C35" s="8">
         <v>43982</v>
@@ -26496,7 +26496,7 @@
         <v>666</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C36" s="8">
         <v>43985</v>
@@ -26507,7 +26507,7 @@
         <v>1044</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C37" s="8">
         <v>43952</v>
@@ -26518,7 +26518,7 @@
         <v>1015</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C38" s="8">
         <v>43952</v>
@@ -26529,7 +26529,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C39" s="8">
         <v>43952</v>
@@ -26540,7 +26540,7 @@
         <v>726</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C40" s="8">
         <v>43890</v>
@@ -26551,7 +26551,7 @@
         <v>441</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C41" s="8">
         <v>44316</v>
@@ -26562,7 +26562,7 @@
         <v>442</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C42" s="8">
         <v>44316</v>
@@ -26573,7 +26573,7 @@
         <v>448</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C43" s="8">
         <v>44012</v>
@@ -26584,7 +26584,7 @@
         <v>994</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C44" s="8">
         <v>43951</v>
@@ -26595,7 +26595,7 @@
         <v>547</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C45" s="8">
         <v>44196</v>
@@ -26606,7 +26606,7 @@
         <v>783</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C46" s="8">
         <v>44196</v>
@@ -26617,7 +26617,7 @@
         <v>914</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C47" s="8">
         <v>44561</v>
@@ -26628,7 +26628,7 @@
         <v>798</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C48" s="8">
         <v>44074</v>
@@ -26639,7 +26639,7 @@
         <v>712</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C49" s="8">
         <v>43950</v>
@@ -26650,7 +26650,7 @@
         <v>967</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C50" s="8">
         <v>44044</v>
@@ -26661,7 +26661,7 @@
         <v>487</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C51" s="8">
         <v>44044</v>
@@ -26672,7 +26672,7 @@
         <v>668</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C52" s="8">
         <v>43982</v>
@@ -26683,7 +26683,7 @@
         <v>924</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C53" s="8">
         <v>44232</v>
@@ -26694,7 +26694,7 @@
         <v>444</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C54" s="8">
         <v>44926</v>
@@ -26705,7 +26705,7 @@
         <v>660</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C55" s="8">
         <v>44196</v>
@@ -26716,7 +26716,7 @@
         <v>797</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C56" s="8">
         <v>44196</v>
@@ -26727,7 +26727,7 @@
         <v>990</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C57" s="8">
         <v>44234</v>
@@ -26738,7 +26738,7 @@
         <v>872</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C58" s="8">
         <v>44044</v>
@@ -26749,7 +26749,7 @@
         <v>474</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C59" s="8">
         <v>44044</v>
@@ -26760,7 +26760,7 @@
         <v>923</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C60" s="8">
         <v>43931</v>
@@ -26771,7 +26771,7 @@
         <v>466</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C61" s="8">
         <v>44042</v>
@@ -26782,7 +26782,7 @@
         <v>913</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C62" s="9">
         <v>43931</v>
@@ -26793,7 +26793,7 @@
         <v>734</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C63" s="9">
         <v>44044</v>
@@ -26804,7 +26804,7 @@
         <v>854</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C64" s="9">
         <v>44104</v>
@@ -26815,7 +26815,7 @@
         <v>698</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C65" s="9">
         <v>43935</v>
@@ -26826,7 +26826,7 @@
         <v>604</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C66" s="9">
         <v>43927</v>
@@ -26837,7 +26837,7 @@
         <v>596</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C67" s="9">
         <v>44286</v>
@@ -26848,7 +26848,7 @@
         <v>1013</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C68" s="9">
         <v>43981</v>
@@ -26859,7 +26859,7 @@
         <v>871</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C69" s="9">
         <v>43931</v>
@@ -26870,7 +26870,7 @@
         <v>483</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C70" s="9">
         <v>44050</v>
@@ -26881,7 +26881,7 @@
         <v>869</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C71" s="9">
         <v>43921</v>
@@ -26892,7 +26892,7 @@
         <v>722</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C72" s="9">
         <v>44439</v>
@@ -26903,7 +26903,7 @@
         <v>725</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C73" s="9">
         <v>43890</v>
@@ -26914,7 +26914,7 @@
         <v>681</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C74" s="9">
         <v>44196</v>
@@ -26925,7 +26925,7 @@
         <v>909</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C75" s="9">
         <v>44196</v>
@@ -26936,7 +26936,7 @@
         <v>870</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C76" s="9">
         <v>44237</v>
@@ -26947,7 +26947,7 @@
         <v>1003</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C77" s="9">
         <v>44196</v>
@@ -26958,7 +26958,7 @@
         <v>479</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C78" s="9">
         <v>44602</v>
@@ -26969,7 +26969,7 @@
         <v>942</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C79" s="9">
         <v>43981</v>
@@ -26980,7 +26980,7 @@
         <v>921</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C80" s="9">
         <v>44607</v>
@@ -26991,7 +26991,7 @@
         <v>461</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C81" s="9">
         <v>44232</v>
@@ -27002,7 +27002,7 @@
         <v>480</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C82" s="9">
         <v>44593</v>
@@ -27013,7 +27013,7 @@
         <v>1004</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C83" s="9">
         <v>43982</v>
@@ -27024,7 +27024,7 @@
         <v>473</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C84" s="9">
         <v>44196</v>
@@ -27035,7 +27035,7 @@
         <v>789</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C85" s="9">
         <v>43961</v>
@@ -27046,7 +27046,7 @@
         <v>674</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C86" s="9">
         <v>43963</v>
@@ -27057,7 +27057,7 @@
         <v>920</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C87" s="9">
         <v>43951</v>
@@ -27068,7 +27068,7 @@
         <v>579</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C88" s="9">
         <v>43982</v>
@@ -27079,7 +27079,7 @@
         <v>774</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C89" s="9">
         <v>44196</v>
@@ -27090,7 +27090,7 @@
         <v>1029</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C90" s="9">
         <v>44012</v>
@@ -27101,7 +27101,7 @@
         <v>1028</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C91" s="9">
         <v>43964</v>
@@ -27112,7 +27112,7 @@
         <v>598</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C92" s="9">
         <v>43982</v>
@@ -27123,7 +27123,7 @@
         <v>934</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C93" s="9">
         <v>43991</v>
@@ -27134,7 +27134,7 @@
         <v>918</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C94" s="9">
         <v>44012</v>
@@ -27145,7 +27145,7 @@
         <v>472</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C95" s="9">
         <v>43890</v>
@@ -27156,7 +27156,7 @@
         <v>1002</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C96" s="9">
         <v>44195</v>
@@ -27167,7 +27167,7 @@
         <v>966</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C97" s="9">
         <v>44377</v>
@@ -27178,7 +27178,7 @@
         <v>1032</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C98" s="9">
         <v>44135</v>
@@ -27189,7 +27189,7 @@
         <v>727</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C99" s="9">
         <v>44247</v>
@@ -27200,7 +27200,7 @@
         <v>763</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C100" s="9">
         <v>44227</v>
@@ -27211,7 +27211,7 @@
         <v>471</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C101" s="9">
         <v>44227</v>
@@ -27222,7 +27222,7 @@
         <v>686</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C102" s="9">
         <v>44227</v>
@@ -27233,7 +27233,7 @@
         <v>597</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C103" s="9">
         <v>43910</v>
@@ -27244,7 +27244,7 @@
         <v>907</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C104" s="9">
         <v>44247</v>
@@ -27255,7 +27255,7 @@
         <v>971</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C105" s="9">
         <v>44057</v>
@@ -27266,7 +27266,7 @@
         <v>1025</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C106" s="9">
         <v>44196</v>
@@ -27277,7 +27277,7 @@
         <v>970</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C107" s="9">
         <v>43936</v>
@@ -27288,7 +27288,7 @@
         <v>919</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C108" s="9">
         <v>44054</v>
@@ -27299,7 +27299,7 @@
         <v>1001</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C109" s="9">
         <v>43983</v>
@@ -27310,7 +27310,7 @@
         <v>916</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C110" s="9">
         <v>43951</v>
@@ -27321,7 +27321,7 @@
         <v>849</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C111" s="9">
         <v>43933</v>
@@ -27332,7 +27332,7 @@
         <v>478</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C112" s="9">
         <v>43921</v>
@@ -27343,7 +27343,7 @@
         <v>453</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C113" s="9">
         <v>44228</v>
@@ -27354,7 +27354,7 @@
         <v>455</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C114" s="9">
         <v>44607</v>
@@ -27365,7 +27365,7 @@
         <v>901</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C115" s="9">
         <v>43900</v>
@@ -27376,7 +27376,7 @@
         <v>648</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C116" s="9">
         <v>43937</v>
@@ -27387,10 +27387,10 @@
         <v>999</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -27398,7 +27398,7 @@
         <v>874</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C118" s="9">
         <v>43941</v>
@@ -27409,7 +27409,7 @@
         <v>804</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C119" s="9">
         <v>43982</v>
@@ -27420,7 +27420,7 @@
         <v>655</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C120" s="9">
         <v>44255</v>
@@ -27431,7 +27431,7 @@
         <v>724</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C121" s="9">
         <v>44012</v>
@@ -27442,7 +27442,7 @@
         <v>1030</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C122" s="9">
         <v>44012</v>
@@ -27453,7 +27453,7 @@
         <v>602</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C123" s="9">
         <v>44196</v>
@@ -27464,7 +27464,7 @@
         <v>600</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C124" s="9">
         <v>43921</v>
@@ -27475,7 +27475,7 @@
         <v>991</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C125" s="9">
         <v>44196</v>
@@ -27486,7 +27486,7 @@
         <v>677</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C126" s="9">
         <v>43951</v>
@@ -27497,7 +27497,7 @@
         <v>676</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C127" s="8">
         <v>43951</v>
@@ -27508,7 +27508,7 @@
         <v>525</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C128" s="9">
         <v>43890</v>
@@ -27519,7 +27519,7 @@
         <v>477</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C129" s="9">
         <v>43905</v>
@@ -27530,7 +27530,7 @@
         <v>476</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C130" s="9">
         <v>44196</v>
@@ -27541,7 +27541,7 @@
         <v>657</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C131" s="9">
         <v>44233</v>
@@ -27552,7 +27552,7 @@
         <v>659</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C132" s="9">
         <v>44233</v>
@@ -27563,7 +27563,7 @@
         <v>993</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C133" s="9">
         <v>43983</v>
@@ -27574,7 +27574,7 @@
         <v>906</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C134" s="9">
         <v>43983</v>
@@ -27585,7 +27585,7 @@
         <v>762</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C135" s="9">
         <v>44193</v>
@@ -27596,7 +27596,7 @@
         <v>868</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C136" s="9">
         <v>44317</v>
@@ -27607,7 +27607,7 @@
         <v>933</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C137" s="9">
         <v>43871</v>
@@ -27618,7 +27618,7 @@
         <v>506</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C138" s="9">
         <v>43891</v>
@@ -27629,7 +27629,7 @@
         <v>998</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C139" s="9">
         <v>44013</v>
@@ -27640,10 +27640,10 @@
         <v>548</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -27651,7 +27651,7 @@
         <v>498</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C141" s="9">
         <v>44197</v>
@@ -27662,7 +27662,7 @@
         <v>1040</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C142" s="9">
         <v>43982</v>
@@ -27673,7 +27673,7 @@
         <v>833</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C143" s="9">
         <v>43968</v>
@@ -27684,7 +27684,7 @@
         <v>903</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C144" s="9">
         <v>44074</v>
@@ -27695,7 +27695,7 @@
         <v>661</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C145" s="9">
         <v>43982</v>
@@ -27706,7 +27706,7 @@
         <v>984</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C146" s="9">
         <v>44611</v>
@@ -27717,7 +27717,7 @@
         <v>930</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C147" s="9">
         <v>44043</v>
@@ -27728,7 +27728,7 @@
         <v>611</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C148" s="9">
         <v>43969</v>
@@ -27739,7 +27739,7 @@
         <v>803</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C149" s="9">
         <v>44561</v>
@@ -27750,7 +27750,7 @@
         <v>504</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C150" s="9">
         <v>43890</v>
@@ -27761,7 +27761,7 @@
         <v>662</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C151" s="9">
         <v>43982</v>
@@ -27772,7 +27772,7 @@
         <v>736</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C152" s="9">
         <v>43982</v>
@@ -27783,7 +27783,7 @@
         <v>426</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C153" s="9">
         <v>43921</v>
@@ -27794,7 +27794,7 @@
         <v>941</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C154" s="9">
         <v>44030</v>
@@ -27805,7 +27805,7 @@
         <v>671</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C155" s="9">
         <v>43971</v>
@@ -27816,7 +27816,7 @@
         <v>1045</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C156" s="9">
         <v>44063</v>
@@ -27827,7 +27827,7 @@
         <v>929</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C157" s="9">
         <v>44062</v>
@@ -27838,7 +27838,7 @@
         <v>496</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C158" s="9">
         <v>44196</v>
@@ -27849,7 +27849,7 @@
         <v>714</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C159" s="9">
         <v>43941</v>
@@ -27860,10 +27860,10 @@
         <v>902</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -27871,10 +27871,10 @@
         <v>1031</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -27882,7 +27882,7 @@
         <v>794</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C162" s="9">
         <v>43979</v>
@@ -27893,7 +27893,7 @@
         <v>793</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C163" s="9">
         <v>44042</v>
@@ -27904,7 +27904,7 @@
         <v>1041</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C164" s="9">
         <v>44013</v>
@@ -27915,7 +27915,7 @@
         <v>503</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C165" s="9">
         <v>44957</v>
@@ -27926,7 +27926,7 @@
         <v>629</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C166" s="9">
         <v>43942</v>
@@ -27937,7 +27937,7 @@
         <v>812</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C167" s="9">
         <v>43970</v>
@@ -27948,7 +27948,7 @@
         <v>720</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C168" s="9">
         <v>43931</v>
@@ -27959,7 +27959,7 @@
         <v>500</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C169" s="8">
         <v>44239</v>
@@ -27970,7 +27970,7 @@
         <v>458</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C170" s="9">
         <v>43982</v>
@@ -27981,10 +27981,10 @@
         <v>418</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -27992,7 +27992,7 @@
         <v>737</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C172" s="9">
         <v>44012</v>
@@ -28003,7 +28003,7 @@
         <v>499</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C173" s="9">
         <v>44062</v>
@@ -28014,7 +28014,7 @@
         <v>467</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C174" s="9">
         <v>44926</v>
@@ -28025,7 +28025,7 @@
         <v>873</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C175" s="9">
         <v>44196</v>
@@ -28036,7 +28036,7 @@
         <v>502</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C176" s="9">
         <v>44347</v>
@@ -28047,7 +28047,7 @@
         <v>425</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C177" s="9">
         <v>44597</v>
@@ -28058,7 +28058,7 @@
         <v>501</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C178" s="9">
         <v>43890</v>
@@ -28069,7 +28069,7 @@
         <v>940</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C179" s="9">
         <v>43973</v>
@@ -28080,7 +28080,7 @@
         <v>1010</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C180" s="9">
         <v>44245</v>
@@ -28091,7 +28091,7 @@
         <v>768</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C181" s="9">
         <v>44074</v>
@@ -28102,7 +28102,7 @@
         <v>786</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C182" s="9">
         <v>43981</v>
@@ -28113,7 +28113,7 @@
         <v>493</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C183" s="9">
         <v>44317</v>
@@ -28124,7 +28124,7 @@
         <v>601</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C184" s="9">
         <v>43889</v>
@@ -28135,7 +28135,7 @@
         <v>931</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C185" s="9">
         <v>44012</v>
@@ -28146,7 +28146,7 @@
         <v>996</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C186" s="9">
         <v>44012</v>
@@ -28157,7 +28157,7 @@
         <v>459</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C187" s="9">
         <v>43862</v>
@@ -28168,7 +28168,7 @@
         <v>647</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C188" s="9">
         <v>44012</v>
@@ -28179,7 +28179,7 @@
         <v>915</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C189" s="9">
         <v>44196</v>
@@ -28190,7 +28190,7 @@
         <v>457</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C190" s="9">
         <v>43928</v>
@@ -28201,7 +28201,7 @@
         <v>672</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C191" s="9">
         <v>43972</v>
@@ -28212,7 +28212,7 @@
         <v>708</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C192" s="9">
         <v>43931</v>
@@ -28223,10 +28223,10 @@
         <v>832</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -28234,7 +28234,7 @@
         <v>747</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C194" s="9">
         <v>43981</v>
@@ -28245,7 +28245,7 @@
         <v>851</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C195" s="9">
         <v>44593</v>
@@ -28256,10 +28256,10 @@
         <v>497</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -28267,7 +28267,7 @@
         <v>609</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C197" s="9">
         <v>44969</v>
@@ -28278,7 +28278,7 @@
         <v>424</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C198" s="9">
         <v>44561</v>
@@ -28289,7 +28289,7 @@
         <v>643</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C199" s="9">
         <v>44074</v>
@@ -28300,7 +28300,7 @@
         <v>828</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C200" s="9">
         <v>43912</v>
@@ -28311,7 +28311,7 @@
         <v>826</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C201" s="9">
         <v>43912</v>
@@ -28322,7 +28322,7 @@
         <v>495</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C202" s="9">
         <v>44604</v>
@@ -28333,7 +28333,7 @@
         <v>850</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C203" s="9">
         <v>44286</v>
@@ -28344,7 +28344,7 @@
         <v>1008</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C204" s="9">
         <v>44255</v>
@@ -28355,7 +28355,7 @@
         <v>606</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C205" s="9">
         <v>44043</v>
@@ -28366,7 +28366,7 @@
         <v>491</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C206" s="9">
         <v>44074</v>
@@ -28377,7 +28377,7 @@
         <v>811</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C207" s="9">
         <v>43982</v>
@@ -28388,7 +28388,7 @@
         <v>713</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C208" s="9">
         <v>43982</v>
@@ -28399,7 +28399,7 @@
         <v>621</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C209" s="9">
         <v>44067</v>
@@ -28410,7 +28410,7 @@
         <v>494</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C210" s="9">
         <v>43951</v>
@@ -28421,7 +28421,7 @@
         <v>420</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C211" s="9">
         <v>44074</v>
@@ -28432,7 +28432,7 @@
         <v>928</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C212" s="9">
         <v>44544</v>
@@ -28443,7 +28443,7 @@
         <v>912</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C213" s="9">
         <v>44011</v>
@@ -28454,7 +28454,7 @@
         <v>810</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C214" s="9">
         <v>43966</v>
@@ -28465,7 +28465,7 @@
         <v>809</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C215" s="9">
         <v>43966</v>
@@ -28476,7 +28476,7 @@
         <v>423</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C216" s="9">
         <v>43982</v>
@@ -28487,7 +28487,7 @@
         <v>1017</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C217" s="9">
         <v>44196</v>
@@ -28498,7 +28498,7 @@
         <v>489</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C218" s="9">
         <v>43914</v>
@@ -28509,7 +28509,7 @@
         <v>808</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C219" s="9">
         <v>44196</v>
@@ -28520,7 +28520,7 @@
         <v>911</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C220" s="9">
         <v>43965</v>
@@ -28531,7 +28531,7 @@
         <v>744</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C221" s="9">
         <v>44075</v>
@@ -28542,7 +28542,7 @@
         <v>746</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C222" s="9">
         <v>44043</v>
@@ -28553,7 +28553,7 @@
         <v>419</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C223" s="9">
         <v>43938</v>
@@ -28564,7 +28564,7 @@
         <v>456</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C224" s="9">
         <v>43945</v>
@@ -28575,7 +28575,7 @@
         <v>608</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C225" s="9">
         <v>44196</v>
@@ -28586,7 +28586,7 @@
         <v>754</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C226" s="9">
         <v>43915</v>
@@ -28597,7 +28597,7 @@
         <v>1009</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C227" s="9">
         <v>43920</v>
@@ -28608,7 +28608,7 @@
         <v>745</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C228" s="9">
         <v>43982</v>
@@ -28619,7 +28619,7 @@
         <v>523</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C229" s="9">
         <v>44067</v>
@@ -28630,7 +28630,7 @@
         <v>939</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C230" s="9">
         <v>44196</v>
@@ -28641,7 +28641,7 @@
         <v>769</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C231" s="9">
         <v>44007</v>
@@ -28652,7 +28652,7 @@
         <v>1034</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C232" s="9">
         <v>44196</v>
@@ -28663,7 +28663,7 @@
         <v>816</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C233" s="9">
         <v>44700</v>
@@ -28674,7 +28674,7 @@
         <v>976</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C234" s="9">
         <v>44196</v>
@@ -28685,7 +28685,7 @@
         <v>875</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C235" s="9">
         <v>44012</v>
@@ -28696,7 +28696,7 @@
         <v>605</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C236" s="9">
         <v>44253</v>
@@ -28707,7 +28707,7 @@
         <v>711</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C237" s="9">
         <v>43910</v>
@@ -28718,7 +28718,7 @@
         <v>925</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C238" s="9">
         <v>44043</v>
@@ -28729,7 +28729,7 @@
         <v>541</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C239" s="9">
         <v>43921</v>
@@ -28740,7 +28740,7 @@
         <v>520</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C240" s="9">
         <v>43982</v>
@@ -28751,7 +28751,7 @@
         <v>721</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C241" s="9">
         <v>44063</v>
@@ -28762,7 +28762,7 @@
         <v>704</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C242" s="9">
         <v>43951</v>
@@ -28773,7 +28773,7 @@
         <v>830</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C243" s="9">
         <v>44253</v>
@@ -28784,7 +28784,7 @@
         <v>429</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C244" s="9">
         <v>43982</v>
@@ -28795,7 +28795,7 @@
         <v>679</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C245" s="9">
         <v>44227</v>
@@ -28806,7 +28806,7 @@
         <v>815</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C246" s="9">
         <v>44063</v>
@@ -28817,7 +28817,7 @@
         <v>521</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C247" s="9">
         <v>43983</v>
@@ -28828,7 +28828,7 @@
         <v>866</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C248" s="9">
         <v>44250</v>
@@ -28839,7 +28839,7 @@
         <v>613</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C249" s="9">
         <v>43921</v>
@@ -28850,7 +28850,7 @@
         <v>1012</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C250" s="9">
         <v>44196</v>
@@ -28861,7 +28861,7 @@
         <v>516</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C251" s="9">
         <v>43888</v>
@@ -28872,7 +28872,7 @@
         <v>515</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C252" s="9">
         <v>43982</v>
@@ -28883,7 +28883,7 @@
         <v>428</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C253" s="9">
         <v>44247</v>
@@ -28894,7 +28894,7 @@
         <v>540</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C254" s="9">
         <v>44926</v>
@@ -28905,7 +28905,7 @@
         <v>801</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C255" s="9">
         <v>44196</v>
@@ -28916,7 +28916,7 @@
         <v>922</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C256" s="9">
         <v>43949</v>
@@ -28927,7 +28927,7 @@
         <v>1011</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C257" s="9">
         <v>44196</v>
@@ -28938,7 +28938,7 @@
         <v>834</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C258" s="9">
         <v>44285</v>
@@ -28949,7 +28949,7 @@
         <v>486</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C259" s="9">
         <v>44196</v>
@@ -28960,7 +28960,7 @@
         <v>974</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C260" s="9">
         <v>43979</v>
@@ -28971,7 +28971,7 @@
         <v>514</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C261" s="9">
         <v>43949</v>
@@ -28982,7 +28982,7 @@
         <v>513</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C262" s="9">
         <v>43898</v>
@@ -28993,10 +28993,10 @@
         <v>642</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -29004,7 +29004,7 @@
         <v>485</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C264" s="9">
         <v>44593</v>
@@ -29015,7 +29015,7 @@
         <v>770</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C265" s="9">
         <v>44019</v>
@@ -29026,7 +29026,7 @@
         <v>612</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C266" s="9">
         <v>44001</v>
@@ -29037,7 +29037,7 @@
         <v>484</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C267" s="9">
         <v>44012</v>
@@ -29048,7 +29048,7 @@
         <v>973</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C268" s="9">
         <v>43982</v>
@@ -29059,7 +29059,7 @@
         <v>972</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C269" s="9">
         <v>44196</v>
@@ -29070,7 +29070,7 @@
         <v>517</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C270" s="9">
         <v>44196</v>
@@ -29081,10 +29081,10 @@
         <v>949</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -29092,7 +29092,7 @@
         <v>975</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C272" s="9">
         <v>44066</v>
@@ -29103,7 +29103,7 @@
         <v>603</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C273" s="9">
         <v>43983</v>
@@ -29114,10 +29114,10 @@
         <v>511</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -29125,10 +29125,10 @@
         <v>653</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -29136,7 +29136,7 @@
         <v>846</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C276" s="9">
         <v>44256</v>
@@ -29147,7 +29147,7 @@
         <v>853</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C277" s="9">
         <v>44074</v>
@@ -29158,7 +29158,7 @@
         <v>649</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C278" s="9">
         <v>44683</v>
@@ -29169,7 +29169,7 @@
         <v>847</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C279" s="9">
         <v>44070</v>
@@ -29180,7 +29180,7 @@
         <v>845</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C280" s="9">
         <v>44105</v>
@@ -29191,7 +29191,7 @@
         <v>885</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C281" s="9">
         <v>43982</v>
@@ -29202,7 +29202,7 @@
         <v>693</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C282" s="9">
         <v>43966</v>
@@ -29213,10 +29213,10 @@
         <v>641</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -29224,7 +29224,7 @@
         <v>546</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C284" s="9">
         <v>43922</v>
@@ -29235,7 +29235,7 @@
         <v>1039</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C285" s="9">
         <v>44074</v>
@@ -29246,7 +29246,7 @@
         <v>1014</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C286" s="9">
         <v>44042</v>
@@ -29257,7 +29257,7 @@
         <v>945</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C287" s="9">
         <v>43978</v>
@@ -29268,7 +29268,7 @@
         <v>944</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C288" s="9">
         <v>43951</v>
@@ -29279,7 +29279,7 @@
         <v>1042</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C289" s="9">
         <v>44012</v>
@@ -29290,7 +29290,7 @@
         <v>837</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C290" s="9">
         <v>44007</v>
@@ -29301,7 +29301,7 @@
         <v>983</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C291" s="9">
         <v>44013</v>
@@ -29312,7 +29312,7 @@
         <v>979</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C292" s="9">
         <v>44007</v>
@@ -29323,7 +29323,7 @@
         <v>950</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C293" s="9">
         <v>44252</v>
@@ -29334,7 +29334,7 @@
         <v>738</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C294" s="9">
         <v>44015</v>
@@ -29345,7 +29345,7 @@
         <v>700</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C295" s="9">
         <v>43951</v>
@@ -29356,7 +29356,7 @@
         <v>544</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C296" s="9">
         <v>45291</v>
@@ -29367,7 +29367,7 @@
         <v>433</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C297" s="9">
         <v>44227</v>
@@ -29378,7 +29378,7 @@
         <v>836</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C298" s="9">
         <v>44228</v>
@@ -29389,7 +29389,7 @@
         <v>650</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C299" s="9">
         <v>43955</v>
@@ -29400,7 +29400,7 @@
         <v>543</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C300" s="9">
         <v>44012</v>
@@ -29411,7 +29411,7 @@
         <v>673</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C301" s="9">
         <v>43921</v>
@@ -29422,7 +29422,7 @@
         <v>538</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C302" s="9">
         <v>44593</v>
@@ -29433,7 +29433,7 @@
         <v>1038</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C303" s="8">
         <v>44012</v>
@@ -29444,7 +29444,7 @@
         <v>545</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C304" s="9">
         <v>44077</v>
@@ -29455,7 +29455,7 @@
         <v>884</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C305" s="10">
         <v>43922</v>
@@ -29466,7 +29466,7 @@
         <v>978</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C306" s="8">
         <v>44742</v>
@@ -29477,7 +29477,7 @@
         <v>947</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C307" s="8">
         <v>43982</v>
@@ -29488,7 +29488,7 @@
         <v>529</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C308" s="8">
         <v>44260</v>
@@ -29499,7 +29499,7 @@
         <v>943</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C309" s="8">
         <v>44083</v>
@@ -29510,7 +29510,7 @@
         <v>982</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C310" s="8">
         <v>43976</v>
@@ -29521,7 +29521,7 @@
         <v>709</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C311" s="8">
         <v>43920</v>
@@ -29532,7 +29532,7 @@
         <v>723</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C312" s="8">
         <v>44260</v>
@@ -29543,7 +29543,7 @@
         <v>865</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C313" s="8">
         <v>43990</v>
@@ -29554,7 +29554,7 @@
         <v>537</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C314" s="8">
         <v>43903</v>
@@ -29565,7 +29565,7 @@
         <v>802</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C315" s="10">
         <v>44042</v>
@@ -29576,7 +29576,7 @@
         <v>618</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C316" s="8">
         <v>43921</v>
@@ -29587,7 +29587,7 @@
         <v>883</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C317" s="8">
         <v>44228</v>
@@ -29598,7 +29598,7 @@
         <v>948</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C318" s="8">
         <v>43951</v>
@@ -29609,7 +29609,7 @@
         <v>617</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C319" s="8">
         <v>43959</v>
@@ -29620,7 +29620,7 @@
         <v>607</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C320" s="8">
         <v>43983</v>
@@ -29631,7 +29631,7 @@
         <v>534</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C321" s="8">
         <v>44265</v>
@@ -29642,7 +29642,7 @@
         <v>532</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C322" s="8">
         <v>44012</v>
@@ -29653,7 +29653,7 @@
         <v>855</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C323" s="8">
         <v>44012</v>
@@ -29664,7 +29664,7 @@
         <v>492</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C324" s="8">
         <v>44263</v>
@@ -29675,7 +29675,7 @@
         <v>542</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C325" s="8">
         <v>44228</v>
@@ -29686,7 +29686,7 @@
         <v>882</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C326" s="8">
         <v>43952</v>
@@ -29697,7 +29697,7 @@
         <v>791</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C327" s="8">
         <v>43920</v>
@@ -29708,7 +29708,7 @@
         <v>490</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C328" s="8">
         <v>44257</v>
@@ -29719,7 +29719,7 @@
         <v>531</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C329" s="8">
         <v>43930</v>
@@ -29730,7 +29730,7 @@
         <v>575</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C330" s="8">
         <v>44561</v>
@@ -29741,7 +29741,7 @@
         <v>981</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C331" s="8">
         <v>44561</v>
@@ -29752,7 +29752,7 @@
         <v>580</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C332" s="9">
         <v>43982</v>
@@ -29763,7 +29763,7 @@
         <v>460</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C333" s="9">
         <v>43981</v>
@@ -29774,7 +29774,7 @@
         <v>574</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C334" s="9">
         <v>44926</v>
@@ -29785,7 +29785,7 @@
         <v>843</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C335" s="9">
         <v>44516</v>
@@ -29796,7 +29796,7 @@
         <v>893</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C336" s="9">
         <v>44196</v>
@@ -29807,7 +29807,7 @@
         <v>859</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C337" s="9">
         <v>44015</v>
@@ -29818,7 +29818,7 @@
         <v>539</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C338" s="9">
         <v>44135</v>
@@ -29829,7 +29829,7 @@
         <v>565</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C339" s="9">
         <v>44237</v>
@@ -29840,7 +29840,7 @@
         <v>858</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C340" s="9">
         <v>44265</v>
@@ -29851,7 +29851,7 @@
         <v>750</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C341" s="9">
         <v>44104</v>
@@ -29862,7 +29862,7 @@
         <v>749</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C342" s="9">
         <v>44104</v>
@@ -29873,7 +29873,7 @@
         <v>464</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C343" s="9">
         <v>44058</v>
@@ -29884,7 +29884,7 @@
         <v>696</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C344" s="9">
         <v>43982</v>
@@ -29895,7 +29895,7 @@
         <v>564</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C345" s="9">
         <v>44639</v>
@@ -29906,7 +29906,7 @@
         <v>820</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C346" s="9">
         <v>43923</v>
@@ -29917,7 +29917,7 @@
         <v>578</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C347" s="9">
         <v>44012</v>
@@ -29928,7 +29928,7 @@
         <v>577</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C348" s="9">
         <v>44074</v>
@@ -29939,7 +29939,7 @@
         <v>664</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C349" s="9">
         <v>43981</v>
@@ -29950,7 +29950,7 @@
         <v>1043</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C350" s="9">
         <v>44196</v>
@@ -29961,7 +29961,7 @@
         <v>891</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C351" s="9">
         <v>44074</v>
@@ -29972,7 +29972,7 @@
         <v>619</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C352" s="9">
         <v>43947</v>
@@ -29983,7 +29983,7 @@
         <v>568</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C353" s="9">
         <v>44012</v>
@@ -29994,7 +29994,7 @@
         <v>535</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C354" s="9">
         <v>44012</v>
@@ -30005,7 +30005,7 @@
         <v>563</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C355" s="8">
         <v>44074</v>
@@ -30016,7 +30016,7 @@
         <v>842</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C356" s="8">
         <v>44074</v>
@@ -30027,7 +30027,7 @@
         <v>561</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C357" s="8">
         <v>43936</v>
@@ -30038,7 +30038,7 @@
         <v>764</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C358" s="8">
         <v>44012</v>
@@ -30049,7 +30049,7 @@
         <v>1022</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C359" s="8">
         <v>44044</v>
@@ -30060,10 +30060,10 @@
         <v>470</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -30071,7 +30071,7 @@
         <v>1023</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C361" s="8">
         <v>44190</v>
@@ -30082,7 +30082,7 @@
         <v>890</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C362" s="8">
         <v>44074</v>
@@ -30093,7 +30093,7 @@
         <v>533</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C363" s="8">
         <v>44074</v>
@@ -30104,7 +30104,7 @@
         <v>628</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C364" s="8">
         <v>44012</v>
@@ -30115,7 +30115,7 @@
         <v>880</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C365" s="8">
         <v>44089</v>
@@ -30126,7 +30126,7 @@
         <v>559</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C366" s="8">
         <v>44063</v>
@@ -30137,7 +30137,7 @@
         <v>818</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C367" s="8">
         <v>44012</v>
@@ -30148,7 +30148,7 @@
         <v>799</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C368" s="8">
         <v>43951</v>
@@ -30159,7 +30159,7 @@
         <v>1020</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C369" s="8">
         <v>43968</v>
@@ -30170,7 +30170,7 @@
         <v>530</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C370" s="8">
         <v>43892</v>
@@ -30181,7 +30181,7 @@
         <v>867</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C371" s="8">
         <v>43922</v>
@@ -30192,7 +30192,7 @@
         <v>977</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C372" s="8">
         <v>44561</v>
@@ -30203,7 +30203,7 @@
         <v>567</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C373" s="8">
         <v>44074</v>
@@ -30214,7 +30214,7 @@
         <v>528</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C374" s="8">
         <v>44166</v>
@@ -30225,7 +30225,7 @@
         <v>860</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C375" s="9">
         <v>44228</v>
@@ -30236,7 +30236,7 @@
         <v>806</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C376" s="10">
         <v>44256</v>
@@ -30247,7 +30247,7 @@
         <v>835</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C377" s="8">
         <v>44024</v>
@@ -30258,7 +30258,7 @@
         <v>557</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C378" s="10">
         <v>43890</v>
@@ -30269,7 +30269,7 @@
         <v>957</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C379" s="8">
         <v>43982</v>
@@ -30280,7 +30280,7 @@
         <v>879</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C380" s="10">
         <v>43921</v>
@@ -30291,7 +30291,7 @@
         <v>576</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C381" s="8">
         <v>43847</v>
@@ -30302,7 +30302,7 @@
         <v>556</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C382" s="8">
         <v>43982</v>
@@ -30313,7 +30313,7 @@
         <v>527</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C383" s="8">
         <v>44592</v>
@@ -30324,7 +30324,7 @@
         <v>566</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C384" s="8">
         <v>44384</v>
@@ -30335,7 +30335,7 @@
         <v>526</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C385" s="8">
         <v>43952</v>
@@ -30346,7 +30346,7 @@
         <v>888</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C386" s="8">
         <v>44012</v>
@@ -30357,7 +30357,7 @@
         <v>892</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C387" s="8">
         <v>43890</v>
@@ -30368,7 +30368,7 @@
         <v>821</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C388" s="8">
         <v>44012</v>
@@ -30379,7 +30379,7 @@
         <v>573</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C389" s="8">
         <v>43951</v>
@@ -30390,7 +30390,7 @@
         <v>956</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C390" s="10">
         <v>44286</v>
@@ -30401,7 +30401,7 @@
         <v>616</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C391" s="8">
         <v>44012</v>
@@ -30412,7 +30412,7 @@
         <v>955</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C392" s="9">
         <v>43921</v>
@@ -30423,7 +30423,7 @@
         <v>878</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C393" s="9">
         <v>43920</v>
@@ -30434,7 +30434,7 @@
         <v>555</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C394" s="9">
         <v>44285</v>
@@ -30445,7 +30445,7 @@
         <v>1018</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C395" s="9">
         <v>43920</v>
@@ -30456,7 +30456,7 @@
         <v>554</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C396" s="9">
         <v>44227</v>
@@ -30467,7 +30467,7 @@
         <v>524</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C397" s="9">
         <v>43951</v>
@@ -30478,7 +30478,7 @@
         <v>877</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C398" s="9">
         <v>44250</v>
@@ -30489,7 +30489,7 @@
         <v>572</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C399" s="9">
         <v>44620</v>
@@ -30500,7 +30500,7 @@
         <v>571</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C400" s="9">
         <v>43885</v>
@@ -30511,7 +30511,7 @@
         <v>570</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C401" s="9">
         <v>44196</v>
@@ -30522,7 +30522,7 @@
         <v>626</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C402" s="9">
         <v>44196</v>
@@ -30533,7 +30533,7 @@
         <v>876</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C403" s="8">
         <v>43997</v>
@@ -30544,7 +30544,7 @@
         <v>857</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C404" s="8">
         <v>44042</v>
@@ -30555,7 +30555,7 @@
         <v>615</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C405" s="8">
         <v>43921</v>
@@ -30566,7 +30566,7 @@
         <v>569</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C406" s="8">
         <v>43921</v>
@@ -30577,7 +30577,7 @@
         <v>437</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C407" s="8">
         <v>43875</v>
@@ -30588,7 +30588,7 @@
         <v>1046</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C408" s="8">
         <v>44012</v>
@@ -30599,7 +30599,7 @@
         <v>627</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C409" s="8">
         <v>43957</v>
@@ -30610,7 +30610,7 @@
         <v>625</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C410" s="8">
         <v>43951</v>
@@ -30621,7 +30621,7 @@
         <v>452</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C411" s="8">
         <v>43982</v>
@@ -30632,7 +30632,7 @@
         <v>522</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C412" s="8">
         <v>44256</v>
@@ -30643,7 +30643,7 @@
         <v>819</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C413" s="8">
         <v>43951</v>
@@ -30654,7 +30654,7 @@
         <v>889</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C414" s="8">
         <v>43888</v>
@@ -30665,7 +30665,7 @@
         <v>707</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C415" s="8">
         <v>43982</v>
@@ -30676,7 +30676,7 @@
         <v>562</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C416" s="9">
         <v>43905</v>
@@ -30687,7 +30687,7 @@
         <v>841</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C417" s="9">
         <v>43952</v>
@@ -30698,7 +30698,7 @@
         <v>614</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C418" s="9">
         <v>43966</v>
@@ -30709,7 +30709,7 @@
         <v>840</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C419" s="9">
         <v>43951</v>
@@ -30720,7 +30720,7 @@
         <v>519</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C420" s="9">
         <v>43905</v>
@@ -30731,7 +30731,7 @@
         <v>887</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C421" s="9">
         <v>43983</v>
@@ -30742,10 +30742,10 @@
         <v>624</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -30753,7 +30753,7 @@
         <v>838</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C423" s="9">
         <v>44013</v>
@@ -30764,7 +30764,7 @@
         <v>553</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C424" s="9">
         <v>43998</v>
@@ -30775,7 +30775,7 @@
         <v>623</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C425" s="9">
         <v>44286</v>
@@ -30786,7 +30786,7 @@
         <v>1019</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C426" s="9">
         <v>44043</v>
@@ -30797,7 +30797,7 @@
         <v>518</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C427" s="9">
         <v>43951</v>
@@ -30808,7 +30808,7 @@
         <v>436</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C428" s="9">
         <v>44196</v>
@@ -30819,7 +30819,7 @@
         <v>938</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C429" s="9">
         <v>44196</v>
@@ -30830,7 +30830,7 @@
         <v>771</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C430" s="9">
         <v>44195</v>
@@ -30841,7 +30841,7 @@
         <v>856</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C431" s="9">
         <v>44266</v>
@@ -30852,7 +30852,7 @@
         <v>675</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C432" s="9">
         <v>43982</v>
@@ -30863,7 +30863,7 @@
         <v>550</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C433" s="9">
         <v>43951</v>
@@ -30874,7 +30874,7 @@
         <v>980</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C434" s="9">
         <v>44285</v>
@@ -30885,7 +30885,7 @@
         <v>904</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C435" s="9">
         <v>44317</v>
@@ -30896,7 +30896,7 @@
         <v>954</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C436" s="9">
         <v>44196</v>
@@ -30907,7 +30907,7 @@
         <v>560</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C437" s="9">
         <v>43904</v>
@@ -30918,7 +30918,7 @@
         <v>848</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C438" s="9">
         <v>43951</v>
@@ -30929,7 +30929,7 @@
         <v>417</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C439" s="9">
         <v>44196</v>
@@ -30940,7 +30940,7 @@
         <v>594</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C440" s="9">
         <v>43982</v>
@@ -30951,7 +30951,7 @@
         <v>964</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C441" s="9">
         <v>44317</v>
@@ -30962,7 +30962,7 @@
         <v>685</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C442" s="9">
         <v>44069</v>
@@ -30973,7 +30973,7 @@
         <v>1047</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C443" s="9">
         <v>43937</v>
@@ -30984,7 +30984,7 @@
         <v>465</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C444" s="9">
         <v>43998</v>
@@ -30995,7 +30995,7 @@
         <v>595</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C445" s="9">
         <v>43973</v>
@@ -31006,7 +31006,7 @@
         <v>898</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C446" s="9">
         <v>44012</v>
@@ -31017,7 +31017,7 @@
         <v>988</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C447" s="9">
         <v>44196</v>
@@ -31028,7 +31028,7 @@
         <v>638</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C448" s="9">
         <v>44255</v>
@@ -31039,7 +31039,7 @@
         <v>962</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C449" s="9">
         <v>43961</v>
@@ -31050,7 +31050,7 @@
         <v>963</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C450" s="9">
         <v>44073</v>
@@ -31061,7 +31061,7 @@
         <v>989</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C451" s="9">
         <v>44377</v>
@@ -31072,7 +31072,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C452" s="9">
         <v>44105</v>
@@ -31083,7 +31083,7 @@
         <v>987</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C453" s="9">
         <v>44012</v>
@@ -31094,7 +31094,7 @@
         <v>591</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C454" s="9">
         <v>44180</v>
@@ -31105,7 +31105,7 @@
         <v>637</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C455" s="9">
         <v>44012</v>
@@ -31116,7 +31116,7 @@
         <v>899</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C456" s="9">
         <v>43982</v>
@@ -31127,7 +31127,7 @@
         <v>440</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C457" s="9">
         <v>44074</v>
@@ -31138,7 +31138,7 @@
         <v>748</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C458" s="9">
         <v>43931</v>
@@ -31149,7 +31149,7 @@
         <v>766</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C459" s="9">
         <v>43951</v>
@@ -31160,7 +31160,7 @@
         <v>593</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C460" s="9">
         <v>44602</v>
@@ -31171,7 +31171,7 @@
         <v>636</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C461" s="9">
         <v>44012</v>
@@ -31182,7 +31182,7 @@
         <v>592</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C462" s="9">
         <v>43922</v>
@@ -31193,7 +31193,7 @@
         <v>590</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C463" s="9">
         <v>44196</v>
@@ -31204,7 +31204,7 @@
         <v>986</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C464" s="9">
         <v>44196</v>
@@ -31215,7 +31215,7 @@
         <v>863</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C465" s="9">
         <v>43899</v>
@@ -31226,7 +31226,7 @@
         <v>589</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C466" s="9">
         <v>43891</v>
@@ -31237,7 +31237,7 @@
         <v>716</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C467" s="9">
         <v>44007</v>
@@ -31248,7 +31248,7 @@
         <v>961</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C468" s="9">
         <v>43982</v>
@@ -31259,7 +31259,7 @@
         <v>862</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C469" s="9">
         <v>44051</v>
@@ -31270,7 +31270,7 @@
         <v>634</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C470" s="9">
         <v>44985</v>
@@ -31281,7 +31281,7 @@
         <v>896</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C471" s="9">
         <v>43994</v>
@@ -31292,7 +31292,7 @@
         <v>985</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C472" s="9">
         <v>44130</v>
@@ -31303,7 +31303,7 @@
         <v>635</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C473" s="9">
         <v>44093</v>
@@ -31314,7 +31314,7 @@
         <v>897</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C474" s="9">
         <v>43967</v>
@@ -31325,7 +31325,7 @@
         <v>895</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C475" s="8">
         <v>44601</v>
@@ -31336,7 +31336,7 @@
         <v>960</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C476" s="8">
         <v>43951</v>
@@ -31347,7 +31347,7 @@
         <v>861</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C477" s="8">
         <v>44643</v>
@@ -31358,7 +31358,7 @@
         <v>805</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C478" s="8">
         <v>44166</v>
@@ -31369,7 +31369,7 @@
         <v>587</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C479" s="8">
         <v>44286</v>
@@ -31380,7 +31380,7 @@
         <v>773</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C480" s="9">
         <v>44196</v>
@@ -31391,7 +31391,7 @@
         <v>446</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C481" s="9">
         <v>44274</v>
@@ -31402,7 +31402,7 @@
         <v>588</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C482" s="9">
         <v>44074</v>
@@ -31413,7 +31413,7 @@
         <v>864</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C483" s="9">
         <v>44196</v>
@@ -31424,7 +31424,7 @@
         <v>586</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C484" s="9">
         <v>44608</v>
@@ -31435,7 +31435,7 @@
         <v>2070</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C485" s="9">
         <v>44266</v>
@@ -31446,7 +31446,7 @@
         <v>2118</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C486" s="9">
         <v>43951</v>
@@ -31457,7 +31457,7 @@
         <v>2087</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C487" s="9">
         <v>44196</v>
@@ -31468,7 +31468,7 @@
         <v>2086</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C488" s="9">
         <v>44742</v>
@@ -31479,7 +31479,7 @@
         <v>2069</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C489" s="9">
         <v>43930</v>
@@ -31490,7 +31490,7 @@
         <v>2062</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C490" s="9">
         <v>44620</v>
@@ -31501,7 +31501,7 @@
         <v>2117</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C491" s="9">
         <v>43951</v>
@@ -31512,7 +31512,7 @@
         <v>2084</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C492" s="9">
         <v>44651</v>
@@ -31523,7 +31523,7 @@
         <v>2085</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C493" s="9">
         <v>43927</v>
@@ -31534,7 +31534,7 @@
         <v>2061</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C494" s="9">
         <v>44068</v>
@@ -31545,7 +31545,7 @@
         <v>2082</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C495" s="9">
         <v>43902</v>
@@ -31556,7 +31556,7 @@
         <v>2056</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C496" s="9">
         <v>44316</v>
@@ -31567,7 +31567,7 @@
         <v>2083</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C497" s="9">
         <v>44256</v>
@@ -31578,7 +31578,7 @@
         <v>2055</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C498" s="9">
         <v>44012</v>
@@ -31589,7 +31589,7 @@
         <v>2081</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C499" s="9">
         <v>44286</v>
@@ -31600,7 +31600,7 @@
         <v>2050</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C500" s="9">
         <v>43892</v>
@@ -31611,7 +31611,7 @@
         <v>2116</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C501" s="9">
         <v>43967</v>
@@ -31622,7 +31622,7 @@
         <v>2115</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C502" s="9">
         <v>43909</v>
@@ -31633,7 +31633,7 @@
         <v>2080</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C503" s="9">
         <v>43948</v>
@@ -31644,7 +31644,7 @@
         <v>2114</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C504" s="9">
         <v>44043</v>
@@ -31655,7 +31655,7 @@
         <v>2049</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C505" s="8">
         <v>44197</v>
@@ -31666,7 +31666,7 @@
         <v>2079</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C506" s="8">
         <v>43931</v>
@@ -31677,7 +31677,7 @@
         <v>2076</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C507" s="8">
         <v>43951</v>
@@ -31688,7 +31688,7 @@
         <v>2075</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C508" s="8">
         <v>45291</v>
@@ -31699,7 +31699,7 @@
         <v>2072</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C509" s="8">
         <v>44365</v>
@@ -31710,7 +31710,7 @@
         <v>2040</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C510" s="8">
         <v>44286</v>
@@ -31721,7 +31721,7 @@
         <v>2078</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C511" s="8">
         <v>44365</v>
@@ -31732,7 +31732,7 @@
         <v>2071</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C512" s="8">
         <v>44290</v>
@@ -31743,10 +31743,10 @@
         <v>2039</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C513" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -31754,7 +31754,7 @@
         <v>2113</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C514" s="8">
         <v>44592</v>
@@ -31765,7 +31765,7 @@
         <v>2112</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C515" s="8">
         <v>43982</v>
@@ -31776,7 +31776,7 @@
         <v>2064</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C516" s="8">
         <v>43980</v>
@@ -31787,10 +31787,10 @@
         <v>807</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C517" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -31798,10 +31798,10 @@
         <v>732</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -31809,10 +31809,10 @@
         <v>2092</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -31820,10 +31820,10 @@
         <v>689</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -31831,10 +31831,10 @@
         <v>2094</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C521" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -31842,10 +31842,10 @@
         <v>2090</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C522" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -31853,10 +31853,10 @@
         <v>741</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -31864,10 +31864,10 @@
         <v>2119</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C524" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -31875,10 +31875,10 @@
         <v>2093</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -31886,10 +31886,10 @@
         <v>2089</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -31897,10 +31897,10 @@
         <v>2091</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -31908,7 +31908,7 @@
         <v>740</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C528" s="8">
         <v>43965</v>
@@ -31919,7 +31919,7 @@
         <v>742</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C529" s="8">
         <v>43934</v>
@@ -31930,7 +31930,7 @@
         <v>692</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C530" s="8">
         <v>43968</v>
@@ -31941,7 +31941,7 @@
         <v>678</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C531" s="8">
         <v>43965</v>
@@ -31952,7 +31952,7 @@
         <v>743</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C532" s="8">
         <v>43924</v>
@@ -31963,7 +31963,7 @@
         <v>761</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C533" s="8">
         <v>43938</v>
@@ -31974,7 +31974,7 @@
         <v>691</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C534" s="8">
         <v>44002</v>
@@ -31985,7 +31985,7 @@
         <v>965</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C535" s="8">
         <v>43971</v>
@@ -31996,7 +31996,7 @@
         <v>633</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C536" s="8">
         <v>44287</v>
@@ -32007,7 +32007,7 @@
         <v>2063</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C537" s="8">
         <v>44280</v>
@@ -32018,7 +32018,7 @@
         <v>731</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C538" s="8">
         <v>44098</v>
@@ -32029,10 +32029,10 @@
         <v>717</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C539" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -32040,10 +32040,10 @@
         <v>680</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C540" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -32051,10 +32051,10 @@
         <v>718</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C541" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -32062,7 +32062,7 @@
         <v>767</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C542" s="8">
         <v>44439</v>
@@ -32073,7 +32073,7 @@
         <v>823</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C543" s="8">
         <v>44227</v>
@@ -34155,7 +34155,7 @@
         <v>900</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C733" s="8">
         <v>44059</v>
@@ -34166,7 +34166,7 @@
         <v>2088</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C734" s="8">
         <v>44462</v>
@@ -35526,16 +35526,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2303</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -35559,13 +35559,13 @@
         <v>753</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C4" s="8">
         <v>43908</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -35605,13 +35605,13 @@
         <v>908</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C9" s="8">
         <v>43922</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -35859,13 +35859,13 @@
         <v>726</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C40" s="8">
         <v>43921</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -35937,13 +35937,13 @@
         <v>712</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C49" s="8">
         <v>43908</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -36079,7 +36079,7 @@
         <v>604</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C66" s="8">
         <v>43909</v>
@@ -36117,13 +36117,13 @@
         <v>483</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C70" s="8">
         <v>43896</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -36219,13 +36219,13 @@
         <v>480</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C82" s="9">
         <v>43896</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -36753,13 +36753,13 @@
         <v>611</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C148" s="9">
         <v>43893</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -36959,13 +36959,13 @@
         <v>499</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C173" s="9">
         <v>43920</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -37101,13 +37101,13 @@
         <v>457</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C190" s="9">
         <v>43913</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -37123,13 +37123,13 @@
         <v>708</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C192" s="9">
         <v>43890</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -37489,13 +37489,13 @@
         <v>711</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C237" s="9">
         <v>43917</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -37999,13 +37999,13 @@
         <v>543</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C300" s="9">
         <v>43906</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -38125,13 +38125,13 @@
         <v>802</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C315" s="9">
         <v>43911</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -38323,13 +38323,13 @@
         <v>565</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C339" s="8">
         <v>43921</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -38337,13 +38337,13 @@
         <v>858</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>2287</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>2288</v>
-      </c>
       <c r="D340" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -38551,13 +38551,13 @@
         <v>559</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C366" s="8">
         <v>43920</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -38941,13 +38941,13 @@
         <v>889</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C414" s="8">
         <v>43901</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -39779,13 +39779,13 @@
         <v>732</v>
       </c>
       <c r="B518" s="11" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C518" s="8">
         <v>43910</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
@@ -40049,13 +40049,13 @@
         <v>683</v>
       </c>
       <c r="B551" s="11" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C551" s="8">
         <v>43913</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
@@ -40111,13 +40111,13 @@
         <v>852</v>
       </c>
       <c r="B558" s="11" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C558" s="8">
         <v>43896</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
@@ -40149,13 +40149,13 @@
         <v>728</v>
       </c>
       <c r="B562" s="11" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C562" s="8">
         <v>43896</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
@@ -40275,13 +40275,13 @@
         <v>755</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C577" s="8">
         <v>43914</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
@@ -40513,13 +40513,13 @@
         <v>705</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C606" s="8">
         <v>43914</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
@@ -40559,13 +40559,13 @@
         <v>886</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C611" s="8">
         <v>43900</v>
       </c>
       <c r="D611" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
@@ -41261,13 +41261,13 @@
         <v>2038</v>
       </c>
       <c r="B698" s="11" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="C698" s="8">
         <v>43924</v>
       </c>
       <c r="D698" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
@@ -43219,7 +43219,7 @@
         <v>1821</v>
       </c>
       <c r="E1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F1" t="s">
         <v>1822</v>
@@ -43243,7 +43243,7 @@
         <v>1828</v>
       </c>
       <c r="M1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N1" t="s">
         <v>1829</v>
@@ -43546,7 +43546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16E840F-93A3-7147-A0D9-FFACC429674F}">
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC33AB-8C78-F24D-810B-43A9BDB1AA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A3A24-C332-1441-9581-F781FD6D958A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35520" yWindow="3300" windowWidth="27740" windowHeight="16000" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="-35520" yWindow="3300" windowWidth="27740" windowHeight="16000" activeTab="2" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7596" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7844" uniqueCount="2448">
   <si>
     <t>unique_spon_names</t>
   </si>
@@ -6969,6 +6969,429 @@
   </si>
   <si>
     <t>Other (surgery)</t>
+  </si>
+  <si>
+    <t>Affiliated Hospital of Southwest Medical University</t>
+  </si>
+  <si>
+    <t>Affiliated Hospital of Zunyi Medical University</t>
+  </si>
+  <si>
+    <t>Amsterdam UMC</t>
+  </si>
+  <si>
+    <t>UMC Amsterdam</t>
+  </si>
+  <si>
+    <t>Ansun Biopharma, Inc.</t>
+  </si>
+  <si>
+    <t>APEIRON Respiratory Therapies GmbH</t>
+  </si>
+  <si>
+    <t>Assistance Publique – Hôpitaux de Paris</t>
+  </si>
+  <si>
+    <t>Assistance Publique - Hpitaux de Paris</t>
+  </si>
+  <si>
+    <t>Azienda Unit Sanitaria Locale-IRCCS di Reggio Emilia</t>
+  </si>
+  <si>
+    <t>IRCCS di Reggio Emilia</t>
+  </si>
+  <si>
+    <t>Barcelona Institute for Global Health</t>
+  </si>
+  <si>
+    <t>Bassett Healthcare</t>
+  </si>
+  <si>
+    <t>Baylor Research Institute</t>
+  </si>
+  <si>
+    <t>Can-Fite BioPharma</t>
+  </si>
+  <si>
+    <t>CCTU- Cancer Theme</t>
+  </si>
+  <si>
+    <t>Cambridge Clinical Trials Unit (CCTU)</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire de Saint Etienne</t>
+  </si>
+  <si>
+    <t>CHU de Saint Etienne</t>
+  </si>
+  <si>
+    <t>Centre Leon Berard</t>
+  </si>
+  <si>
+    <t>Chinese Academy of Sciences</t>
+  </si>
+  <si>
+    <t>CHU Angers</t>
+  </si>
+  <si>
+    <t>Deakin University</t>
+  </si>
+  <si>
+    <t>Dermatology Department of Peking University First Hosptal</t>
+  </si>
+  <si>
+    <t>Dr. Deneen Vojta</t>
+  </si>
+  <si>
+    <t>Dr. Michael Hill</t>
+  </si>
+  <si>
+    <t>Eastern theater General Hospital</t>
+  </si>
+  <si>
+    <t>Eastern Theater General Hospital</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>Erasme University Hospital</t>
+  </si>
+  <si>
+    <t>Estudios Cl=nicos Latino Amrica</t>
+  </si>
+  <si>
+    <t>Estudios Clínicos Latino América</t>
+  </si>
+  <si>
+    <t>Fasa University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Flinders Medical Centre</t>
+  </si>
+  <si>
+    <t>Fondation Mditerrane Infection (FMI) - IHU Mditerrane Infection</t>
+  </si>
+  <si>
+    <t>Fred Foundation ; Noaber Foundation</t>
+  </si>
+  <si>
+    <t>Fred Foundation; Noaber Foundation</t>
+  </si>
+  <si>
+    <t>Fundaci Institut de Recerca de l'Hospital de la Santa Creu i Sant Pau</t>
+  </si>
+  <si>
+    <t>Fundació Institut de Recerca de l'Hospital de la Santa Creu i Sant Pau</t>
+  </si>
+  <si>
+    <t>Gangnam Severance Hospital</t>
+  </si>
+  <si>
+    <t>Griffith University</t>
+  </si>
+  <si>
+    <t>Grupo Cooperativo de Hemopat=as Malignas</t>
+  </si>
+  <si>
+    <t>Grupo Cooperativo Hemopatías Malignas</t>
+  </si>
+  <si>
+    <t>HaEmek Medical Center, Israel</t>
+  </si>
+  <si>
+    <t>Healeon Medical Inc</t>
+  </si>
+  <si>
+    <t>HealthMode Inc.</t>
+  </si>
+  <si>
+    <t>HELLENIC INSTITUTE FOR THE STUDY OF SEPSIS</t>
+  </si>
+  <si>
+    <t>Hellenic Institute for the Study of Sepsis</t>
+  </si>
+  <si>
+    <t>Hepatopancreatobiliary Surgery Institute of Gansu Province</t>
+  </si>
+  <si>
+    <t>Hospital San Jose Tec de Monterrey</t>
+  </si>
+  <si>
+    <t>Huangshi Hospital of Traditional Chinese Medicine (Municipal Infectious Disease Hospital)</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>Infection prevention and treatment center of The Fifth Affiliated Hospital of Sun Yat-Sen University</t>
+  </si>
+  <si>
+    <t>InflaRx GmbH</t>
+  </si>
+  <si>
+    <t>Institut National de la Sant Et de la Recherche Mdicale, France</t>
+  </si>
+  <si>
+    <t>Instituto de Investigacin Marqus de Valdecilla</t>
+  </si>
+  <si>
+    <t>Intermountain Health Care, Inc.</t>
+  </si>
+  <si>
+    <t>Istinye University</t>
+  </si>
+  <si>
+    <t>Judit Pich Mart=nez</t>
+  </si>
+  <si>
+    <t>Judit Pich Martínez</t>
+  </si>
+  <si>
+    <t>Kanuni Sultan Suleyman Training and Research Hospital</t>
+  </si>
+  <si>
+    <t>Karolinska University Hospital</t>
+  </si>
+  <si>
+    <t>Kermanshah University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>King's College London</t>
+  </si>
+  <si>
+    <t>Klinik for Ansthesiologie und Intensivtherapie; Universittsklinikum Leipzig</t>
+  </si>
+  <si>
+    <t>Korea University Guro Hospital</t>
+  </si>
+  <si>
+    <t>Luiz F. L. Reis, Ph.D.</t>
+  </si>
+  <si>
+    <t>Mazandaran University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Murdoch Childrens Research Institute</t>
+  </si>
+  <si>
+    <t>Mxima MC</t>
+  </si>
+  <si>
+    <t>N0.2 People's Hospital of Fuyang City</t>
+  </si>
+  <si>
+    <t>Second People's Hospital of Fuyang City</t>
+  </si>
+  <si>
+    <t>Nanjing University</t>
+  </si>
+  <si>
+    <t>National and Kapodistrian University of Athens</t>
+  </si>
+  <si>
+    <t>National University of Ireland, Galway, Ireland</t>
+  </si>
+  <si>
+    <t>National University of Ireland, Galway</t>
+  </si>
+  <si>
+    <t>NHS Lothian</t>
+  </si>
+  <si>
+    <t>Ninth People's Hospital, Shanghai Jiao Tong University School of Medicine</t>
+  </si>
+  <si>
+    <t>NYU Langone Health</t>
+  </si>
+  <si>
+    <t>Oxford University Clinical Research Unit, Vietnam</t>
+  </si>
+  <si>
+    <t>Peking University Sixth Hospital</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Umar Farooq</t>
+  </si>
+  <si>
+    <t>Queen Mary University of London</t>
+  </si>
+  <si>
+    <t>RAD-AID International</t>
+  </si>
+  <si>
+    <t>Ravi Amaravadi, MD</t>
+  </si>
+  <si>
+    <t>Royal Brisbane &amp; Women's Hospital</t>
+  </si>
+  <si>
+    <t>Rush University Medical Center</t>
+  </si>
+  <si>
+    <t>sanofi-aventis recherche &amp; dveloppement</t>
+  </si>
+  <si>
+    <t>Sanofi-aventis Recherche et Dveloppement</t>
+  </si>
+  <si>
+    <t>Shanghai 10th People's Hospital</t>
+  </si>
+  <si>
+    <t>Shanghai Oriental Hospital</t>
+  </si>
+  <si>
+    <t>Sichuan Academy of Medical Sciences &amp; Sichuan Provincial PeopleAos Hospital</t>
+  </si>
+  <si>
+    <t>Societa Italiana dell'Ipertensione Arteriosa</t>
+  </si>
+  <si>
+    <t>Società Italiana dell'Ipertensione Arteriosa-Lega Italiana</t>
+  </si>
+  <si>
+    <t>South Metropolitan Health Service</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Sunnybrook Health Sciences Centre</t>
+  </si>
+  <si>
+    <t>Target PharmaSolutions, Inc.</t>
+  </si>
+  <si>
+    <t>The Fifth Medical Center of PLA General Hospital</t>
+  </si>
+  <si>
+    <t>The Parker Institute, Bispebjerg and Frederiksberg Hospital, The Capital Region of Denmark</t>
+  </si>
+  <si>
+    <t>The Parker Institute (Bispebjerg and Frederiksberg Hospital)</t>
+  </si>
+  <si>
+    <t>TMC HealthCare</t>
+  </si>
+  <si>
+    <t>Tongji Hospital of Tongji Medical College, Huazhong Science and Technology University</t>
+  </si>
+  <si>
+    <t>Uni-Pharma Kleon Tsetis Pharmaceutical Laboratories S.A.</t>
+  </si>
+  <si>
+    <t>Universidad Complutense de Madrid</t>
+  </si>
+  <si>
+    <t>Universidad de Granada</t>
+  </si>
+  <si>
+    <t>Universidad del Rosario</t>
+  </si>
+  <si>
+    <t>Universit Vita-Salute San Raffaele</t>
+  </si>
+  <si>
+    <t>Universitaire Ziekenhuizen Leuven</t>
+  </si>
+  <si>
+    <t>Universittsklinikum Tobingen</t>
+  </si>
+  <si>
+    <t>University Health Network, Toronto</t>
+  </si>
+  <si>
+    <t>University Hospital Inselspital, Berne</t>
+  </si>
+  <si>
+    <t>University Hospital of Bern</t>
+  </si>
+  <si>
+    <t>University Hospital, Angers</t>
+  </si>
+  <si>
+    <t>University Hospital, Bordeaux</t>
+  </si>
+  <si>
+    <t>University Hospital, Essen</t>
+  </si>
+  <si>
+    <t>University Hospital, Geneva</t>
+  </si>
+  <si>
+    <t>University Hospital, Ghent</t>
+  </si>
+  <si>
+    <t>University Hospital, Lille</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>University of L'Aquila</t>
+  </si>
+  <si>
+    <t>University of Melbourne</t>
+  </si>
+  <si>
+    <t>University of Missouri-Columbia</t>
+  </si>
+  <si>
+    <t>University of Warwick</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>Vanda Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Vascular Investigation Network Spanish Society for Angiology and Vascular Surgery</t>
+  </si>
+  <si>
+    <t>Spanish Society for Angiology and Vascular Surgery</t>
+  </si>
+  <si>
+    <t>Washington University School of Medicine</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>Weprom</t>
+  </si>
+  <si>
+    <t>Wroclaw Medical University</t>
+  </si>
+  <si>
+    <t>Wuhan Asia heart Hospital</t>
+  </si>
+  <si>
+    <t>Wuhan Asia Heart Hospital</t>
+  </si>
+  <si>
+    <t>Wuhan Women and Children's Health Care Center</t>
+  </si>
+  <si>
+    <t>NCT04321369</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Impact of Swab Site and Sample Collector on Testing Sensitivity for SARS-CoV-2 Virus in Symptomatic Individuals</t>
+  </si>
+  <si>
+    <t>Diagnostic Test: Testing Sensitivity for SARS-CoV-2 Virus in Symptomatic Individuals</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT04321369</t>
   </si>
 </sst>
 </file>
@@ -7372,16 +7795,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D462C6-375D-2A4D-81F0-358CC20C32FE}">
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:B581"/>
   <sheetViews>
-    <sheetView topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+    <sheetView topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="169.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="113.83203125" customWidth="1"/>
+    <col min="2" max="2" width="86.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -7474,3609 +7897,4561 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>2307</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>2308</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1855</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>1855</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>1855</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>2309</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1856</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1856</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1857</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1857</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1858</v>
+        <v>2311</v>
       </c>
       <c r="B23" t="s">
-        <v>1858</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>2312</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>1856</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>2314</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1857</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>1858</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>2315</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>2317</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>2318</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>2319</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1859</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1860</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>1860</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>1859</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1861</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>1861</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>2320</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B57" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>2321</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1863</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>1863</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>2323</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>2325</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>1861</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1864</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>1864</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1865</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="B71" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>1863</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>2326</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>1864</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>2327</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>2324</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>1865</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>87</v>
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1867</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>1866</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>2328</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1868</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>1868</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1869</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>1869</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1870</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>1870</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>2329</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="B106" t="s">
-        <v>1871</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1872</v>
+        <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>1872</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>1868</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>2330</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>2331</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>1869</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="B114" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>2332</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>2334</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>2335</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>2336</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1874</v>
+        <v>2338</v>
       </c>
       <c r="B121" t="s">
-        <v>1874</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1875</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
-        <v>1931</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1876</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>1876</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1878</v>
+        <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>1878</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1877</v>
+        <v>2339</v>
       </c>
       <c r="B130" t="s">
-        <v>1877</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>2340</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1879</v>
+        <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>1879</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>1871</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>2341</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>2343</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>1872</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>2345</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>2346</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>2347</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1880</v>
+        <v>117</v>
       </c>
       <c r="B145" t="s">
-        <v>1880</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>1873</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B148" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>1874</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>2349</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>2350</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1881</v>
+        <v>126</v>
       </c>
       <c r="B157" t="s">
-        <v>1881</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>2351</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
       <c r="B161" t="s">
-        <v>1882</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>2352</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>2354</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>1876</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1883</v>
+        <v>131</v>
       </c>
       <c r="B166" t="s">
-        <v>1883</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>1878</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>1877</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>1879</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>2355</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1884</v>
+        <v>2356</v>
       </c>
       <c r="B177" t="s">
-        <v>1884</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1885</v>
+        <v>140</v>
       </c>
       <c r="B179" t="s">
-        <v>1885</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1886</v>
+        <v>147</v>
       </c>
       <c r="B184" t="s">
-        <v>1886</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>1880</v>
       </c>
       <c r="B185" t="s">
-        <v>182</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1887</v>
+        <v>150</v>
       </c>
       <c r="B188" t="s">
-        <v>1887</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1888</v>
+        <v>152</v>
       </c>
       <c r="B190" t="s">
-        <v>1888</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1889</v>
+        <v>153</v>
       </c>
       <c r="B191" t="s">
-        <v>1889</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B192" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1890</v>
+        <v>155</v>
       </c>
       <c r="B193" t="s">
-        <v>1890</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1891</v>
+        <v>158</v>
       </c>
       <c r="B196" t="s">
-        <v>1891</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1892</v>
+        <v>1881</v>
       </c>
       <c r="B197" t="s">
-        <v>1892</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>189</v>
+        <v>2357</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>2358</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>2359</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1893</v>
+        <v>159</v>
       </c>
       <c r="B201" t="s">
-        <v>1893</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>193</v>
+        <v>2360</v>
       </c>
       <c r="B202" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B203" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1894</v>
+        <v>161</v>
       </c>
       <c r="B204" t="s">
-        <v>1894</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>196</v>
+        <v>1882</v>
       </c>
       <c r="B205" t="s">
-        <v>196</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B206" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1895</v>
+        <v>163</v>
       </c>
       <c r="B207" t="s">
-        <v>1895</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B208" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>199</v>
+        <v>2361</v>
       </c>
       <c r="B209" t="s">
-        <v>199</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>200</v>
+        <v>2362</v>
       </c>
       <c r="B210" t="s">
-        <v>199</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="B211" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>190</v>
+        <v>1883</v>
       </c>
       <c r="B212" t="s">
-        <v>190</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>2363</v>
       </c>
       <c r="B213" t="s">
-        <v>190</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1896</v>
+        <v>166</v>
       </c>
       <c r="B214" t="s">
-        <v>1896</v>
+        <v>166</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B215" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1897</v>
+        <v>168</v>
       </c>
       <c r="B216" t="s">
-        <v>1897</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B217" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B218" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B219" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B221" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1898</v>
+        <v>174</v>
       </c>
       <c r="B222" t="s">
-        <v>409</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>209</v>
+        <v>2364</v>
       </c>
       <c r="B223" t="s">
-        <v>209</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1899</v>
+        <v>2366</v>
       </c>
       <c r="B224" t="s">
-        <v>1899</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>210</v>
+        <v>2367</v>
       </c>
       <c r="B225" t="s">
-        <v>210</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>211</v>
+        <v>2368</v>
       </c>
       <c r="B226" t="s">
-        <v>211</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B227" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>213</v>
+        <v>1884</v>
       </c>
       <c r="B228" t="s">
-        <v>213</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>214</v>
+        <v>2369</v>
       </c>
       <c r="B229" t="s">
-        <v>214</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B230" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>216</v>
+        <v>2370</v>
       </c>
       <c r="B231" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>217</v>
+        <v>2371</v>
       </c>
       <c r="B232" t="s">
-        <v>217</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1900</v>
+        <v>1885</v>
       </c>
       <c r="B233" t="s">
-        <v>1900</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B234" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="B235" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="B236" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>221</v>
+        <v>1886</v>
       </c>
       <c r="B238" t="s">
-        <v>221</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1901</v>
+        <v>183</v>
       </c>
       <c r="B240" t="s">
-        <v>1932</v>
+        <v>183</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1902</v>
+        <v>184</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>223</v>
+        <v>1887</v>
       </c>
       <c r="B242" t="s">
-        <v>223</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>224</v>
+        <v>2372</v>
       </c>
       <c r="B243" t="s">
-        <v>224</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="B244" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1903</v>
+        <v>1888</v>
       </c>
       <c r="B245" t="s">
-        <v>1903</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>226</v>
+        <v>1889</v>
       </c>
       <c r="B246" t="s">
-        <v>226</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B247" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>228</v>
+        <v>1890</v>
       </c>
       <c r="B248" t="s">
-        <v>228</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>229</v>
+        <v>2373</v>
       </c>
       <c r="B249" t="s">
-        <v>229</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="B250" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="B251" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>232</v>
+        <v>1891</v>
       </c>
       <c r="B252" t="s">
-        <v>232</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>233</v>
+        <v>1892</v>
       </c>
       <c r="B253" t="s">
-        <v>233</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>234</v>
+        <v>2374</v>
       </c>
       <c r="B254" t="s">
-        <v>234</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>235</v>
+        <v>2375</v>
       </c>
       <c r="B255" t="s">
-        <v>234</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1904</v>
+        <v>2376</v>
       </c>
       <c r="B256" t="s">
-        <v>1933</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="B257" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="B258" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="B259" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>239</v>
+        <v>2378</v>
       </c>
       <c r="B260" t="s">
-        <v>239</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>240</v>
+        <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>240</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>241</v>
+        <v>2379</v>
       </c>
       <c r="B262" t="s">
-        <v>242</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="B263" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="B264" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>245</v>
+        <v>1894</v>
       </c>
       <c r="B265" t="s">
-        <v>245</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B266" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="B267" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>249</v>
+        <v>2380</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>250</v>
+        <v>1895</v>
       </c>
       <c r="B269" t="s">
-        <v>250</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B270" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>252</v>
+        <v>2382</v>
       </c>
       <c r="B271" t="s">
-        <v>253</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="B272" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1905</v>
+        <v>200</v>
       </c>
       <c r="B273" t="s">
-        <v>1905</v>
+        <v>199</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B274" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>256</v>
+        <v>2383</v>
       </c>
       <c r="B275" t="s">
-        <v>256</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="B276" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="B277" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>259</v>
+        <v>1896</v>
       </c>
       <c r="B278" t="s">
-        <v>259</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>260</v>
+        <v>2384</v>
       </c>
       <c r="B279" t="s">
-        <v>260</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1906</v>
+        <v>203</v>
       </c>
       <c r="B280" t="s">
-        <v>1906</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>261</v>
+        <v>1897</v>
       </c>
       <c r="B281" t="s">
-        <v>261</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>262</v>
+        <v>2385</v>
       </c>
       <c r="B282" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="B283" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="B284" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="B285" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>266</v>
+        <v>2386</v>
       </c>
       <c r="B286" t="s">
-        <v>267</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="B287" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="B288" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>270</v>
+        <v>1898</v>
       </c>
       <c r="B289" t="s">
-        <v>269</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="B290" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>272</v>
+        <v>1899</v>
       </c>
       <c r="B291" t="s">
-        <v>269</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>273</v>
+        <v>2387</v>
       </c>
       <c r="B292" t="s">
-        <v>274</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B293" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="B294" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="B295" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="B296" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="B297" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="B298" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="B299" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>281</v>
+        <v>2388</v>
       </c>
       <c r="B300" t="s">
-        <v>281</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>282</v>
+        <v>2389</v>
       </c>
       <c r="B301" t="s">
-        <v>281</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="B302" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>285</v>
+        <v>1900</v>
       </c>
       <c r="B303" t="s">
-        <v>285</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>286</v>
+        <v>2390</v>
       </c>
       <c r="B304" t="s">
-        <v>286</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B305" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="B306" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="B307" t="s">
-        <v>289</v>
+        <v>86</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>103</v>
+        <v>2391</v>
       </c>
       <c r="B308" t="s">
-        <v>103</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="B309" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="B310" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="B311" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>294</v>
+        <v>2392</v>
       </c>
       <c r="B312" t="s">
-        <v>294</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>295</v>
+        <v>1932</v>
       </c>
       <c r="B313" t="s">
-        <v>294</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>296</v>
+        <v>2393</v>
       </c>
       <c r="B314" t="s">
-        <v>294</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>297</v>
+        <v>1901</v>
       </c>
       <c r="B315" t="s">
-        <v>297</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>298</v>
+        <v>2394</v>
       </c>
       <c r="B316" t="s">
-        <v>298</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>299</v>
+        <v>1902</v>
       </c>
       <c r="B317" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="B318" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="B319" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="B320" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>303</v>
+        <v>1903</v>
       </c>
       <c r="B321" t="s">
-        <v>303</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="B322" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="B323" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="B324" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="B325" t="s">
-        <v>307</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>308</v>
+        <v>2395</v>
       </c>
       <c r="B326" t="s">
-        <v>308</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="B327" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="B328" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="B329" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="B330" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="B331" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="B332" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>63</v>
+        <v>1904</v>
       </c>
       <c r="B333" t="s">
-        <v>63</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="B334" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="B335" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>317</v>
+        <v>2396</v>
       </c>
       <c r="B336" t="s">
-        <v>317</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="B337" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="B338" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="B339" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="B340" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="B341" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="B342" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="B343" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="B344" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="B345" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="B346" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="B347" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="B348" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>330</v>
+        <v>2397</v>
       </c>
       <c r="B349" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="B350" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="B351" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>333</v>
+        <v>1905</v>
       </c>
       <c r="B352" t="s">
-        <v>334</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="B353" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>335</v>
+        <v>2398</v>
       </c>
       <c r="B354" t="s">
-        <v>335</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>336</v>
+        <v>2400</v>
       </c>
       <c r="B355" t="s">
-        <v>336</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="B356" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>338</v>
+        <v>2401</v>
       </c>
       <c r="B357" t="s">
-        <v>338</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="B358" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="B359" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="B360" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="B361" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>343</v>
+        <v>2402</v>
       </c>
       <c r="B362" t="s">
-        <v>77</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>344</v>
+        <v>1906</v>
       </c>
       <c r="B363" t="s">
-        <v>77</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="B364" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="B365" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>347</v>
+        <v>2403</v>
       </c>
       <c r="B366" t="s">
-        <v>77</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B367" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B368" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B369" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B370" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="B371" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="B372" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="B373" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="B374" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="B375" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>356</v>
+        <v>2404</v>
       </c>
       <c r="B376" t="s">
-        <v>77</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="B377" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1907</v>
+        <v>275</v>
       </c>
       <c r="B378" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="B379" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>359</v>
+        <v>101</v>
       </c>
       <c r="B380" t="s">
-        <v>359</v>
+        <v>101</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="B381" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1908</v>
+        <v>278</v>
       </c>
       <c r="B382" t="s">
-        <v>1908</v>
+        <v>278</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="B383" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="B384" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="B385" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="B386" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="B387" t="s">
-        <v>88</v>
+        <v>284</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1910</v>
+        <v>285</v>
       </c>
       <c r="B388" t="s">
-        <v>1934</v>
+        <v>285</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1912</v>
+        <v>286</v>
       </c>
       <c r="B389" t="s">
-        <v>1912</v>
+        <v>286</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1911</v>
+        <v>287</v>
       </c>
       <c r="B390" t="s">
-        <v>1935</v>
+        <v>287</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1913</v>
+        <v>288</v>
       </c>
       <c r="B391" t="s">
-        <v>1913</v>
+        <v>288</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1914</v>
+        <v>289</v>
       </c>
       <c r="B392" t="s">
-        <v>1914</v>
+        <v>289</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="B393" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="B394" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="B395" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1915</v>
+        <v>293</v>
       </c>
       <c r="B396" t="s">
-        <v>1915</v>
+        <v>293</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1916</v>
+        <v>294</v>
       </c>
       <c r="B397" t="s">
-        <v>1916</v>
+        <v>294</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1917</v>
+        <v>295</v>
       </c>
       <c r="B398" t="s">
-        <v>1917</v>
+        <v>294</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1918</v>
+        <v>296</v>
       </c>
       <c r="B399" t="s">
-        <v>1918</v>
+        <v>294</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1919</v>
+        <v>297</v>
       </c>
       <c r="B400" t="s">
-        <v>1919</v>
+        <v>297</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="B401" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="B402" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="B403" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="B404" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1920</v>
+        <v>302</v>
       </c>
       <c r="B405" t="s">
-        <v>1920</v>
+        <v>302</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1921</v>
+        <v>303</v>
       </c>
       <c r="B406" t="s">
-        <v>1921</v>
+        <v>303</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1922</v>
+        <v>304</v>
       </c>
       <c r="B407" t="s">
-        <v>1922</v>
+        <v>304</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="B408" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1909</v>
+        <v>306</v>
       </c>
       <c r="B409" t="s">
-        <v>1909</v>
+        <v>306</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1924</v>
+        <v>307</v>
       </c>
       <c r="B410" t="s">
-        <v>1936</v>
+        <v>307</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="B411" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="B412" t="s">
-        <v>74</v>
+        <v>309</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B413" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="B414" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="B415" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1923</v>
+        <v>2405</v>
       </c>
       <c r="B416" t="s">
-        <v>1937</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1925</v>
+        <v>313</v>
       </c>
       <c r="B417" t="s">
-        <v>1925</v>
+        <v>313</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1926</v>
+        <v>314</v>
       </c>
       <c r="B418" t="s">
-        <v>1926</v>
+        <v>313</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>377</v>
+        <v>63</v>
       </c>
       <c r="B419" t="s">
-        <v>378</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="B420" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="B421" t="s">
-        <v>82</v>
+        <v>316</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="B422" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="B423" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="B424" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="B425" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="B426" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="B427" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1927</v>
+        <v>323</v>
       </c>
       <c r="B428" t="s">
-        <v>1938</v>
+        <v>323</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="B429" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="B430" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="B431" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1930</v>
+        <v>327</v>
       </c>
       <c r="B432" t="s">
-        <v>1930</v>
+        <v>327</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
       <c r="B433" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="B434" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="B435" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="B436" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="B437" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="B438" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="B439" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="B440" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="B441" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="B442" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="B443" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="B444" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>401</v>
+        <v>2407</v>
       </c>
       <c r="B445" t="s">
-        <v>401</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1928</v>
+        <v>340</v>
       </c>
       <c r="B446" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="B447" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1929</v>
+        <v>342</v>
       </c>
       <c r="B448" t="s">
-        <v>1939</v>
+        <v>342</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="B449" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="B450" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="B451" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>406</v>
+        <v>2408</v>
       </c>
       <c r="B452" t="s">
-        <v>406</v>
+        <v>77</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="B453" t="s">
-        <v>407</v>
+        <v>77</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="B454" t="s">
-        <v>408</v>
+        <v>77</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="B455" t="s">
-        <v>409</v>
+        <v>77</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="B456" t="s">
-        <v>410</v>
+        <v>77</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="B457" t="s">
-        <v>411</v>
+        <v>77</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="B458" t="s">
-        <v>412</v>
+        <v>77</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="B459" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="B460" t="s">
-        <v>413</v>
+        <v>77</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="B461" t="s">
-        <v>415</v>
+        <v>77</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
+        <v>354</v>
+      </c>
+      <c r="B462" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>355</v>
+      </c>
+      <c r="B463" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>356</v>
+      </c>
+      <c r="B464" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>357</v>
+      </c>
+      <c r="B465" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B466" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>358</v>
+      </c>
+      <c r="B467" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>359</v>
+      </c>
+      <c r="B468" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>360</v>
+      </c>
+      <c r="B469" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B471" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>361</v>
+      </c>
+      <c r="B472" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>362</v>
+      </c>
+      <c r="B473" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>363</v>
+      </c>
+      <c r="B474" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>364</v>
+      </c>
+      <c r="B475" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>88</v>
+      </c>
+      <c r="B476" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B477" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B478" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B479" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B487" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B489" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B490" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>365</v>
+      </c>
+      <c r="B491" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>366</v>
+      </c>
+      <c r="B492" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>367</v>
+      </c>
+      <c r="B495" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B496" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B497" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B498" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B499" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B502" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B504" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B507" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B508" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>368</v>
+      </c>
+      <c r="B509" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B510" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>369</v>
+      </c>
+      <c r="B511" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>370</v>
+      </c>
+      <c r="B512" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B513" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>371</v>
+      </c>
+      <c r="B514" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B518" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B519" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>372</v>
+      </c>
+      <c r="B520" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B522" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B526" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>373</v>
+      </c>
+      <c r="B527" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>74</v>
+      </c>
+      <c r="B528" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>374</v>
+      </c>
+      <c r="B529" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>375</v>
+      </c>
+      <c r="B530" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>376</v>
+      </c>
+      <c r="B531" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B535" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>377</v>
+      </c>
+      <c r="B536" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>379</v>
+      </c>
+      <c r="B537" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B538" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>82</v>
+      </c>
+      <c r="B539" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>381</v>
+      </c>
+      <c r="B540" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>382</v>
+      </c>
+      <c r="B541" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>383</v>
+      </c>
+      <c r="B542" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>384</v>
+      </c>
+      <c r="B543" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>385</v>
+      </c>
+      <c r="B544" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>380</v>
+      </c>
+      <c r="B545" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>386</v>
+      </c>
+      <c r="B547" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B548" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>387</v>
+      </c>
+      <c r="B549" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>388</v>
+      </c>
+      <c r="B550" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>389</v>
+      </c>
+      <c r="B552" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>390</v>
+      </c>
+      <c r="B553" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>391</v>
+      </c>
+      <c r="B554" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>392</v>
+      </c>
+      <c r="B555" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>393</v>
+      </c>
+      <c r="B556" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>394</v>
+      </c>
+      <c r="B557" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>396</v>
+      </c>
+      <c r="B558" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>397</v>
+      </c>
+      <c r="B559" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>395</v>
+      </c>
+      <c r="B560" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>398</v>
+      </c>
+      <c r="B561" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>399</v>
+      </c>
+      <c r="B562" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>400</v>
+      </c>
+      <c r="B563" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>401</v>
+      </c>
+      <c r="B564" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B565" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>402</v>
+      </c>
+      <c r="B566" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>403</v>
+      </c>
+      <c r="B568" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>405</v>
+      </c>
+      <c r="B569" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>404</v>
+      </c>
+      <c r="B570" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>406</v>
+      </c>
+      <c r="B571" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>407</v>
+      </c>
+      <c r="B572" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>408</v>
+      </c>
+      <c r="B573" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>409</v>
+      </c>
+      <c r="B574" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>410</v>
+      </c>
+      <c r="B575" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>411</v>
+      </c>
+      <c r="B576" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>412</v>
+      </c>
+      <c r="B577" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>67</v>
+      </c>
+      <c r="B578" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>413</v>
+      </c>
+      <c r="B579" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>414</v>
+      </c>
+      <c r="B580" t="s">
         <v>415</v>
       </c>
-      <c r="B462" t="s">
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>415</v>
+      </c>
+      <c r="B581" t="s">
         <v>415</v>
       </c>
     </row>
@@ -11094,7 +12469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
   <dimension ref="A1:G743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+    <sheetView topLeftCell="A587" workbookViewId="0">
       <selection activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
@@ -26095,7 +27470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCEDD8-99CD-E64D-83C4-23A5F7177A3C}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F494" sqref="F494"/>
     </sheetView>
   </sheetViews>
@@ -43180,10 +44555,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2897C11-45D0-1143-9B66-314A64F11CA5}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43458,7 +44833,60 @@
         <v>43908</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43913</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43899</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2444</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2446</v>
+      </c>
+      <c r="M6">
+        <v>533</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>2447</v>
+      </c>
+      <c r="P6" s="4">
+        <v>43915</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>43928</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{4C51F28C-A368-DA47-B5FB-CBDB0D3BB91F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9913DA37-FC27-8744-8EA9-152286839407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64272A0E-AFCA-0648-8442-887C259EC894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9109" uniqueCount="2816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9111" uniqueCount="2817">
   <si>
     <t>unique_spon_names</t>
   </si>
@@ -7365,12 +7365,6 @@
     <t>https://clinicaltrials.gov/ct2/show/NCT04323527</t>
   </si>
   <si>
-    <t>primary completion date</t>
-  </si>
-  <si>
-    <t>full completion date</t>
-  </si>
-  <si>
     <t>ACTRN12620000438954</t>
   </si>
   <si>
@@ -7806,15 +7800,6 @@
     <t>NL8491</t>
   </si>
   <si>
-    <t>results link</t>
-  </si>
-  <si>
-    <t>results publication date</t>
-  </si>
-  <si>
-    <t>results type</t>
-  </si>
-  <si>
     <t>doi.org/10.1056/NEJMoa2001282</t>
   </si>
   <si>
@@ -8494,6 +8479,24 @@
   </si>
   <si>
     <t>Anakinra; tocilizumab; siltuximab</t>
+  </si>
+  <si>
+    <t>Fundacao de Medicina Tropical Dr. Heitor Vieira Dourado</t>
+  </si>
+  <si>
+    <t>primary_completion_date</t>
+  </si>
+  <si>
+    <t>full_completion_date</t>
+  </si>
+  <si>
+    <t>results_link</t>
+  </si>
+  <si>
+    <t>results_type</t>
+  </si>
+  <si>
+    <t>results_publication_date</t>
   </si>
 </sst>
 </file>
@@ -8899,10 +8902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D462C6-375D-2A4D-81F0-358CC20C32FE}">
-  <dimension ref="A1:B581"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431"/>
+    <sheetView topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="A582" sqref="A582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13557,6 +13560,14 @@
       </c>
       <c r="B581" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B582" t="s">
+        <v>2434</v>
       </c>
     </row>
   </sheetData>
@@ -13573,7 +13584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
   <dimension ref="A1:G890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
+    <sheetView topLeftCell="A864" workbookViewId="0">
       <selection activeCell="E893" sqref="E893"/>
     </sheetView>
   </sheetViews>
@@ -14104,7 +14115,7 @@
         <v>1051</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>2808</v>
+        <v>2803</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1936</v>
@@ -21078,7 +21089,7 @@
         <v>1811</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="F369" s="3" t="s">
         <v>1990</v>
@@ -21672,16 +21683,16 @@
         <v>1550</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -26392,10 +26403,10 @@
         <v>2114</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>1103</v>
@@ -28566,10 +28577,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" s="6" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="B744" s="6" t="s">
-        <v>2596</v>
+        <v>2591</v>
       </c>
       <c r="C744" s="6" t="s">
         <v>1061</v>
@@ -28586,10 +28597,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745" s="6" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>2597</v>
+        <v>2592</v>
       </c>
       <c r="C745" s="6" t="s">
         <v>1137</v>
@@ -28598,24 +28609,24 @@
         <v>1137</v>
       </c>
       <c r="E745" s="6" t="s">
-        <v>2740</v>
+        <v>2735</v>
       </c>
       <c r="F745" s="3" t="s">
-        <v>2740</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746" s="6" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>2598</v>
+        <v>2593</v>
       </c>
       <c r="C746" s="6" t="s">
-        <v>2741</v>
+        <v>2736</v>
       </c>
       <c r="D746" s="6" t="s">
-        <v>2741</v>
+        <v>2736</v>
       </c>
       <c r="E746" s="6" t="s">
         <v>1136</v>
@@ -28626,10 +28637,10 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747" s="6" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>2599</v>
+        <v>2594</v>
       </c>
       <c r="C747" s="6" t="s">
         <v>1061</v>
@@ -28646,10 +28657,10 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748" s="6" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>2600</v>
+        <v>2595</v>
       </c>
       <c r="C748" s="6" t="s">
         <v>1051</v>
@@ -28666,10 +28677,10 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749" s="6" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>2601</v>
+        <v>2596</v>
       </c>
       <c r="C749" s="6" t="s">
         <v>1051</v>
@@ -28686,16 +28697,16 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750" s="6" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B750" s="6" t="s">
-        <v>2602</v>
+        <v>2597</v>
       </c>
       <c r="C750" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D750" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E750" s="6" t="s">
         <v>1152</v>
@@ -28706,10 +28717,10 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751" s="6" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
       <c r="C751" s="6" t="s">
         <v>1060</v>
@@ -28726,10 +28737,10 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" s="6" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
       <c r="C752" s="6" t="s">
         <v>1051</v>
@@ -28746,10 +28757,10 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" s="6" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
       <c r="C753" s="6" t="s">
         <v>1060</v>
@@ -28766,10 +28777,10 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" s="6" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>2606</v>
+        <v>2601</v>
       </c>
       <c r="C754" s="6" t="s">
         <v>1061</v>
@@ -28786,10 +28797,10 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" s="6" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>2607</v>
+        <v>2602</v>
       </c>
       <c r="C755" s="6" t="s">
         <v>1061</v>
@@ -28806,10 +28817,10 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" s="6" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>2608</v>
+        <v>2603</v>
       </c>
       <c r="C756" s="6" t="s">
         <v>1059</v>
@@ -28826,10 +28837,10 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" s="6" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
       <c r="C757" s="6" t="s">
         <v>1051</v>
@@ -28838,24 +28849,24 @@
         <v>1051</v>
       </c>
       <c r="E757" s="6" t="s">
-        <v>2743</v>
+        <v>2738</v>
       </c>
       <c r="F757" s="3" t="s">
-        <v>2743</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" s="6" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>2610</v>
+        <v>2605</v>
       </c>
       <c r="C758" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D758" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E758" s="6" t="s">
         <v>1103</v>
@@ -28866,10 +28877,10 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" s="6" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>2611</v>
+        <v>2606</v>
       </c>
       <c r="C759" s="6" t="s">
         <v>1059</v>
@@ -28886,16 +28897,16 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" s="6" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>2612</v>
+        <v>2607</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E760" s="6" t="s">
         <v>1103</v>
@@ -28906,10 +28917,10 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" s="6" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>2613</v>
+        <v>2608</v>
       </c>
       <c r="C761" s="6" t="s">
         <v>1059</v>
@@ -28926,30 +28937,30 @@
     </row>
     <row r="762" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A762" s="6" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>2614</v>
+        <v>2609</v>
       </c>
       <c r="C762" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="D762" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="E762" s="6" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="F762" s="3" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" s="6" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B763" s="6" t="s">
-        <v>2615</v>
+        <v>2610</v>
       </c>
       <c r="C763" s="6" t="s">
         <v>1061</v>
@@ -28958,18 +28969,18 @@
         <v>1061</v>
       </c>
       <c r="E763" s="6" t="s">
-        <v>2745</v>
+        <v>2740</v>
       </c>
       <c r="F763" s="3" t="s">
-        <v>2745</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" s="6" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B764" s="6" t="s">
-        <v>2616</v>
+        <v>2611</v>
       </c>
       <c r="C764" s="6" t="s">
         <v>1059</v>
@@ -28986,16 +28997,16 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" s="6" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E765" s="6" t="s">
         <v>1103</v>
@@ -29006,10 +29017,10 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" s="6" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B766" s="6" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
       <c r="C766" s="6" t="s">
         <v>1060</v>
@@ -29026,10 +29037,10 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" s="6" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B767" s="6" t="s">
-        <v>2619</v>
+        <v>2614</v>
       </c>
       <c r="C767" s="6" t="s">
         <v>1061</v>
@@ -29038,18 +29049,18 @@
         <v>1061</v>
       </c>
       <c r="E767" s="6" t="s">
-        <v>2747</v>
+        <v>2742</v>
       </c>
       <c r="F767" s="3" t="s">
-        <v>2747</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="768" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A768" s="6" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>2620</v>
+        <v>2615</v>
       </c>
       <c r="C768" s="6" t="s">
         <v>1061</v>
@@ -29058,18 +29069,18 @@
         <v>1061</v>
       </c>
       <c r="E768" s="6" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="F768" s="3" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" s="6" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B769" s="6" t="s">
-        <v>2621</v>
+        <v>2616</v>
       </c>
       <c r="C769" s="6" t="s">
         <v>1061</v>
@@ -29078,24 +29089,24 @@
         <v>1061</v>
       </c>
       <c r="E769" s="6" t="s">
-        <v>2749</v>
+        <v>2744</v>
       </c>
       <c r="F769" s="3" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" s="6" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B770" s="6" t="s">
-        <v>2622</v>
+        <v>2617</v>
       </c>
       <c r="C770" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="D770" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="E770" s="6" t="s">
         <v>1136</v>
@@ -29106,10 +29117,10 @@
     </row>
     <row r="771" spans="1:6" ht="43" x14ac:dyDescent="0.2">
       <c r="A771" s="6" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B771" s="6" t="s">
-        <v>2623</v>
+        <v>2618</v>
       </c>
       <c r="C771" s="6" t="s">
         <v>1061</v>
@@ -29118,24 +29129,24 @@
         <v>1061</v>
       </c>
       <c r="E771" s="6" t="s">
-        <v>2750</v>
+        <v>2745</v>
       </c>
       <c r="F771" s="3" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" s="6" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B772" s="6" t="s">
-        <v>2624</v>
+        <v>2619</v>
       </c>
       <c r="C772" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D772" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E772" s="6" t="s">
         <v>1103</v>
@@ -29146,16 +29157,16 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" s="6" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B773" s="6" t="s">
-        <v>2625</v>
+        <v>2620</v>
       </c>
       <c r="C773" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D773" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E773" s="6" t="s">
         <v>1801</v>
@@ -29166,10 +29177,10 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" s="6" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B774" s="6" t="s">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="C774" s="6" t="s">
         <v>1061</v>
@@ -29178,18 +29189,18 @@
         <v>1061</v>
       </c>
       <c r="E774" s="6" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="F774" s="3" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" s="6" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="B775" s="6" t="s">
-        <v>2627</v>
+        <v>2622</v>
       </c>
       <c r="C775" s="6" t="s">
         <v>1136</v>
@@ -29206,16 +29217,16 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" s="6" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="B776" s="6" t="s">
-        <v>2628</v>
+        <v>2623</v>
       </c>
       <c r="C776" s="6" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D776" s="6" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="E776" s="6" t="s">
         <v>1797</v>
@@ -29226,10 +29237,10 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" s="6" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B777" s="6" t="s">
-        <v>2629</v>
+        <v>2624</v>
       </c>
       <c r="C777" s="6" t="s">
         <v>1059</v>
@@ -29246,10 +29257,10 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" s="6" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B778" s="6" t="s">
-        <v>2630</v>
+        <v>2625</v>
       </c>
       <c r="C778" s="6" t="s">
         <v>1061</v>
@@ -29266,10 +29277,10 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" s="6" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B779" s="6" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="C779" s="6" t="s">
         <v>1059</v>
@@ -29286,10 +29297,10 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" s="6" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B780" s="6" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
       <c r="C780" s="6" t="s">
         <v>1061</v>
@@ -29306,10 +29317,10 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" s="6" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B781" s="6" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="C781" s="6" t="s">
         <v>1061</v>
@@ -29326,10 +29337,10 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" s="6" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B782" s="6" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="C782" s="6" t="s">
         <v>1059</v>
@@ -29346,10 +29357,10 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B783" s="6" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="C783" s="6" t="s">
         <v>1061</v>
@@ -29358,18 +29369,18 @@
         <v>1061</v>
       </c>
       <c r="E783" s="6" t="s">
-        <v>2753</v>
+        <v>2748</v>
       </c>
       <c r="F783" s="6" t="s">
-        <v>2753</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B784" s="6" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="C784" s="6" t="s">
         <v>1061</v>
@@ -29386,10 +29397,10 @@
     </row>
     <row r="785" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C785" s="6" t="s">
         <v>1061</v>
@@ -29398,7 +29409,7 @@
         <v>1061</v>
       </c>
       <c r="E785" s="6" t="s">
-        <v>2754</v>
+        <v>2749</v>
       </c>
       <c r="F785" s="3" t="s">
         <v>2230</v>
@@ -29406,10 +29417,10 @@
     </row>
     <row r="786" spans="1:6" ht="43" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B786" s="6" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
       <c r="C786" s="6" t="s">
         <v>1061</v>
@@ -29418,18 +29429,18 @@
         <v>1061</v>
       </c>
       <c r="E786" s="6" t="s">
-        <v>2755</v>
+        <v>2750</v>
       </c>
       <c r="F786" s="3" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B787" s="6" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
       <c r="C787" s="6" t="s">
         <v>1059</v>
@@ -29446,10 +29457,10 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B788" s="6" t="s">
-        <v>2640</v>
+        <v>2635</v>
       </c>
       <c r="C788" s="6" t="s">
         <v>1061</v>
@@ -29461,15 +29472,15 @@
         <v>1113</v>
       </c>
       <c r="F788" s="3" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="B789" s="6" t="s">
-        <v>2641</v>
+        <v>2636</v>
       </c>
       <c r="C789" s="6" t="s">
         <v>1060</v>
@@ -29486,16 +29497,16 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B790" s="6" t="s">
-        <v>2642</v>
+        <v>2637</v>
       </c>
       <c r="C790" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E790" s="6" t="s">
         <v>1103</v>
@@ -29506,10 +29517,10 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B791" s="6" t="s">
-        <v>2643</v>
+        <v>2638</v>
       </c>
       <c r="C791" s="6" t="s">
         <v>1060</v>
@@ -29526,7 +29537,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B792" s="6" t="s">
         <v>2222</v>
@@ -29546,10 +29557,10 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B793" s="6" t="s">
-        <v>2644</v>
+        <v>2639</v>
       </c>
       <c r="C793" s="6" t="s">
         <v>1061</v>
@@ -29566,10 +29577,10 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B794" s="6" t="s">
-        <v>2645</v>
+        <v>2640</v>
       </c>
       <c r="C794" s="6" t="s">
         <v>1059</v>
@@ -29586,10 +29597,10 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B795" s="6" t="s">
-        <v>2646</v>
+        <v>2641</v>
       </c>
       <c r="C795" s="6" t="s">
         <v>1059</v>
@@ -29606,10 +29617,10 @@
     </row>
     <row r="796" spans="1:6" ht="43" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B796" s="6" t="s">
-        <v>2647</v>
+        <v>2642</v>
       </c>
       <c r="C796" s="6" t="s">
         <v>1061</v>
@@ -29618,18 +29629,18 @@
         <v>1061</v>
       </c>
       <c r="E796" s="6" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="F796" s="3" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B797" s="6" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="C797" s="6" t="s">
         <v>1051</v>
@@ -29638,18 +29649,18 @@
         <v>1051</v>
       </c>
       <c r="E797" s="3" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="F797" s="3" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="C798" s="6" t="s">
         <v>1061</v>
@@ -29666,10 +29677,10 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B799" s="6" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="C799" s="6" t="s">
         <v>1059</v>
@@ -29686,10 +29697,10 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" s="6" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B800" s="6" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
       <c r="C800" s="6" t="s">
         <v>1061</v>
@@ -29706,10 +29717,10 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B801" s="6" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
       <c r="C801" s="6" t="s">
         <v>1061</v>
@@ -29718,18 +29729,18 @@
         <v>1061</v>
       </c>
       <c r="E801" s="6" t="s">
-        <v>2757</v>
+        <v>2752</v>
       </c>
       <c r="F801" s="6" t="s">
-        <v>2757</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B802" s="6" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
       <c r="C802" s="6" t="s">
         <v>1061</v>
@@ -29738,18 +29749,18 @@
         <v>1061</v>
       </c>
       <c r="E802" s="6" t="s">
-        <v>2758</v>
+        <v>2753</v>
       </c>
       <c r="F802" s="3" t="s">
-        <v>2801</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B803" s="6" t="s">
-        <v>2654</v>
+        <v>2649</v>
       </c>
       <c r="C803" s="6" t="s">
         <v>1061</v>
@@ -29758,24 +29769,24 @@
         <v>1061</v>
       </c>
       <c r="E803" s="6" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="F803" s="3" t="s">
-        <v>2802</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B804" s="6" t="s">
-        <v>2655</v>
+        <v>2650</v>
       </c>
       <c r="C804" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D804" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E804" s="6" t="s">
         <v>1152</v>
@@ -29786,30 +29797,30 @@
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B805" s="6" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
       <c r="C805" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="D805" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="E805" s="6" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="F805" s="6" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" s="6" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B806" s="6" t="s">
-        <v>2657</v>
+        <v>2652</v>
       </c>
       <c r="C806" s="6" t="s">
         <v>1061</v>
@@ -29818,18 +29829,18 @@
         <v>1061</v>
       </c>
       <c r="E806" s="6" t="s">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="F806" s="3" t="s">
-        <v>2803</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807" s="6" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B807" s="6" t="s">
-        <v>2658</v>
+        <v>2653</v>
       </c>
       <c r="C807" s="6" t="s">
         <v>1061</v>
@@ -29846,10 +29857,10 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" s="6" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B808" s="6" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="C808" s="6" t="s">
         <v>1061</v>
@@ -29858,18 +29869,18 @@
         <v>1061</v>
       </c>
       <c r="E808" s="6" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="F808" s="6" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B809" s="6" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="C809" s="6" t="s">
         <v>1061</v>
@@ -29878,24 +29889,24 @@
         <v>1061</v>
       </c>
       <c r="E809" s="6" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="F809" s="6" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>2661</v>
+        <v>2656</v>
       </c>
       <c r="C810" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D810" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E810" s="6" t="s">
         <v>1152</v>
@@ -29906,10 +29917,10 @@
     </row>
     <row r="811" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
       <c r="C811" s="6" t="s">
         <v>1061</v>
@@ -29918,18 +29929,18 @@
         <v>1061</v>
       </c>
       <c r="E811" s="6" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="F811" s="3" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B812" s="6" t="s">
-        <v>2663</v>
+        <v>2658</v>
       </c>
       <c r="C812" s="6" t="s">
         <v>1061</v>
@@ -29946,10 +29957,10 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B813" s="6" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
       <c r="C813" s="6" t="s">
         <v>1051</v>
@@ -29966,10 +29977,10 @@
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B814" s="6" t="s">
-        <v>2665</v>
+        <v>2660</v>
       </c>
       <c r="C814" s="6" t="s">
         <v>1061</v>
@@ -29986,10 +29997,10 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B815" s="6" t="s">
-        <v>2666</v>
+        <v>2661</v>
       </c>
       <c r="C815" s="6" t="s">
         <v>1146</v>
@@ -30006,10 +30017,10 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B816" s="6" t="s">
-        <v>2667</v>
+        <v>2662</v>
       </c>
       <c r="C816" s="6" t="s">
         <v>1061</v>
@@ -30026,10 +30037,10 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>2668</v>
+        <v>2663</v>
       </c>
       <c r="C817" s="6" t="s">
         <v>1061</v>
@@ -30046,10 +30057,10 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B818" s="6" t="s">
-        <v>2669</v>
+        <v>2664</v>
       </c>
       <c r="C818" s="6" t="s">
         <v>1061</v>
@@ -30066,10 +30077,10 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B819" s="6" t="s">
-        <v>2670</v>
+        <v>2665</v>
       </c>
       <c r="C819" s="6" t="s">
         <v>1059</v>
@@ -30086,10 +30097,10 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B820" s="6" t="s">
-        <v>2671</v>
+        <v>2666</v>
       </c>
       <c r="C820" s="6" t="s">
         <v>1136</v>
@@ -30098,18 +30109,18 @@
         <v>1136</v>
       </c>
       <c r="E820" s="6" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="F820" s="6" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B821" s="6" t="s">
-        <v>2672</v>
+        <v>2667</v>
       </c>
       <c r="C821" s="6" t="s">
         <v>1061</v>
@@ -30126,10 +30137,10 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B822" s="6" t="s">
-        <v>2673</v>
+        <v>2668</v>
       </c>
       <c r="C822" s="6" t="s">
         <v>1061</v>
@@ -30138,18 +30149,18 @@
         <v>1061</v>
       </c>
       <c r="E822" s="6" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
       <c r="F822" s="6" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>2674</v>
+        <v>2669</v>
       </c>
       <c r="C823" s="6" t="s">
         <v>1059</v>
@@ -30166,10 +30177,10 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B824" s="6" t="s">
-        <v>2675</v>
+        <v>2670</v>
       </c>
       <c r="C824" s="6" t="s">
         <v>1061</v>
@@ -30178,18 +30189,18 @@
         <v>1061</v>
       </c>
       <c r="E824" s="6" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="F824" s="6" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B825" s="6" t="s">
-        <v>2676</v>
+        <v>2671</v>
       </c>
       <c r="C825" s="6" t="s">
         <v>1061</v>
@@ -30198,18 +30209,18 @@
         <v>1061</v>
       </c>
       <c r="E825" s="6" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="F825" s="6" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B826" s="6" t="s">
-        <v>2677</v>
+        <v>2672</v>
       </c>
       <c r="C826" s="6" t="s">
         <v>1061</v>
@@ -30218,18 +30229,18 @@
         <v>1061</v>
       </c>
       <c r="E826" s="6" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="F826" s="6" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B827" s="6" t="s">
-        <v>2678</v>
+        <v>2673</v>
       </c>
       <c r="C827" s="6" t="s">
         <v>1059</v>
@@ -30246,16 +30257,16 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>2679</v>
+        <v>2674</v>
       </c>
       <c r="C828" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D828" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E828" s="6" t="s">
         <v>1152</v>
@@ -30266,10 +30277,10 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B829" s="6" t="s">
-        <v>2680</v>
+        <v>2675</v>
       </c>
       <c r="C829" s="6" t="s">
         <v>1059</v>
@@ -30286,16 +30297,16 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B830" s="6" t="s">
-        <v>2681</v>
+        <v>2676</v>
       </c>
       <c r="C830" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D830" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E830" s="6" t="s">
         <v>1801</v>
@@ -30306,10 +30317,10 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831" s="6" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B831" s="6" t="s">
-        <v>2682</v>
+        <v>2677</v>
       </c>
       <c r="C831" s="6" t="s">
         <v>1061</v>
@@ -30318,18 +30329,18 @@
         <v>1061</v>
       </c>
       <c r="E831" s="6" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="F831" s="6" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B832" s="6" t="s">
-        <v>2683</v>
+        <v>2678</v>
       </c>
       <c r="C832" s="6" t="s">
         <v>1061</v>
@@ -30346,16 +30357,16 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B833" s="6" t="s">
-        <v>2684</v>
+        <v>2679</v>
       </c>
       <c r="C833" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D833" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E833" s="6" t="s">
         <v>1103</v>
@@ -30366,10 +30377,10 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B834" s="6" t="s">
-        <v>2685</v>
+        <v>2680</v>
       </c>
       <c r="C834" s="6" t="s">
         <v>1136</v>
@@ -30378,18 +30389,18 @@
         <v>1136</v>
       </c>
       <c r="E834" s="6" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="F834" s="6" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B835" s="6" t="s">
-        <v>2686</v>
+        <v>2681</v>
       </c>
       <c r="C835" s="6" t="s">
         <v>1061</v>
@@ -30398,18 +30409,18 @@
         <v>1061</v>
       </c>
       <c r="E835" s="6" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="F835" s="6" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B836" s="6" t="s">
-        <v>2687</v>
+        <v>2682</v>
       </c>
       <c r="C836" s="6" t="s">
         <v>1059</v>
@@ -30426,10 +30437,10 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B837" s="6" t="s">
-        <v>2688</v>
+        <v>2683</v>
       </c>
       <c r="C837" s="6" t="s">
         <v>1059</v>
@@ -30446,10 +30457,10 @@
     </row>
     <row r="838" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B838" s="6" t="s">
-        <v>2689</v>
+        <v>2684</v>
       </c>
       <c r="C838" s="6" t="s">
         <v>1061</v>
@@ -30458,18 +30469,18 @@
         <v>1061</v>
       </c>
       <c r="E838" s="6" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="F838" s="3" t="s">
-        <v>2802</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B839" s="6" t="s">
-        <v>2690</v>
+        <v>2685</v>
       </c>
       <c r="C839" s="6" t="s">
         <v>1061</v>
@@ -30478,38 +30489,38 @@
         <v>1061</v>
       </c>
       <c r="E839" s="6" t="s">
-        <v>2773</v>
+        <v>2768</v>
       </c>
       <c r="F839" s="6" t="s">
-        <v>2805</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B840" s="6" t="s">
-        <v>2691</v>
+        <v>2686</v>
       </c>
       <c r="C840" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="D840" s="6" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="E840" s="6" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="F840" s="6" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B841" s="6" t="s">
-        <v>2692</v>
+        <v>2687</v>
       </c>
       <c r="C841" s="6" t="s">
         <v>1051</v>
@@ -30526,10 +30537,10 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B842" s="6" t="s">
-        <v>2693</v>
+        <v>2688</v>
       </c>
       <c r="C842" s="6" t="s">
         <v>1059</v>
@@ -30546,10 +30557,10 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B843" s="6" t="s">
-        <v>2694</v>
+        <v>2689</v>
       </c>
       <c r="C843" s="6" t="s">
         <v>1059</v>
@@ -30566,10 +30577,10 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B844" s="6" t="s">
-        <v>2695</v>
+        <v>2690</v>
       </c>
       <c r="C844" s="6" t="s">
         <v>1059</v>
@@ -30586,10 +30597,10 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B845" s="6" t="s">
-        <v>2696</v>
+        <v>2691</v>
       </c>
       <c r="C845" s="6" t="s">
         <v>1051</v>
@@ -30606,30 +30617,30 @@
     </row>
     <row r="846" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>2697</v>
+        <v>2692</v>
       </c>
       <c r="C846" s="6" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="D846" s="6" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="E846" s="6" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B847" s="6" t="s">
-        <v>2698</v>
+        <v>2693</v>
       </c>
       <c r="C847" s="6" t="s">
         <v>1051</v>
@@ -30646,10 +30657,10 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B848" s="6" t="s">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="C848" s="6" t="s">
         <v>1060</v>
@@ -30666,10 +30677,10 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="B849" s="6" t="s">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="C849" s="6" t="s">
         <v>1136</v>
@@ -30686,10 +30697,10 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B850" s="6" t="s">
-        <v>2701</v>
+        <v>2696</v>
       </c>
       <c r="C850" s="6" t="s">
         <v>1060</v>
@@ -30706,10 +30717,10 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B851" s="6" t="s">
-        <v>2702</v>
+        <v>2697</v>
       </c>
       <c r="C851" s="6" t="s">
         <v>1051</v>
@@ -30718,18 +30729,18 @@
         <v>1051</v>
       </c>
       <c r="E851" s="6" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="F851" s="6" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="43" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B852" s="6" t="s">
-        <v>2703</v>
+        <v>2698</v>
       </c>
       <c r="C852" s="6" t="s">
         <v>1061</v>
@@ -30738,18 +30749,18 @@
         <v>1061</v>
       </c>
       <c r="E852" s="6" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="F852" s="3" t="s">
-        <v>2807</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B853" s="6" t="s">
-        <v>2704</v>
+        <v>2699</v>
       </c>
       <c r="C853" s="6" t="s">
         <v>1061</v>
@@ -30758,38 +30769,38 @@
         <v>1061</v>
       </c>
       <c r="E853" s="6" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="F853" s="6" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="B854" s="6" t="s">
-        <v>2705</v>
+        <v>2700</v>
       </c>
       <c r="C854" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="D854" s="6" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E854" s="6" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="F854" s="6" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B855" s="6" t="s">
-        <v>2706</v>
+        <v>2701</v>
       </c>
       <c r="C855" s="6" t="s">
         <v>1136</v>
@@ -30806,10 +30817,10 @@
     </row>
     <row r="856" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B856" s="6" t="s">
-        <v>2707</v>
+        <v>2702</v>
       </c>
       <c r="C856" s="6" t="s">
         <v>1061</v>
@@ -30818,18 +30829,18 @@
         <v>1061</v>
       </c>
       <c r="E856" s="6" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="F856" s="3" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B857" s="6" t="s">
-        <v>2708</v>
+        <v>2703</v>
       </c>
       <c r="C857" s="6" t="s">
         <v>1061</v>
@@ -30838,18 +30849,18 @@
         <v>1061</v>
       </c>
       <c r="E857" s="6" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="F857" s="6" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B858" s="6" t="s">
-        <v>2709</v>
+        <v>2704</v>
       </c>
       <c r="C858" s="6" t="s">
         <v>1051</v>
@@ -30866,10 +30877,10 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>2710</v>
+        <v>2705</v>
       </c>
       <c r="C859" s="6" t="s">
         <v>1059</v>
@@ -30886,10 +30897,10 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B860" s="6" t="s">
-        <v>2711</v>
+        <v>2706</v>
       </c>
       <c r="C860" s="6" t="s">
         <v>1061</v>
@@ -30906,10 +30917,10 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B861" s="6" t="s">
-        <v>2712</v>
+        <v>2707</v>
       </c>
       <c r="C861" s="6" t="s">
         <v>1061</v>
@@ -30918,18 +30929,18 @@
         <v>1061</v>
       </c>
       <c r="E861" s="6" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="F861" s="6" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A862" s="6" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>2713</v>
+        <v>2708</v>
       </c>
       <c r="C862" s="6" t="s">
         <v>1059</v>
@@ -30946,10 +30957,10 @@
     </row>
     <row r="863" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B863" s="6" t="s">
-        <v>2714</v>
+        <v>2709</v>
       </c>
       <c r="C863" s="6" t="s">
         <v>1061</v>
@@ -30958,18 +30969,18 @@
         <v>1061</v>
       </c>
       <c r="E863" s="6" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B864" s="6" t="s">
-        <v>2715</v>
+        <v>2710</v>
       </c>
       <c r="C864" s="6" t="s">
         <v>1061</v>
@@ -30986,10 +30997,10 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B865" s="6" t="s">
-        <v>2716</v>
+        <v>2711</v>
       </c>
       <c r="C865" s="6" t="s">
         <v>1061</v>
@@ -30998,18 +31009,18 @@
         <v>1061</v>
       </c>
       <c r="E865" s="6" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="F865" s="6" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B866" s="6" t="s">
-        <v>2717</v>
+        <v>2712</v>
       </c>
       <c r="C866" s="6" t="s">
         <v>1061</v>
@@ -31026,10 +31037,10 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B867" s="6" t="s">
-        <v>2718</v>
+        <v>2713</v>
       </c>
       <c r="C867" s="6" t="s">
         <v>1061</v>
@@ -31046,10 +31057,10 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B868" s="6" t="s">
-        <v>2719</v>
+        <v>2714</v>
       </c>
       <c r="C868" s="6" t="s">
         <v>1059</v>
@@ -31066,16 +31077,16 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B869" s="6" t="s">
-        <v>2720</v>
+        <v>2715</v>
       </c>
       <c r="C869" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D869" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E869" s="6" t="s">
         <v>1152</v>
@@ -31086,10 +31097,10 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B870" s="6" t="s">
-        <v>2721</v>
+        <v>2716</v>
       </c>
       <c r="C870" s="6" t="s">
         <v>1061</v>
@@ -31098,18 +31109,18 @@
         <v>1061</v>
       </c>
       <c r="E870" s="6" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="F870" s="6" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B871" s="6" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="C871" s="6" t="s">
         <v>1051</v>
@@ -31126,10 +31137,10 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B872" s="6" t="s">
-        <v>2723</v>
+        <v>2718</v>
       </c>
       <c r="C872" s="6" t="s">
         <v>1059</v>
@@ -31146,10 +31157,10 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B873" s="6" t="s">
-        <v>2724</v>
+        <v>2719</v>
       </c>
       <c r="C873" s="6" t="s">
         <v>1060</v>
@@ -31166,10 +31177,10 @@
     </row>
     <row r="874" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B874" s="6" t="s">
-        <v>2725</v>
+        <v>2720</v>
       </c>
       <c r="C874" s="6" t="s">
         <v>1061</v>
@@ -31178,24 +31189,24 @@
         <v>1061</v>
       </c>
       <c r="E874" s="6" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="F874" s="3" t="s">
-        <v>2812</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B875" s="6" t="s">
-        <v>2726</v>
+        <v>2721</v>
       </c>
       <c r="C875" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D875" s="6" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="E875" s="6" t="s">
         <v>1801</v>
@@ -31206,10 +31217,10 @@
     </row>
     <row r="876" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B876" s="6" t="s">
-        <v>2727</v>
+        <v>2722</v>
       </c>
       <c r="C876" s="6" t="s">
         <v>1061</v>
@@ -31218,18 +31229,18 @@
         <v>1061</v>
       </c>
       <c r="E876" s="6" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="F876" s="3" t="s">
-        <v>2813</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A877" s="6" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B877" s="6" t="s">
-        <v>2728</v>
+        <v>2723</v>
       </c>
       <c r="C877" s="6" t="s">
         <v>1061</v>
@@ -31238,18 +31249,18 @@
         <v>1061</v>
       </c>
       <c r="E877" s="6" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="F877" s="3" t="s">
-        <v>2814</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A878" s="6" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B878" s="6" t="s">
-        <v>2729</v>
+        <v>2724</v>
       </c>
       <c r="C878" s="6" t="s">
         <v>1061</v>
@@ -31266,16 +31277,16 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B879" s="6" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="C879" s="6" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D879" s="6" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="E879" s="6" t="s">
         <v>1797</v>
@@ -31286,10 +31297,10 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B880" s="6" t="s">
-        <v>2731</v>
+        <v>2726</v>
       </c>
       <c r="C880" s="6" t="s">
         <v>1060</v>
@@ -31306,10 +31317,10 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>2732</v>
+        <v>2727</v>
       </c>
       <c r="C881" s="6" t="s">
         <v>1136</v>
@@ -31318,18 +31329,18 @@
         <v>1136</v>
       </c>
       <c r="E881" s="6" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="F881" s="6" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B882" s="6" t="s">
-        <v>2733</v>
+        <v>2728</v>
       </c>
       <c r="C882" s="6" t="s">
         <v>1059</v>
@@ -31346,10 +31357,10 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A883" s="6" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>2734</v>
+        <v>2729</v>
       </c>
       <c r="C883" s="6" t="s">
         <v>1061</v>
@@ -31366,10 +31377,10 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A884" s="6" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B884" s="6" t="s">
-        <v>2735</v>
+        <v>2730</v>
       </c>
       <c r="C884" s="6" t="s">
         <v>1061</v>
@@ -31386,10 +31397,10 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" s="6" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B885" s="6" t="s">
-        <v>2736</v>
+        <v>2731</v>
       </c>
       <c r="C885" s="6" t="s">
         <v>1061</v>
@@ -31398,7 +31409,7 @@
         <v>1061</v>
       </c>
       <c r="E885" s="6" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="F885" s="6" t="s">
         <v>2239</v>
@@ -31406,10 +31417,10 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" s="6" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B886" s="6" t="s">
-        <v>2737</v>
+        <v>2732</v>
       </c>
       <c r="C886" s="6" t="s">
         <v>1061</v>
@@ -31418,18 +31429,18 @@
         <v>1061</v>
       </c>
       <c r="E886" s="6" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="F886" s="6" t="s">
-        <v>2815</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" s="6" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>2738</v>
+        <v>2733</v>
       </c>
       <c r="C887" s="6" t="s">
         <v>1061</v>
@@ -31446,10 +31457,10 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A888" s="6" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B888" s="6" t="s">
-        <v>2739</v>
+        <v>2734</v>
       </c>
       <c r="C888" s="6" t="s">
         <v>1060</v>
@@ -31514,8 +31525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCEDD8-99CD-E64D-83C4-23A5F7177A3C}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView topLeftCell="A863" workbookViewId="0">
-      <selection activeCell="B881" sqref="B881"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31530,10 +31541,10 @@
         <v>2261</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2439</v>
+        <v>2812</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2440</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -31560,7 +31571,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2262</v>
@@ -31571,7 +31582,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2262</v>
@@ -31582,7 +31593,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2262</v>
@@ -31593,7 +31604,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2262</v>
@@ -31604,7 +31615,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2262</v>
@@ -31615,7 +31626,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2262</v>
@@ -31626,7 +31637,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2262</v>
@@ -37280,7 +37291,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="6" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B524" s="6" t="s">
         <v>2262</v>
@@ -37291,7 +37302,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="6" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B525" s="6" t="s">
         <v>2262</v>
@@ -37302,7 +37313,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="6" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B526" s="6" t="s">
         <v>2262</v>
@@ -37313,7 +37324,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="6" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B527" s="6" t="s">
         <v>2262</v>
@@ -37324,7 +37335,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="6" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B528" s="6" t="s">
         <v>2262</v>
@@ -37335,7 +37346,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="6" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B529" s="6" t="s">
         <v>2262</v>
@@ -37346,7 +37357,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="6" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B530" s="6" t="s">
         <v>2262</v>
@@ -37357,7 +37368,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="6" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B531" s="6" t="s">
         <v>2262</v>
@@ -37368,7 +37379,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="6" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B532" s="6" t="s">
         <v>2262</v>
@@ -37379,7 +37390,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="6" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B533" s="6" t="s">
         <v>2262</v>
@@ -37390,7 +37401,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="6" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B534" s="6" t="s">
         <v>2262</v>
@@ -37401,7 +37412,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="6" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B535" s="6" t="s">
         <v>2262</v>
@@ -37412,7 +37423,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="6" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B536" s="6" t="s">
         <v>2262</v>
@@ -37423,7 +37434,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="6" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B537" s="6" t="s">
         <v>2262</v>
@@ -37434,7 +37445,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="6" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B538" s="6" t="s">
         <v>2262</v>
@@ -37445,7 +37456,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="6" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B539" s="6" t="s">
         <v>2262</v>
@@ -37456,7 +37467,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B540" s="6" t="s">
         <v>2262</v>
@@ -37467,7 +37478,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="6" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B541" s="6" t="s">
         <v>2262</v>
@@ -37478,7 +37489,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="6" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B542" s="6" t="s">
         <v>2262</v>
@@ -37489,7 +37500,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B543" s="6" t="s">
         <v>2262</v>
@@ -37500,7 +37511,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>2262</v>
@@ -37511,7 +37522,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="6" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B545" s="6" t="s">
         <v>2262</v>
@@ -37522,7 +37533,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="6" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B546" s="6" t="s">
         <v>2262</v>
@@ -37533,7 +37544,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="6" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B547" s="6" t="s">
         <v>2262</v>
@@ -37544,7 +37555,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="6" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B548" s="6" t="s">
         <v>2262</v>
@@ -37632,7 +37643,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="6" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B556" s="6" t="s">
         <v>2262</v>
@@ -37654,7 +37665,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="6" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B558" s="6" t="s">
         <v>2262</v>
@@ -37676,7 +37687,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="6" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B560" s="6" t="s">
         <v>2262</v>
@@ -37709,7 +37720,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="6" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B563" s="6" t="s">
         <v>2262</v>
@@ -37720,7 +37731,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="6" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B564" s="6" t="s">
         <v>2262</v>
@@ -37731,7 +37742,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="6" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B565" s="6" t="s">
         <v>2262</v>
@@ -37742,7 +37753,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="6" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B566" s="6" t="s">
         <v>2262</v>
@@ -37753,7 +37764,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="6" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B567" s="6" t="s">
         <v>2262</v>
@@ -37764,7 +37775,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="6" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B568" s="6" t="s">
         <v>2262</v>
@@ -37775,7 +37786,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="6" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B569" s="6" t="s">
         <v>2262</v>
@@ -37874,7 +37885,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="6" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B578" s="6" t="s">
         <v>2262</v>
@@ -37896,7 +37907,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="6" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B580" s="6" t="s">
         <v>2262</v>
@@ -37907,7 +37918,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="6" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B581" s="6" t="s">
         <v>2262</v>
@@ -37918,7 +37929,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="6" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B582" s="6" t="s">
         <v>2262</v>
@@ -38798,7 +38809,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="6" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="B662" s="8">
         <v>44256</v>
@@ -40129,7 +40140,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="B783" s="8">
         <v>44105</v>
@@ -40140,7 +40151,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B784" s="8">
         <v>44075</v>
@@ -40151,7 +40162,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B785" s="8">
         <v>43982</v>
@@ -40162,7 +40173,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="B786" s="8">
         <v>44255</v>
@@ -40173,7 +40184,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B787" s="8">
         <v>44501</v>
@@ -40184,7 +40195,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="B788" s="8">
         <v>44109</v>
@@ -40195,7 +40206,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="B789" s="8">
         <v>44100</v>
@@ -40206,7 +40217,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="B790" s="8">
         <v>44829</v>
@@ -40217,7 +40228,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B791" s="8">
         <v>44293</v>
@@ -40228,7 +40239,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B792" s="8">
         <v>44044</v>
@@ -40239,7 +40250,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B793" s="8">
         <v>43952</v>
@@ -40250,7 +40261,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B794" s="8">
         <v>44013</v>
@@ -40261,7 +40272,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B795" s="8">
         <v>44074</v>
@@ -40272,7 +40283,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B796" s="8">
         <v>44135</v>
@@ -40283,7 +40294,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B797" s="8">
         <v>44440</v>
@@ -40294,7 +40305,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B798" s="8">
         <v>44134</v>
@@ -40305,7 +40316,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B799" s="8">
         <v>43971</v>
@@ -40316,7 +40327,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="6" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B800" s="8">
         <v>44013</v>
@@ -40327,7 +40338,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B801" s="8">
         <v>44073</v>
@@ -40338,7 +40349,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B802" s="8">
         <v>46106</v>
@@ -40349,7 +40360,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B803" s="8">
         <v>44500</v>
@@ -40360,7 +40371,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B804" s="8">
         <v>43947</v>
@@ -40371,7 +40382,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B805" s="8">
         <v>44104</v>
@@ -40382,7 +40393,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="6" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B806" s="8">
         <v>43966</v>
@@ -40393,7 +40404,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="6" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B807" s="8">
         <v>44197</v>
@@ -40404,7 +40415,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="6" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B808" s="8">
         <v>44643</v>
@@ -40415,7 +40426,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B809" s="8">
         <v>43979</v>
@@ -40426,7 +40437,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B810" s="8">
         <v>44165</v>
@@ -40437,7 +40448,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B811" s="8">
         <v>44129</v>
@@ -40448,7 +40459,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B812" s="8">
         <v>43923</v>
@@ -40459,7 +40470,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B813" s="8">
         <v>44044</v>
@@ -40470,7 +40481,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B814" s="8">
         <v>43981</v>
@@ -40481,7 +40492,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B815" s="8">
         <v>44287</v>
@@ -40492,7 +40503,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B816" s="8">
         <v>44104</v>
@@ -40503,7 +40514,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B817" s="8">
         <v>43915</v>
@@ -40514,7 +40525,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B818" s="8">
         <v>44012</v>
@@ -40525,7 +40536,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B819" s="8">
         <v>44592</v>
@@ -40536,7 +40547,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B820" s="8">
         <v>44011</v>
@@ -40547,7 +40558,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B821" s="8">
         <v>43982</v>
@@ -40558,7 +40569,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B822" s="8">
         <v>44043</v>
@@ -40569,7 +40580,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B823" s="8">
         <v>43971</v>
@@ -40580,7 +40591,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B824" s="8">
         <v>44196</v>
@@ -40591,7 +40602,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B825" s="8">
         <v>44287</v>
@@ -40602,7 +40613,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B826" s="8">
         <v>44285</v>
@@ -40613,7 +40624,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B827" s="8">
         <v>44272</v>
@@ -40624,7 +40635,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B828" s="8">
         <v>44227</v>
@@ -40635,7 +40646,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B829" s="8">
         <v>44141</v>
@@ -40646,7 +40657,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B830" s="8">
         <v>44682</v>
@@ -40657,7 +40668,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="6" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B831" s="8">
         <v>44012</v>
@@ -40668,7 +40679,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B832" s="8">
         <v>45748</v>
@@ -40679,7 +40690,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B833" s="8">
         <v>44075</v>
@@ -40690,7 +40701,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B834" s="8">
         <v>44638</v>
@@ -40701,7 +40712,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B835" s="8">
         <v>44013</v>
@@ -40712,7 +40723,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B836" s="8">
         <v>43921</v>
@@ -40723,7 +40734,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B837" s="8">
         <v>43922</v>
@@ -40734,7 +40745,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B838" s="8">
         <v>43941</v>
@@ -40745,7 +40756,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B839" s="8">
         <v>44643</v>
@@ -40756,7 +40767,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B840" s="8">
         <v>43931</v>
@@ -40767,7 +40778,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B841" s="8">
         <v>44104</v>
@@ -40778,7 +40789,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B842" s="8">
         <v>44166</v>
@@ -40789,7 +40800,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B843" s="8">
         <v>44134</v>
@@ -40800,7 +40811,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B844" s="8">
         <v>44013</v>
@@ -40811,7 +40822,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B845" s="8">
         <v>44286</v>
@@ -40822,7 +40833,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B846" s="8">
         <v>44107</v>
@@ -40833,7 +40844,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B847" s="6" t="s">
         <v>2262</v>
@@ -40844,7 +40855,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B848" s="8">
         <v>44256</v>
@@ -40855,7 +40866,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B849" s="8">
         <v>44347</v>
@@ -40866,7 +40877,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B850" s="8">
         <v>44986</v>
@@ -40877,7 +40888,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B851" s="8">
         <v>44013</v>
@@ -40888,7 +40899,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B852" s="8">
         <v>44075</v>
@@ -40899,7 +40910,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B853" s="8">
         <v>44042</v>
@@ -40910,7 +40921,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B854" s="8">
         <v>44074</v>
@@ -40921,7 +40932,7 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B855" s="8">
         <v>43981</v>
@@ -40932,7 +40943,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B856" s="8">
         <v>44074</v>
@@ -40943,7 +40954,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B857" s="8">
         <v>44196</v>
@@ -40954,7 +40965,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B858" s="8">
         <v>44287</v>
@@ -40965,7 +40976,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B859" s="8">
         <v>44042</v>
@@ -40976,7 +40987,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B860" s="8">
         <v>44926</v>
@@ -40987,7 +40998,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B861" s="8">
         <v>44185</v>
@@ -40998,7 +41009,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" s="6" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B862" s="8">
         <v>44285</v>
@@ -41009,7 +41020,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B863" s="8">
         <v>44135</v>
@@ -41020,7 +41031,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B864" s="8">
         <v>43988</v>
@@ -41031,7 +41042,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B865" s="8">
         <v>44075</v>
@@ -41042,7 +41053,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B866" s="8">
         <v>43983</v>
@@ -41053,7 +41064,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B867" s="8">
         <v>44287</v>
@@ -41064,7 +41075,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B868" s="8">
         <v>43952</v>
@@ -41075,7 +41086,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B869" s="8">
         <v>44105</v>
@@ -41086,7 +41097,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="B870" s="8">
         <v>44228</v>
@@ -41097,7 +41108,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B871" s="8">
         <v>44075</v>
@@ -41108,7 +41119,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B872" s="8">
         <v>44012</v>
@@ -41119,7 +41130,7 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B873" s="8">
         <v>43983</v>
@@ -41130,7 +41141,7 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B874" s="8">
         <v>44105</v>
@@ -41141,7 +41152,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B875" s="8">
         <v>44012</v>
@@ -41152,7 +41163,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B876" s="8">
         <v>43983</v>
@@ -41185,7 +41196,7 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="B879" s="6" t="s">
         <v>2262</v>
@@ -41196,7 +41207,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B880" s="6" t="s">
         <v>2262</v>
@@ -41207,7 +41218,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B881" s="6" t="s">
         <v>2262</v>
@@ -41218,7 +41229,7 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B882" s="6" t="s">
         <v>2262</v>
@@ -41828,14 +41839,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8C4E0-02D7-BD4E-9875-A292DA5969FB}">
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41844,13 +41856,13 @@
         <v>2261</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2586</v>
+        <v>2814</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2587</v>
+        <v>2816</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2588</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -41871,7 +41883,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -41879,7 +41891,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -41887,7 +41899,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -41895,7 +41907,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -41903,7 +41915,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -41911,7 +41923,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -41919,7 +41931,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -41930,7 +41942,7 @@
         <v>753</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="C11" s="8">
         <v>43908</v>
@@ -44708,7 +44720,7 @@
         <v>858</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
       <c r="C347" s="8">
         <v>43907</v>
@@ -44730,7 +44742,7 @@
         <v>749</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>2591</v>
+        <v>2586</v>
       </c>
       <c r="C349" s="8">
         <v>43914</v>
@@ -46042,7 +46054,7 @@
         <v>2107</v>
       </c>
       <c r="B511" s="11" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="C511" s="12">
         <v>43920</v>
@@ -46144,7 +46156,7 @@
         <v>2057</v>
       </c>
       <c r="B523" s="11" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="C523" s="8">
         <v>43928</v>
@@ -46155,7 +46167,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="6" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -46163,7 +46175,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="6" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -46171,7 +46183,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="6" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -46179,7 +46191,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="6" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -46187,7 +46199,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="6" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -46195,7 +46207,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="6" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -46203,7 +46215,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="6" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -46211,7 +46223,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="6" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -46219,7 +46231,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="6" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -46227,7 +46239,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="6" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -46235,7 +46247,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="6" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -46243,7 +46255,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="6" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -46251,7 +46263,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="6" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -46259,7 +46271,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="6" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -46267,7 +46279,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="6" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -46275,7 +46287,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="6" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -46283,7 +46295,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -46291,7 +46303,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="6" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -46299,7 +46311,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="6" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -46307,7 +46319,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -46315,7 +46327,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -46323,7 +46335,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="6" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -46331,7 +46343,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="6" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -46339,7 +46351,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="6" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -46347,7 +46359,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="6" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -46417,7 +46429,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="6" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -46433,7 +46445,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="6" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -46449,7 +46461,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="6" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -46473,7 +46485,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="6" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -46481,7 +46493,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="6" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -46489,7 +46501,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="6" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -46497,7 +46509,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="6" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -46505,7 +46517,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="6" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -46513,7 +46525,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="6" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -46521,7 +46533,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="6" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -46593,7 +46605,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="6" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -46609,7 +46621,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="6" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -46617,7 +46629,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="6" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -46625,7 +46637,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="6" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -47301,7 +47313,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="6" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -47936,7 +47948,7 @@
         <v>2030</v>
       </c>
       <c r="B741" s="11" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="C741" s="8">
         <v>43927</v>
@@ -48116,7 +48128,7 @@
         <v>2035</v>
       </c>
       <c r="B762" s="11" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="C762" s="8">
         <v>43932</v>
@@ -48287,7 +48299,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -48295,7 +48307,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -48303,7 +48315,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -48311,7 +48323,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -48319,7 +48331,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -48327,7 +48339,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -48335,7 +48347,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -48343,7 +48355,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -48351,7 +48363,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -48359,7 +48371,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -48367,7 +48379,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -48375,7 +48387,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -48383,7 +48395,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -48391,7 +48403,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -48399,7 +48411,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -48407,7 +48419,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -48415,7 +48427,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -48423,7 +48435,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800" s="6" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -48431,7 +48443,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -48439,7 +48451,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -48447,7 +48459,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -48455,7 +48467,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -48463,7 +48475,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -48471,7 +48483,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A806" s="6" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -48479,7 +48491,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A807" s="6" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -48487,7 +48499,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A808" s="6" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -48495,7 +48507,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -48503,7 +48515,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -48511,7 +48523,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -48519,7 +48531,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -48527,7 +48539,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -48535,7 +48547,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -48543,7 +48555,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -48551,7 +48563,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -48559,7 +48571,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -48567,7 +48579,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -48575,7 +48587,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -48583,7 +48595,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -48591,7 +48603,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -48599,7 +48611,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -48607,7 +48619,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -48615,7 +48627,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -48623,7 +48635,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -48631,7 +48643,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -48639,7 +48651,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -48647,7 +48659,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -48655,7 +48667,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -48663,7 +48675,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -48671,7 +48683,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A831" s="6" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -48679,7 +48691,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -48687,7 +48699,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -48695,7 +48707,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -48703,7 +48715,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -48711,7 +48723,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -48719,7 +48731,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -48727,7 +48739,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -48735,7 +48747,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -48743,7 +48755,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -48751,7 +48763,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -48759,7 +48771,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -48767,7 +48779,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -48775,7 +48787,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -48783,7 +48795,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -48791,7 +48803,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -48799,7 +48811,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -48807,7 +48819,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -48815,7 +48827,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -48823,7 +48835,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -48831,7 +48843,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -48839,7 +48851,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -48847,7 +48859,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -48855,7 +48867,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -48863,7 +48875,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -48871,7 +48883,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -48879,7 +48891,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -48887,7 +48899,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -48895,7 +48907,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -48903,7 +48915,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -48911,7 +48923,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -48919,7 +48931,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862" s="6" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -48927,7 +48939,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -48935,7 +48947,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -48943,7 +48955,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -48951,7 +48963,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -48959,7 +48971,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -48967,7 +48979,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -48975,7 +48987,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -48983,7 +48995,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -48991,7 +49003,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -48999,7 +49011,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -49007,7 +49019,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -49015,7 +49027,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -49023,7 +49035,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -49031,7 +49043,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -49055,7 +49067,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -49063,7 +49075,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -49071,7 +49083,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -49079,7 +49091,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -49828,7 +49840,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7386EF-89CE-8745-8747-09DA4AA6B341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B5198-8C09-B74B-A98D-9B6A2805F28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9111" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9109" uniqueCount="2817">
   <si>
     <t>unique_spon_names</t>
   </si>
@@ -13594,7 +13594,7 @@
   <dimension ref="A1:G890"/>
   <sheetViews>
     <sheetView topLeftCell="A864" workbookViewId="0">
-      <selection activeCell="E893" sqref="E893"/>
+      <selection activeCell="A889" sqref="A889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31532,10 +31532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCEDD8-99CD-E64D-83C4-23A5F7177A3C}">
-  <dimension ref="A1:C998"/>
+  <dimension ref="A1:C997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A722" workbookViewId="0">
+      <selection activeCell="A739" sqref="A739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39676,326 +39676,326 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="6" t="s">
-        <v>2428</v>
+        <v>2030</v>
       </c>
       <c r="B740" s="8">
-        <v>43913</v>
+        <v>43982</v>
       </c>
       <c r="C740" s="8">
-        <v>43913</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="6" t="s">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B741" s="8">
-        <v>43982</v>
+        <v>44044</v>
       </c>
       <c r="C741" s="8">
-        <v>43982</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="6" t="s">
-        <v>2020</v>
+        <v>2097</v>
       </c>
       <c r="B742" s="8">
-        <v>44044</v>
+        <v>44275</v>
       </c>
       <c r="C742" s="8">
-        <v>44136</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="6" t="s">
-        <v>2097</v>
+        <v>2018</v>
       </c>
       <c r="B743" s="8">
-        <v>44275</v>
+        <v>44307</v>
       </c>
       <c r="C743" s="8">
-        <v>44640</v>
+        <v>44429</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="6" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B744" s="8">
-        <v>44307</v>
+        <v>44228</v>
       </c>
       <c r="C744" s="8">
-        <v>44429</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="6" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B745" s="8">
-        <v>44228</v>
+        <v>44073</v>
       </c>
       <c r="C745" s="8">
-        <v>44378</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="6" t="s">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="B746" s="8">
-        <v>44073</v>
+        <v>43970</v>
       </c>
       <c r="C746" s="8">
-        <v>44073</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="6" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="B747" s="8">
-        <v>43970</v>
+        <v>44012</v>
       </c>
       <c r="C747" s="8">
-        <v>43970</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="6" t="s">
-        <v>2024</v>
+        <v>2038</v>
       </c>
       <c r="B748" s="8">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="C748" s="8">
-        <v>44073</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="6" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B749" s="8">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="C749" s="8">
-        <v>44286</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="6" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B750" s="8">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="C750" s="8">
-        <v>44211</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="6" t="s">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="B751" s="8">
+        <v>43981</v>
+      </c>
+      <c r="C751" s="8">
         <v>44012</v>
-      </c>
-      <c r="C751" s="8">
-        <v>44073</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="6" t="s">
-        <v>2025</v>
+        <v>2098</v>
       </c>
       <c r="B752" s="8">
-        <v>43981</v>
+        <v>44075</v>
       </c>
       <c r="C752" s="8">
-        <v>44012</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="6" t="s">
-        <v>2098</v>
+        <v>2026</v>
       </c>
       <c r="B753" s="8">
-        <v>44075</v>
+        <v>44348</v>
       </c>
       <c r="C753" s="8">
-        <v>44075</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="6" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B754" s="8">
-        <v>44348</v>
+        <v>42521</v>
       </c>
       <c r="C754" s="8">
-        <v>44348</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="6" t="s">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="B755" s="8">
-        <v>42521</v>
+        <v>44105</v>
       </c>
       <c r="C755" s="8">
-        <v>43921</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="6" t="s">
-        <v>2034</v>
+        <v>2099</v>
       </c>
       <c r="B756" s="8">
-        <v>44105</v>
+        <v>43891</v>
       </c>
       <c r="C756" s="8">
-        <v>44134</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="6" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="B757" s="8">
-        <v>43891</v>
+        <v>43946</v>
       </c>
       <c r="C757" s="8">
-        <v>43922</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="6" t="s">
-        <v>2100</v>
+        <v>2041</v>
       </c>
       <c r="B758" s="8">
-        <v>43946</v>
+        <v>44268</v>
       </c>
       <c r="C758" s="8">
-        <v>43961</v>
+        <v>44268</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="6" t="s">
-        <v>2041</v>
+        <v>2433</v>
       </c>
       <c r="B759" s="8">
-        <v>44268</v>
+        <v>44074</v>
       </c>
       <c r="C759" s="8">
-        <v>44268</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="6" t="s">
-        <v>2433</v>
+        <v>2022</v>
       </c>
       <c r="B760" s="8">
-        <v>44074</v>
+        <v>43971</v>
       </c>
       <c r="C760" s="8">
-        <v>44074</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="6" t="s">
-        <v>2022</v>
+        <v>2035</v>
       </c>
       <c r="B761" s="8">
-        <v>43971</v>
+        <v>44166</v>
       </c>
       <c r="C761" s="8">
-        <v>43981</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="6" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B762" s="8">
-        <v>44166</v>
+        <v>44104</v>
       </c>
       <c r="C762" s="8">
-        <v>44166</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="6" t="s">
-        <v>2036</v>
+        <v>2050</v>
       </c>
       <c r="B763" s="8">
-        <v>44104</v>
+        <v>44316</v>
       </c>
       <c r="C763" s="8">
-        <v>44104</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="6" t="s">
-        <v>2050</v>
+        <v>2023</v>
       </c>
       <c r="B764" s="8">
-        <v>44316</v>
+        <v>44926</v>
       </c>
       <c r="C764" s="8">
-        <v>44316</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="6" t="s">
-        <v>2023</v>
+        <v>2051</v>
       </c>
       <c r="B765" s="8">
-        <v>44926</v>
+        <v>45382</v>
       </c>
       <c r="C765" s="8">
-        <v>44927</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="6" t="s">
-        <v>2051</v>
+        <v>2037</v>
       </c>
       <c r="B766" s="8">
-        <v>45382</v>
+        <v>44109</v>
       </c>
       <c r="C766" s="8">
-        <v>45382</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="6" t="s">
-        <v>2037</v>
+        <v>2052</v>
       </c>
       <c r="B767" s="8">
-        <v>44109</v>
+        <v>44013</v>
       </c>
       <c r="C767" s="8">
-        <v>44144</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="6" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B768" s="8">
-        <v>44013</v>
+        <v>44282</v>
       </c>
       <c r="C768" s="8">
-        <v>44075</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="6" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
       <c r="B769" s="8">
         <v>44282</v>
@@ -40006,1268 +40006,1262 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="6" t="s">
-        <v>2044</v>
+        <v>2101</v>
       </c>
       <c r="B770" s="8">
-        <v>44282</v>
+        <v>43983</v>
       </c>
       <c r="C770" s="8">
-        <v>44561</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="6" t="s">
-        <v>2101</v>
+        <v>2058</v>
       </c>
       <c r="B771" s="8">
-        <v>43983</v>
+        <v>44104</v>
       </c>
       <c r="C771" s="8">
-        <v>44531</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="6" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B772" s="8">
-        <v>44104</v>
+        <v>43946</v>
       </c>
       <c r="C772" s="8">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="6" t="s">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="B773" s="8">
-        <v>43946</v>
+        <v>44100</v>
       </c>
       <c r="C773" s="8">
-        <v>43951</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="6" t="s">
-        <v>2045</v>
+        <v>2102</v>
       </c>
       <c r="B774" s="8">
-        <v>44100</v>
+        <v>44317</v>
       </c>
       <c r="C774" s="8">
-        <v>44161</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="6" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B775" s="8">
-        <v>44317</v>
+        <v>44136</v>
       </c>
       <c r="C775" s="8">
-        <v>44317</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="6" t="s">
-        <v>2103</v>
+        <v>2060</v>
       </c>
       <c r="B776" s="8">
-        <v>44136</v>
+        <v>43982</v>
       </c>
       <c r="C776" s="8">
-        <v>44166</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="6" t="s">
-        <v>2060</v>
+        <v>2104</v>
       </c>
       <c r="B777" s="8">
-        <v>43982</v>
+        <v>44134</v>
       </c>
       <c r="C777" s="8">
-        <v>44104</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="6" t="s">
-        <v>2104</v>
+        <v>2046</v>
       </c>
       <c r="B778" s="8">
-        <v>44134</v>
+        <v>44278</v>
       </c>
       <c r="C778" s="8">
-        <v>44134</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="6" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B779" s="8">
-        <v>44278</v>
+        <v>44313</v>
       </c>
       <c r="C779" s="8">
-        <v>44370</v>
+        <v>44374</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="6" t="s">
-        <v>2047</v>
+        <v>2061</v>
       </c>
       <c r="B780" s="8">
-        <v>44313</v>
+        <v>44255</v>
       </c>
       <c r="C780" s="8">
-        <v>44374</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="6" t="s">
-        <v>2061</v>
+        <v>2066</v>
       </c>
       <c r="B781" s="8">
-        <v>44255</v>
+        <v>44926</v>
       </c>
       <c r="C781" s="8">
-        <v>44985</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="6" t="s">
-        <v>2066</v>
+        <v>2486</v>
       </c>
       <c r="B782" s="8">
-        <v>44926</v>
+        <v>44105</v>
       </c>
       <c r="C782" s="8">
-        <v>44926</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B783" s="8">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="C783" s="8">
-        <v>44105</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="B784" s="8">
-        <v>44075</v>
+        <v>43982</v>
       </c>
       <c r="C784" s="8">
-        <v>44075</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="B785" s="8">
-        <v>43982</v>
+        <v>44255</v>
       </c>
       <c r="C785" s="8">
-        <v>44012</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B786" s="8">
-        <v>44255</v>
+        <v>44501</v>
       </c>
       <c r="C786" s="8">
-        <v>44364</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="B787" s="8">
-        <v>44501</v>
+        <v>44109</v>
       </c>
       <c r="C787" s="8">
-        <v>44561</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="B788" s="8">
-        <v>44109</v>
+        <v>44100</v>
       </c>
       <c r="C788" s="8">
-        <v>44144</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="B789" s="8">
-        <v>44100</v>
+        <v>44829</v>
       </c>
       <c r="C789" s="8">
-        <v>44116</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B790" s="8">
-        <v>44829</v>
+        <v>44293</v>
       </c>
       <c r="C790" s="8">
-        <v>44829</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="B791" s="8">
-        <v>44293</v>
+        <v>44044</v>
       </c>
       <c r="C791" s="8">
-        <v>44476</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B792" s="8">
-        <v>44044</v>
+        <v>43952</v>
       </c>
       <c r="C792" s="8">
-        <v>44074</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B793" s="8">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="C793" s="8">
-        <v>43983</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B794" s="8">
-        <v>44013</v>
+        <v>44074</v>
       </c>
       <c r="C794" s="8">
-        <v>44075</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="B795" s="8">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="C795" s="8">
-        <v>44104</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B796" s="8">
-        <v>44135</v>
+        <v>44440</v>
       </c>
       <c r="C796" s="8">
-        <v>44196</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B797" s="8">
-        <v>44440</v>
+        <v>44134</v>
       </c>
       <c r="C797" s="8">
-        <v>44440</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B798" s="8">
-        <v>44134</v>
+        <v>43971</v>
       </c>
       <c r="C798" s="8">
-        <v>44650</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B799" s="8">
-        <v>43971</v>
+        <v>44013</v>
       </c>
       <c r="C799" s="8">
-        <v>44104</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="6" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B800" s="8">
-        <v>44013</v>
+        <v>44073</v>
       </c>
       <c r="C800" s="8">
-        <v>44348</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B801" s="8">
-        <v>44073</v>
+        <v>46106</v>
       </c>
       <c r="C801" s="8">
-        <v>44073</v>
+        <v>46106</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="B802" s="8">
-        <v>46106</v>
+        <v>44500</v>
       </c>
       <c r="C802" s="8">
-        <v>46106</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B803" s="8">
-        <v>44500</v>
+        <v>43947</v>
       </c>
       <c r="C803" s="8">
-        <v>44926</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="B804" s="8">
-        <v>43947</v>
+        <v>44104</v>
       </c>
       <c r="C804" s="8">
-        <v>43949</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B805" s="8">
-        <v>44104</v>
+        <v>43966</v>
       </c>
       <c r="C805" s="8">
-        <v>44104</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="6" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B806" s="8">
-        <v>43966</v>
+        <v>44197</v>
       </c>
       <c r="C806" s="8">
-        <v>43966</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="6" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="B807" s="8">
-        <v>44197</v>
+        <v>44643</v>
       </c>
       <c r="C807" s="8">
-        <v>44287</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="6" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B808" s="8">
-        <v>44643</v>
+        <v>43979</v>
       </c>
       <c r="C808" s="8">
-        <v>44643</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B809" s="8">
-        <v>43979</v>
+        <v>44165</v>
       </c>
       <c r="C809" s="8">
-        <v>44010</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="B810" s="8">
-        <v>44165</v>
+        <v>44129</v>
       </c>
       <c r="C810" s="8">
-        <v>44165</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="B811" s="8">
-        <v>44129</v>
+        <v>43923</v>
       </c>
       <c r="C811" s="8">
-        <v>44190</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B812" s="8">
-        <v>43923</v>
+        <v>44044</v>
       </c>
       <c r="C812" s="8">
-        <v>43936</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="B813" s="8">
-        <v>44044</v>
+        <v>43981</v>
       </c>
       <c r="C813" s="8">
-        <v>44044</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="B814" s="8">
-        <v>43981</v>
+        <v>44287</v>
       </c>
       <c r="C814" s="8">
-        <v>44012</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="B815" s="8">
-        <v>44287</v>
+        <v>44104</v>
       </c>
       <c r="C815" s="8">
-        <v>44652</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B816" s="8">
-        <v>44104</v>
+        <v>43915</v>
       </c>
       <c r="C816" s="8">
-        <v>44135</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="B817" s="8">
-        <v>43915</v>
+        <v>44012</v>
       </c>
       <c r="C817" s="8">
-        <v>43915</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B818" s="8">
-        <v>44012</v>
+        <v>44592</v>
       </c>
       <c r="C818" s="8">
-        <v>44042</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B819" s="8">
-        <v>44592</v>
+        <v>44011</v>
       </c>
       <c r="C819" s="8">
-        <v>44651</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="B820" s="8">
-        <v>44011</v>
+        <v>43982</v>
       </c>
       <c r="C820" s="8">
-        <v>44376</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B821" s="8">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="C821" s="8">
-        <v>44012</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="B822" s="8">
-        <v>44043</v>
+        <v>43971</v>
       </c>
       <c r="C822" s="8">
-        <v>44074</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="B823" s="8">
-        <v>43971</v>
+        <v>44196</v>
       </c>
       <c r="C823" s="8">
-        <v>43971</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="B824" s="8">
-        <v>44196</v>
+        <v>44287</v>
       </c>
       <c r="C824" s="8">
-        <v>44561</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="B825" s="8">
-        <v>44287</v>
+        <v>44285</v>
       </c>
       <c r="C825" s="8">
-        <v>44531</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="B826" s="8">
-        <v>44285</v>
+        <v>44272</v>
       </c>
       <c r="C826" s="8">
-        <v>44650</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B827" s="8">
-        <v>44272</v>
+        <v>44227</v>
       </c>
       <c r="C827" s="8">
-        <v>44637</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="B828" s="8">
-        <v>44227</v>
+        <v>44141</v>
       </c>
       <c r="C828" s="8">
-        <v>44256</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="B829" s="8">
-        <v>44141</v>
+        <v>44682</v>
       </c>
       <c r="C829" s="8">
-        <v>44141</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="B830" s="8">
-        <v>44682</v>
+        <v>44012</v>
       </c>
       <c r="C830" s="8">
-        <v>44682</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="6" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B831" s="8">
-        <v>44012</v>
+        <v>45748</v>
       </c>
       <c r="C831" s="8">
-        <v>44104</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B832" s="8">
-        <v>45748</v>
+        <v>44075</v>
       </c>
       <c r="C832" s="8">
-        <v>45748</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B833" s="8">
-        <v>44075</v>
+        <v>44638</v>
       </c>
       <c r="C833" s="8">
-        <v>44166</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B834" s="8">
-        <v>44638</v>
+        <v>44013</v>
       </c>
       <c r="C834" s="8">
-        <v>44699</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="B835" s="8">
-        <v>44013</v>
+        <v>43921</v>
       </c>
       <c r="C835" s="8">
-        <v>44013</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B836" s="8">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="C836" s="8">
-        <v>44043</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B837" s="8">
-        <v>43922</v>
+        <v>43941</v>
       </c>
       <c r="C837" s="8">
-        <v>43922</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B838" s="8">
-        <v>43941</v>
+        <v>44643</v>
       </c>
       <c r="C838" s="8">
-        <v>43971</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B839" s="8">
-        <v>44643</v>
+        <v>43931</v>
       </c>
       <c r="C839" s="8">
-        <v>44643</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="B840" s="8">
-        <v>43931</v>
+        <v>44104</v>
       </c>
       <c r="C840" s="8">
-        <v>43951</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B841" s="8">
-        <v>44104</v>
+        <v>44166</v>
       </c>
       <c r="C841" s="8">
-        <v>44196</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B842" s="8">
-        <v>44166</v>
+        <v>44134</v>
       </c>
       <c r="C842" s="8">
-        <v>44166</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="B843" s="8">
-        <v>44134</v>
+        <v>44013</v>
       </c>
       <c r="C843" s="8">
-        <v>44227</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="B844" s="8">
-        <v>44013</v>
+        <v>44286</v>
       </c>
       <c r="C844" s="8">
-        <v>44166</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="B845" s="8">
-        <v>44286</v>
+        <v>44107</v>
       </c>
       <c r="C845" s="8">
-        <v>44561</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
-        <v>2549</v>
-      </c>
-      <c r="B846" s="8">
-        <v>44107</v>
-      </c>
-      <c r="C846" s="8">
-        <v>44134</v>
+        <v>2550</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C846" s="6" t="s">
+        <v>2262</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B847" s="6" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C847" s="6" t="s">
-        <v>2262</v>
+        <v>2551</v>
+      </c>
+      <c r="B847" s="8">
+        <v>44256</v>
+      </c>
+      <c r="C847" s="8">
+        <v>44256</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="B848" s="8">
-        <v>44256</v>
+        <v>44347</v>
       </c>
       <c r="C848" s="8">
-        <v>44256</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="B849" s="8">
-        <v>44347</v>
+        <v>44986</v>
       </c>
       <c r="C849" s="8">
-        <v>44712</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B850" s="8">
-        <v>44986</v>
+        <v>44013</v>
       </c>
       <c r="C850" s="8">
-        <v>44986</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B851" s="8">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="C851" s="8">
-        <v>44013</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="B852" s="8">
-        <v>44075</v>
+        <v>44042</v>
       </c>
       <c r="C852" s="8">
-        <v>44105</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B853" s="8">
-        <v>44042</v>
+        <v>44074</v>
       </c>
       <c r="C853" s="8">
-        <v>44407</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="B854" s="8">
-        <v>44074</v>
+        <v>43981</v>
       </c>
       <c r="C854" s="8">
-        <v>44196</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="B855" s="8">
-        <v>43981</v>
+        <v>44074</v>
       </c>
       <c r="C855" s="8">
-        <v>43997</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B856" s="8">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="C856" s="8">
-        <v>44196</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="B857" s="8">
-        <v>44196</v>
+        <v>44287</v>
       </c>
       <c r="C857" s="8">
-        <v>44286</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="B858" s="8">
-        <v>44287</v>
+        <v>44042</v>
       </c>
       <c r="C858" s="8">
-        <v>44378</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="B859" s="8">
-        <v>44042</v>
+        <v>44926</v>
       </c>
       <c r="C859" s="8">
-        <v>44042</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="B860" s="8">
-        <v>44926</v>
+        <v>44185</v>
       </c>
       <c r="C860" s="8">
-        <v>44926</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B861" s="8">
-        <v>44185</v>
+        <v>44285</v>
       </c>
       <c r="C861" s="8">
-        <v>44316</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" s="6" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="B862" s="8">
-        <v>44285</v>
+        <v>44135</v>
       </c>
       <c r="C862" s="8">
-        <v>44285</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="B863" s="8">
-        <v>44135</v>
+        <v>43988</v>
       </c>
       <c r="C863" s="8">
-        <v>44196</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B864" s="8">
-        <v>43988</v>
+        <v>44075</v>
       </c>
       <c r="C864" s="8">
-        <v>44018</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="B865" s="8">
-        <v>44075</v>
+        <v>43983</v>
       </c>
       <c r="C865" s="8">
-        <v>44256</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="B866" s="8">
-        <v>43983</v>
+        <v>44287</v>
       </c>
       <c r="C866" s="8">
-        <v>44089</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="B867" s="8">
-        <v>44287</v>
+        <v>43952</v>
       </c>
       <c r="C867" s="8">
-        <v>44531</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="B868" s="8">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="C868" s="8">
-        <v>43952</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="B869" s="8">
-        <v>44105</v>
+        <v>44228</v>
       </c>
       <c r="C869" s="8">
-        <v>44136</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="B870" s="8">
-        <v>44228</v>
+        <v>44075</v>
       </c>
       <c r="C870" s="8">
-        <v>44228</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="B871" s="8">
-        <v>44075</v>
+        <v>44012</v>
       </c>
       <c r="C871" s="8">
-        <v>44075</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="B872" s="8">
-        <v>44012</v>
+        <v>43983</v>
       </c>
       <c r="C872" s="8">
-        <v>44561</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B873" s="8">
-        <v>43983</v>
+        <v>44105</v>
       </c>
       <c r="C873" s="8">
-        <v>44044</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="B874" s="8">
-        <v>44105</v>
+        <v>44012</v>
       </c>
       <c r="C874" s="8">
-        <v>44105</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="B875" s="8">
-        <v>44012</v>
+        <v>43983</v>
       </c>
       <c r="C875" s="8">
-        <v>44012</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B876" s="8">
-        <v>43983</v>
+        <v>900</v>
+      </c>
+      <c r="B876" s="6" t="s">
+        <v>2262</v>
       </c>
       <c r="C876" s="8">
-        <v>43983</v>
+        <v>44059</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" s="6" t="s">
-        <v>900</v>
+        <v>2081</v>
       </c>
       <c r="B877" s="6" t="s">
         <v>2262</v>
       </c>
       <c r="C877" s="8">
-        <v>44059</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" s="6" t="s">
-        <v>2081</v>
+        <v>2580</v>
       </c>
       <c r="B878" s="6" t="s">
         <v>2262</v>
       </c>
       <c r="C878" s="8">
-        <v>44462</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="B879" s="6" t="s">
         <v>2262</v>
       </c>
       <c r="C879" s="8">
-        <v>43919</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="B880" s="6" t="s">
         <v>2262</v>
       </c>
       <c r="C880" s="8">
-        <v>44196</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B881" s="6" t="s">
         <v>2262</v>
       </c>
       <c r="C881" s="8">
-        <v>44298</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
-        <v>2583</v>
-      </c>
-      <c r="B882" s="6" t="s">
-        <v>2262</v>
+        <v>822</v>
+      </c>
+      <c r="B882" s="8">
+        <v>43935</v>
       </c>
       <c r="C882" s="8">
-        <v>44012</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" s="6" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B883" s="8">
-        <v>43935</v>
+        <v>43921</v>
       </c>
       <c r="C883" s="8">
-        <v>43935</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A884" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B884" s="8">
-        <v>43921</v>
-      </c>
-      <c r="C884" s="8">
-        <v>43921</v>
-      </c>
+      <c r="A884" s="6"/>
+      <c r="B884" s="6"/>
+      <c r="C884" s="6"/>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" s="6"/>
@@ -41833,11 +41827,6 @@
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
       <c r="C997" s="6"/>
-    </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A998" s="6"/>
-      <c r="B998" s="6"/>
-      <c r="C998" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41846,10 +41835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8C4E0-02D7-BD4E-9875-A292DA5969FB}">
-  <dimension ref="A1:D998"/>
+  <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C543" sqref="C543"/>
+    <sheetView topLeftCell="A722" workbookViewId="0">
+      <selection activeCell="A739" sqref="A739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47948,7 +47937,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" s="6" t="s">
-        <v>2428</v>
+        <v>2030</v>
       </c>
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
@@ -47956,7 +47945,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" s="6" t="s">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
@@ -47964,7 +47953,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" s="6" t="s">
-        <v>2020</v>
+        <v>2097</v>
       </c>
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
@@ -47972,7 +47961,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" s="6" t="s">
-        <v>2097</v>
+        <v>2018</v>
       </c>
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
@@ -47980,7 +47969,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="6" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
@@ -47988,7 +47977,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" s="6" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
@@ -47996,29 +47985,29 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" s="6" t="s">
-        <v>2019</v>
-      </c>
-      <c r="B746" s="13"/>
-      <c r="C746" s="13"/>
-      <c r="D746" s="13"/>
+        <v>2031</v>
+      </c>
+      <c r="B746" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C746" s="8">
+        <v>43924</v>
+      </c>
+      <c r="D746" s="13" t="s">
+        <v>2265</v>
+      </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" s="6" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B747" s="11" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C747" s="8">
-        <v>43924</v>
-      </c>
-      <c r="D747" s="13" t="s">
-        <v>2265</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="B747" s="13"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="13"/>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" s="6" t="s">
-        <v>2024</v>
+        <v>2038</v>
       </c>
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
@@ -48026,7 +48015,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" s="6" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
@@ -48034,7 +48023,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A750" s="6" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B750" s="13"/>
       <c r="C750" s="13"/>
@@ -48042,7 +48031,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" s="6" t="s">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="B751" s="13"/>
       <c r="C751" s="13"/>
@@ -48050,7 +48039,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" s="6" t="s">
-        <v>2025</v>
+        <v>2098</v>
       </c>
       <c r="B752" s="13"/>
       <c r="C752" s="13"/>
@@ -48058,7 +48047,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" s="6" t="s">
-        <v>2098</v>
+        <v>2026</v>
       </c>
       <c r="B753" s="13"/>
       <c r="C753" s="13"/>
@@ -48066,7 +48055,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A754" s="6" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B754" s="13"/>
       <c r="C754" s="13"/>
@@ -48074,7 +48063,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A755" s="6" t="s">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="B755" s="13"/>
       <c r="C755" s="13"/>
@@ -48082,7 +48071,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A756" s="6" t="s">
-        <v>2034</v>
+        <v>2099</v>
       </c>
       <c r="B756" s="13"/>
       <c r="C756" s="13"/>
@@ -48090,7 +48079,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A757" s="6" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="B757" s="13"/>
       <c r="C757" s="13"/>
@@ -48098,7 +48087,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" s="6" t="s">
-        <v>2100</v>
+        <v>2041</v>
       </c>
       <c r="B758" s="13"/>
       <c r="C758" s="13"/>
@@ -48106,29 +48095,29 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A759" s="6" t="s">
-        <v>2041</v>
-      </c>
-      <c r="B759" s="13"/>
-      <c r="C759" s="13"/>
-      <c r="D759" s="13"/>
+        <v>2433</v>
+      </c>
+      <c r="B759" s="11" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C759" s="8">
+        <v>43932</v>
+      </c>
+      <c r="D759" s="13" t="s">
+        <v>2265</v>
+      </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760" s="6" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B760" s="11" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C760" s="8">
-        <v>43932</v>
-      </c>
-      <c r="D760" s="13" t="s">
-        <v>2265</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="B760" s="13"/>
+      <c r="C760" s="13"/>
+      <c r="D760" s="13"/>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A761" s="6" t="s">
-        <v>2022</v>
+        <v>2035</v>
       </c>
       <c r="B761" s="13"/>
       <c r="C761" s="13"/>
@@ -48136,7 +48125,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A762" s="6" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B762" s="13"/>
       <c r="C762" s="13"/>
@@ -48144,7 +48133,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A763" s="6" t="s">
-        <v>2036</v>
+        <v>2050</v>
       </c>
       <c r="B763" s="13"/>
       <c r="C763" s="13"/>
@@ -48152,7 +48141,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A764" s="6" t="s">
-        <v>2050</v>
+        <v>2023</v>
       </c>
       <c r="B764" s="13"/>
       <c r="C764" s="13"/>
@@ -48160,7 +48149,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" s="6" t="s">
-        <v>2023</v>
+        <v>2051</v>
       </c>
       <c r="B765" s="13"/>
       <c r="C765" s="13"/>
@@ -48168,7 +48157,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766" s="6" t="s">
-        <v>2051</v>
+        <v>2037</v>
       </c>
       <c r="B766" s="13"/>
       <c r="C766" s="13"/>
@@ -48176,7 +48165,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A767" s="6" t="s">
-        <v>2037</v>
+        <v>2052</v>
       </c>
       <c r="B767" s="13"/>
       <c r="C767" s="13"/>
@@ -48184,7 +48173,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A768" s="6" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B768" s="13"/>
       <c r="C768" s="13"/>
@@ -48192,7 +48181,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A769" s="6" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
       <c r="B769" s="13"/>
       <c r="C769" s="13"/>
@@ -48200,7 +48189,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A770" s="6" t="s">
-        <v>2044</v>
+        <v>2101</v>
       </c>
       <c r="B770" s="13"/>
       <c r="C770" s="13"/>
@@ -48208,7 +48197,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771" s="6" t="s">
-        <v>2101</v>
+        <v>2058</v>
       </c>
       <c r="B771" s="13"/>
       <c r="C771" s="13"/>
@@ -48216,7 +48205,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A772" s="6" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B772" s="13"/>
       <c r="C772" s="13"/>
@@ -48224,7 +48213,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A773" s="6" t="s">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="B773" s="13"/>
       <c r="C773" s="13"/>
@@ -48232,7 +48221,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A774" s="6" t="s">
-        <v>2045</v>
+        <v>2102</v>
       </c>
       <c r="B774" s="13"/>
       <c r="C774" s="13"/>
@@ -48240,7 +48229,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A775" s="6" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B775" s="13"/>
       <c r="C775" s="13"/>
@@ -48248,7 +48237,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A776" s="6" t="s">
-        <v>2103</v>
+        <v>2060</v>
       </c>
       <c r="B776" s="13"/>
       <c r="C776" s="13"/>
@@ -48256,7 +48245,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777" s="6" t="s">
-        <v>2060</v>
+        <v>2104</v>
       </c>
       <c r="B777" s="13"/>
       <c r="C777" s="13"/>
@@ -48264,7 +48253,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778" s="6" t="s">
-        <v>2104</v>
+        <v>2046</v>
       </c>
       <c r="B778" s="13"/>
       <c r="C778" s="13"/>
@@ -48272,7 +48261,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" s="6" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B779" s="13"/>
       <c r="C779" s="13"/>
@@ -48280,7 +48269,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A780" s="6" t="s">
-        <v>2047</v>
+        <v>2061</v>
       </c>
       <c r="B780" s="13"/>
       <c r="C780" s="13"/>
@@ -48288,7 +48277,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781" s="6" t="s">
-        <v>2061</v>
+        <v>2066</v>
       </c>
       <c r="B781" s="13"/>
       <c r="C781" s="13"/>
@@ -48296,7 +48285,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782" s="6" t="s">
-        <v>2066</v>
+        <v>2486</v>
       </c>
       <c r="B782" s="13"/>
       <c r="C782" s="13"/>
@@ -48304,7 +48293,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B783" s="13"/>
       <c r="C783" s="13"/>
@@ -48312,7 +48301,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="B784" s="13"/>
       <c r="C784" s="13"/>
@@ -48320,7 +48309,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="B785" s="13"/>
       <c r="C785" s="13"/>
@@ -48328,7 +48317,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B786" s="13"/>
       <c r="C786" s="13"/>
@@ -48336,7 +48325,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="B787" s="13"/>
       <c r="C787" s="13"/>
@@ -48344,7 +48333,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="B788" s="13"/>
       <c r="C788" s="13"/>
@@ -48352,7 +48341,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="B789" s="13"/>
       <c r="C789" s="13"/>
@@ -48360,7 +48349,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B790" s="13"/>
       <c r="C790" s="13"/>
@@ -48368,7 +48357,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="B791" s="13"/>
       <c r="C791" s="13"/>
@@ -48376,7 +48365,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B792" s="13"/>
       <c r="C792" s="13"/>
@@ -48384,7 +48373,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B793" s="13"/>
       <c r="C793" s="13"/>
@@ -48392,7 +48381,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B794" s="13"/>
       <c r="C794" s="13"/>
@@ -48400,7 +48389,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="B795" s="13"/>
       <c r="C795" s="13"/>
@@ -48408,7 +48397,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B796" s="13"/>
       <c r="C796" s="13"/>
@@ -48416,7 +48405,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B797" s="13"/>
       <c r="C797" s="13"/>
@@ -48424,7 +48413,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B798" s="13"/>
       <c r="C798" s="13"/>
@@ -48432,7 +48421,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B799" s="13"/>
       <c r="C799" s="13"/>
@@ -48440,7 +48429,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800" s="6" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B800" s="13"/>
       <c r="C800" s="13"/>
@@ -48448,7 +48437,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B801" s="13"/>
       <c r="C801" s="13"/>
@@ -48456,7 +48445,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="B802" s="13"/>
       <c r="C802" s="13"/>
@@ -48464,7 +48453,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B803" s="13"/>
       <c r="C803" s="13"/>
@@ -48472,7 +48461,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="B804" s="13"/>
       <c r="C804" s="13"/>
@@ -48480,7 +48469,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B805" s="13"/>
       <c r="C805" s="13"/>
@@ -48488,7 +48477,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A806" s="6" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B806" s="13"/>
       <c r="C806" s="13"/>
@@ -48496,7 +48485,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A807" s="6" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="B807" s="13"/>
       <c r="C807" s="13"/>
@@ -48504,7 +48493,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A808" s="6" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B808" s="13"/>
       <c r="C808" s="13"/>
@@ -48512,7 +48501,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B809" s="13"/>
       <c r="C809" s="13"/>
@@ -48520,7 +48509,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="B810" s="13"/>
       <c r="C810" s="13"/>
@@ -48528,7 +48517,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="B811" s="13"/>
       <c r="C811" s="13"/>
@@ -48536,7 +48525,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B812" s="13"/>
       <c r="C812" s="13"/>
@@ -48544,7 +48533,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="B813" s="13"/>
       <c r="C813" s="13"/>
@@ -48552,7 +48541,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="B814" s="13"/>
       <c r="C814" s="13"/>
@@ -48560,7 +48549,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="B815" s="13"/>
       <c r="C815" s="13"/>
@@ -48568,7 +48557,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B816" s="13"/>
       <c r="C816" s="13"/>
@@ -48576,7 +48565,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="B817" s="13"/>
       <c r="C817" s="13"/>
@@ -48584,7 +48573,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B818" s="13"/>
       <c r="C818" s="13"/>
@@ -48592,7 +48581,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B819" s="13"/>
       <c r="C819" s="13"/>
@@ -48600,7 +48589,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="B820" s="13"/>
       <c r="C820" s="13"/>
@@ -48608,7 +48597,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B821" s="13"/>
       <c r="C821" s="13"/>
@@ -48616,7 +48605,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="B822" s="13"/>
       <c r="C822" s="13"/>
@@ -48624,7 +48613,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="B823" s="13"/>
       <c r="C823" s="13"/>
@@ -48632,7 +48621,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="B824" s="13"/>
       <c r="C824" s="13"/>
@@ -48640,7 +48629,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="B825" s="13"/>
       <c r="C825" s="13"/>
@@ -48648,7 +48637,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="B826" s="13"/>
       <c r="C826" s="13"/>
@@ -48656,7 +48645,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B827" s="13"/>
       <c r="C827" s="13"/>
@@ -48664,7 +48653,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="B828" s="13"/>
       <c r="C828" s="13"/>
@@ -48672,7 +48661,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="B829" s="13"/>
       <c r="C829" s="13"/>
@@ -48680,7 +48669,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="B830" s="13"/>
       <c r="C830" s="13"/>
@@ -48688,7 +48677,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A831" s="6" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B831" s="13"/>
       <c r="C831" s="13"/>
@@ -48696,7 +48685,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B832" s="13"/>
       <c r="C832" s="13"/>
@@ -48704,7 +48693,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B833" s="13"/>
       <c r="C833" s="13"/>
@@ -48712,7 +48701,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B834" s="13"/>
       <c r="C834" s="13"/>
@@ -48720,7 +48709,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="B835" s="13"/>
       <c r="C835" s="13"/>
@@ -48728,7 +48717,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B836" s="13"/>
       <c r="C836" s="13"/>
@@ -48736,7 +48725,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B837" s="13"/>
       <c r="C837" s="13"/>
@@ -48744,7 +48733,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B838" s="13"/>
       <c r="C838" s="13"/>
@@ -48752,7 +48741,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B839" s="13"/>
       <c r="C839" s="13"/>
@@ -48760,7 +48749,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="B840" s="13"/>
       <c r="C840" s="13"/>
@@ -48768,7 +48757,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B841" s="13"/>
       <c r="C841" s="13"/>
@@ -48776,7 +48765,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B842" s="13"/>
       <c r="C842" s="13"/>
@@ -48784,7 +48773,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="B843" s="13"/>
       <c r="C843" s="13"/>
@@ -48792,7 +48781,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="B844" s="13"/>
       <c r="C844" s="13"/>
@@ -48800,7 +48789,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="B845" s="13"/>
       <c r="C845" s="13"/>
@@ -48808,7 +48797,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B846" s="13"/>
       <c r="C846" s="13"/>
@@ -48816,7 +48805,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="B847" s="13"/>
       <c r="C847" s="13"/>
@@ -48824,7 +48813,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="B848" s="13"/>
       <c r="C848" s="13"/>
@@ -48832,7 +48821,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="B849" s="13"/>
       <c r="C849" s="13"/>
@@ -48840,7 +48829,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B850" s="13"/>
       <c r="C850" s="13"/>
@@ -48848,7 +48837,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B851" s="13"/>
       <c r="C851" s="13"/>
@@ -48856,7 +48845,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="B852" s="13"/>
       <c r="C852" s="13"/>
@@ -48864,7 +48853,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B853" s="13"/>
       <c r="C853" s="13"/>
@@ -48872,7 +48861,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="B854" s="13"/>
       <c r="C854" s="13"/>
@@ -48880,7 +48869,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="B855" s="13"/>
       <c r="C855" s="13"/>
@@ -48888,7 +48877,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B856" s="13"/>
       <c r="C856" s="13"/>
@@ -48896,7 +48885,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="B857" s="13"/>
       <c r="C857" s="13"/>
@@ -48904,7 +48893,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="B858" s="13"/>
       <c r="C858" s="13"/>
@@ -48912,7 +48901,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="B859" s="13"/>
       <c r="C859" s="13"/>
@@ -48920,7 +48909,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="B860" s="13"/>
       <c r="C860" s="13"/>
@@ -48928,7 +48917,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B861" s="13"/>
       <c r="C861" s="13"/>
@@ -48936,7 +48925,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862" s="6" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="B862" s="13"/>
       <c r="C862" s="13"/>
@@ -48944,7 +48933,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="B863" s="13"/>
       <c r="C863" s="13"/>
@@ -48952,7 +48941,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B864" s="13"/>
       <c r="C864" s="13"/>
@@ -48960,7 +48949,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="B865" s="13"/>
       <c r="C865" s="13"/>
@@ -48968,7 +48957,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="B866" s="13"/>
       <c r="C866" s="13"/>
@@ -48976,7 +48965,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="B867" s="13"/>
       <c r="C867" s="13"/>
@@ -48984,7 +48973,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="B868" s="13"/>
       <c r="C868" s="13"/>
@@ -48992,7 +48981,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="B869" s="13"/>
       <c r="C869" s="13"/>
@@ -49000,7 +48989,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="B870" s="13"/>
       <c r="C870" s="13"/>
@@ -49008,7 +48997,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="B871" s="13"/>
       <c r="C871" s="13"/>
@@ -49016,7 +49005,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="B872" s="13"/>
       <c r="C872" s="13"/>
@@ -49024,7 +49013,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B873" s="13"/>
       <c r="C873" s="13"/>
@@ -49032,7 +49021,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="B874" s="13"/>
       <c r="C874" s="13"/>
@@ -49040,7 +49029,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="B875" s="13"/>
       <c r="C875" s="13"/>
@@ -49048,7 +49037,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
-        <v>2579</v>
+        <v>900</v>
       </c>
       <c r="B876" s="13"/>
       <c r="C876" s="13"/>
@@ -49056,7 +49045,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A877" s="6" t="s">
-        <v>900</v>
+        <v>2081</v>
       </c>
       <c r="B877" s="13"/>
       <c r="C877" s="13"/>
@@ -49064,7 +49053,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A878" s="6" t="s">
-        <v>2081</v>
+        <v>2580</v>
       </c>
       <c r="B878" s="13"/>
       <c r="C878" s="13"/>
@@ -49072,7 +49061,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="B879" s="13"/>
       <c r="C879" s="13"/>
@@ -49080,7 +49069,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="B880" s="13"/>
       <c r="C880" s="13"/>
@@ -49088,7 +49077,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B881" s="13"/>
       <c r="C881" s="13"/>
@@ -49096,7 +49085,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
-        <v>2583</v>
+        <v>822</v>
       </c>
       <c r="B882" s="13"/>
       <c r="C882" s="13"/>
@@ -49104,29 +49093,27 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A883" s="6" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B883" s="13"/>
       <c r="C883" s="13"/>
-      <c r="D883" s="13"/>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A884" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B884" s="13"/>
-      <c r="C884" s="13"/>
+      <c r="A884" s="6"/>
+      <c r="B884" s="6"/>
+      <c r="C884" s="6"/>
+      <c r="D884" s="6"/>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
-      <c r="D885" s="6"/>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
+      <c r="D886" s="6"/>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A887" s="6"/>
@@ -49793,12 +49780,6 @@
       <c r="B997" s="6"/>
       <c r="C997" s="6"/>
       <c r="D997" s="6"/>
-    </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A998" s="6"/>
-      <c r="B998" s="6"/>
-      <c r="C998" s="6"/>
-      <c r="D998" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -49830,8 +49811,8 @@
     <hyperlink ref="B652" r:id="rId26" xr:uid="{90603235-F868-F045-BD34-792CEE6E91F6}"/>
     <hyperlink ref="B657" r:id="rId27" xr:uid="{96D82271-D605-6445-A0C9-4F3F8ED6A2BB}"/>
     <hyperlink ref="B739" r:id="rId28" xr:uid="{AD1B15C8-8236-C849-A27C-78316AF8F3D6}"/>
-    <hyperlink ref="B747" r:id="rId29" xr:uid="{4FE241A4-E3F1-214C-B015-A237207CA726}"/>
-    <hyperlink ref="B760" r:id="rId30" xr:uid="{43EF46C9-1F6F-F246-9CF0-9743DB6796D7}"/>
+    <hyperlink ref="B746" r:id="rId29" xr:uid="{4FE241A4-E3F1-214C-B015-A237207CA726}"/>
+    <hyperlink ref="B759" r:id="rId30" xr:uid="{43EF46C9-1F6F-F246-9CF0-9743DB6796D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B5198-8C09-B74B-A98D-9B6A2805F28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A7B5E-22A9-7A43-BBA0-1EE8B8D56D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -13593,8 +13593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
   <dimension ref="A1:G890"/>
   <sheetViews>
-    <sheetView topLeftCell="A864" workbookViewId="0">
-      <selection activeCell="A889" sqref="A889"/>
+    <sheetView tabSelected="1" topLeftCell="A733" workbookViewId="0">
+      <selection activeCell="A741" sqref="A741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28531,17 +28531,17 @@
       <c r="B741" s="3" t="s">
         <v>2220</v>
       </c>
-      <c r="C741" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D741" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E741" s="3" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F741" s="3" t="s">
-        <v>1935</v>
+      <c r="C741" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D741" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E741" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F741" s="13" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="29" x14ac:dyDescent="0.2">
@@ -49822,7 +49822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2897C11-45D0-1143-9B66-314A64F11CA5}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F68EEA-2303-E54F-8B4F-C9EB56179D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854C7D6-EA84-874B-8D3B-B87C1E90418B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="460" windowWidth="24520" windowHeight="14280" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
@@ -16904,8 +16904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
   <dimension ref="A1:F1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="B307" sqref="B307"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="D738" sqref="D738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29572,7 +29572,7 @@
         <v>2594</v>
       </c>
       <c r="C738" s="13" t="s">
-        <v>3503</v>
+        <v>1058</v>
       </c>
       <c r="D738" s="3" t="s">
         <v>2687</v>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854C7D6-EA84-874B-8D3B-B87C1E90418B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8946E4-578B-B449-AF22-3AD2460D2970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="24520" windowHeight="14280" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="2420" yWindow="460" windowWidth="24520" windowHeight="14280" activeTab="3" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -16904,7 +16904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
   <dimension ref="A1:F1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+    <sheetView topLeftCell="A688" workbookViewId="0">
       <selection activeCell="D738" sqref="D738"/>
     </sheetView>
   </sheetViews>
@@ -47587,8 +47587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8C4E0-02D7-BD4E-9875-A292DA5969FB}">
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47596,7 +47596,7 @@
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -47607,10 +47607,10 @@
         <v>2734</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2736</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2735</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8946E4-578B-B449-AF22-3AD2460D2970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43E22E-68B0-F44A-872B-CB8FF1A92435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="24520" windowHeight="14280" activeTab="3" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="-260" yWindow="1240" windowWidth="24520" windowHeight="14280" activeTab="4" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9057" uniqueCount="3541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9072" uniqueCount="3547">
   <si>
     <t>unique_spon_names</t>
   </si>
@@ -10682,6 +10682,25 @@
   </si>
   <si>
     <t>Correspondence</t>
+  </si>
+  <si>
+    <t>EUCTR2020-001320-34</t>
+  </si>
+  <si>
+    <t>EUCTR2020-001320-34-NL</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Drug: Valsartan (Diovan)
+Drug: Placebo oral tablet</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT04335786</t>
   </si>
 </sst>
 </file>
@@ -10758,7 +10777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10786,7 +10805,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15254,7 +15272,7 @@
       <c r="A517" t="s">
         <v>300</v>
       </c>
-      <c r="B517" s="18" t="s">
+      <c r="B517" s="17" t="s">
         <v>293</v>
       </c>
     </row>
@@ -16486,7 +16504,7 @@
       <c r="A671" t="s">
         <v>2920</v>
       </c>
-      <c r="B671" s="18" t="s">
+      <c r="B671" s="17" t="s">
         <v>2950</v>
       </c>
     </row>
@@ -22282,19 +22300,19 @@
       </c>
     </row>
     <row r="311" spans="1:6" ht="43" x14ac:dyDescent="0.2">
-      <c r="A311" s="20" t="s">
+      <c r="A311" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="B311" s="20" t="s">
+      <c r="B311" s="19" t="s">
         <v>1349</v>
       </c>
-      <c r="C311" s="20" t="s">
+      <c r="C311" s="19" t="s">
         <v>3531</v>
       </c>
-      <c r="D311" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E311" s="20" t="s">
+      <c r="D311" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E311" s="19" t="s">
         <v>1127</v>
       </c>
       <c r="F311" s="2" t="s">
@@ -22302,19 +22320,19 @@
       </c>
     </row>
     <row r="312" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A312" s="20" t="s">
+      <c r="A312" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="B312" s="20" t="s">
+      <c r="B312" s="19" t="s">
         <v>1351</v>
       </c>
-      <c r="C312" s="20" t="s">
+      <c r="C312" s="19" t="s">
         <v>3531</v>
       </c>
-      <c r="D312" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E312" s="20" t="s">
+      <c r="D312" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E312" s="19" t="s">
         <v>1127</v>
       </c>
       <c r="F312" s="2" t="s">
@@ -29701,19 +29719,19 @@
       </c>
     </row>
     <row r="746" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A746" s="19" t="s">
+      <c r="A746" s="18" t="s">
         <v>2514</v>
       </c>
-      <c r="B746" s="20" t="s">
+      <c r="B746" s="19" t="s">
         <v>2577</v>
       </c>
-      <c r="C746" s="19" t="s">
+      <c r="C746" s="18" t="s">
         <v>3457</v>
       </c>
-      <c r="D746" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E746" s="20" t="s">
+      <c r="D746" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E746" s="19" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -29826,7 +29844,7 @@
       <c r="B753" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="C753" s="19" t="s">
+      <c r="C753" s="18" t="s">
         <v>3457</v>
       </c>
       <c r="D753" s="3" t="s">
@@ -47587,7 +47605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8C4E0-02D7-BD4E-9875-A292DA5969FB}">
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -47603,7 +47621,7 @@
       <c r="A1" s="7" t="s">
         <v>2202</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>2734</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -53901,9 +53919,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2897C11-45D0-1143-9B66-314A64F11CA5}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -54311,7 +54331,7 @@
       <c r="K8" t="s">
         <v>2646</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" t="s">
         <v>2739</v>
       </c>
       <c r="M8">
@@ -54361,7 +54381,7 @@
       <c r="K9" t="s">
         <v>2549</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" t="s">
         <v>2741</v>
       </c>
       <c r="M9">
@@ -54524,15 +54544,66 @@
         <v>43936</v>
       </c>
     </row>
+    <row r="13" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43923</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43922</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3543</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3544</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3223</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="M13">
+        <v>651</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3546</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <v>43943</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>43936</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1" xr:uid="{4C51F28C-A368-DA47-B5FB-CBDB0D3BB91F}"/>
-    <hyperlink ref="N7" r:id="rId2" xr:uid="{68F5DF97-42B3-5F45-892E-0093E19A8957}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{3E5BD913-44B6-CE4A-975C-E93DB1C83B93}"/>
-    <hyperlink ref="N9" r:id="rId4" xr:uid="{F52A61F9-9CC3-0147-B1DC-1C716CBA9717}"/>
-    <hyperlink ref="N10" r:id="rId5" xr:uid="{60E03D8E-0712-4947-B7CE-877688E401DA}"/>
-    <hyperlink ref="N12" r:id="rId6" xr:uid="{1DAE6220-4728-6A47-B155-9BAC7EAA47A8}"/>
-    <hyperlink ref="N11" r:id="rId7" xr:uid="{9BFF6399-6446-B144-B29C-B0FD3595AC1F}"/>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{F28ACAE7-20DC-544F-A84D-371CF6FF5B26}"/>
+    <hyperlink ref="N7" r:id="rId2" xr:uid="{2CA47FC0-58A8-4842-8A94-403B3DB0E612}"/>
+    <hyperlink ref="N8" r:id="rId3" xr:uid="{2A5D76A7-212A-FF45-94CB-B9765B2AE80C}"/>
+    <hyperlink ref="N9" r:id="rId4" xr:uid="{99DB5D94-F8A7-9543-A23A-280A3D7FC7CB}"/>
+    <hyperlink ref="N10" r:id="rId5" xr:uid="{4D2C43C7-B49F-EA45-B50F-1177AD0417FF}"/>
+    <hyperlink ref="N12" r:id="rId6" xr:uid="{25096900-E45F-4E40-BF57-88A9E8056E23}"/>
+    <hyperlink ref="N11" r:id="rId7" xr:uid="{FD29AE63-4C14-F445-AC07-1286541A3CFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54540,10 +54611,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218A77D-399C-1D47-B6D8-167C71D40314}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54811,6 +54882,20 @@
       </c>
       <c r="E20" t="s">
         <v>3492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2765</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E8E8B3-503C-7C44-AB41-27F6C65E87FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3C6B9-8C0B-7545-8857-306A8DEE74BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24520" windowHeight="14280" activeTab="5" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="-32620" yWindow="5020" windowWidth="24520" windowHeight="14280" activeTab="2" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12305" uniqueCount="4815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12326" uniqueCount="4820">
   <si>
     <t>unique_spon_names</t>
   </si>
@@ -14530,6 +14530,22 @@
   </si>
   <si>
     <t>https://clinicaltrials.gov/ct2/show/NCT04350580</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.04.20.20072470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.04.18.20071134</t>
+  </si>
+  <si>
+    <t>EUCTR2020-001553-48</t>
+  </si>
+  <si>
+    <t>Drug: cholecalciferol 200,000 IU
+Drug: cholecalciferol 50,000 IU</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT04344041</t>
   </si>
 </sst>
 </file>
@@ -22557,7 +22573,7 @@
   <dimension ref="A1:F1478"/>
   <sheetViews>
     <sheetView topLeftCell="A954" workbookViewId="0">
-      <selection activeCell="B960" sqref="B960"/>
+      <selection activeCell="A959" sqref="A959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49237,8 +49253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCEDD8-99CD-E64D-83C4-23A5F7177A3C}">
   <dimension ref="A1:C1987"/>
   <sheetViews>
-    <sheetView topLeftCell="A1448" workbookViewId="0">
-      <selection activeCell="E1455" sqref="E1455"/>
+    <sheetView tabSelected="1" topLeftCell="A1410" workbookViewId="0">
+      <selection activeCell="A1470" sqref="A1470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65452,7 +65468,15 @@
       </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1474" s="12"/>
+      <c r="A1474" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1474" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1474" s="7">
+        <v>43900</v>
+      </c>
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475" s="12"/>
@@ -67003,8 +67027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8C4E0-02D7-BD4E-9875-A292DA5969FB}">
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67505,17 +67529,33 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>4815</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43944</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
@@ -73310,6 +73350,8 @@
     <hyperlink ref="B34" r:id="rId31" xr:uid="{4FC47996-C7B4-1147-B9D8-F91D173C9B21}"/>
     <hyperlink ref="B35" r:id="rId32" xr:uid="{58943300-8E1B-0541-AC1F-AC3403293E76}"/>
     <hyperlink ref="B30" r:id="rId33" xr:uid="{9DA68BD0-0378-E945-B7FA-245F83886F30}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{5425D789-73D7-DF45-9C0E-4F5E908B4E63}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{83CD14A5-40B4-5F4B-99C7-98665DBD7138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73317,11 +73359,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2897C11-45D0-1143-9B66-314A64F11CA5}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74244,6 +74286,53 @@
         <v>43943</v>
       </c>
     </row>
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43930</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43936</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4808</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>4818</v>
+      </c>
+      <c r="M19">
+        <v>260</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>4819</v>
+      </c>
+      <c r="P19" s="4">
+        <v>43942</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>43943</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{F28ACAE7-20DC-544F-A84D-371CF6FF5B26}"/>
@@ -74258,6 +74347,7 @@
     <hyperlink ref="N16" r:id="rId10" xr:uid="{D6056C57-FAFE-D249-8D4B-75E83F2B2755}"/>
     <hyperlink ref="N17" r:id="rId11" xr:uid="{5DF8AAD2-E008-3845-8EBE-06760216E300}"/>
     <hyperlink ref="N18" r:id="rId12" xr:uid="{0267BC37-FB1D-7B44-ABA8-EB05EFFC0233}"/>
+    <hyperlink ref="N19" r:id="rId13" xr:uid="{B2F4FE5D-DDE5-4D43-831B-DD25C3EA315E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -74265,10 +74355,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218A77D-399C-1D47-B6D8-167C71D40314}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74708,6 +74798,20 @@
         <v>4154</v>
       </c>
       <c r="D33" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4817</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D34" t="s">
         <v>2762</v>
       </c>
     </row>

--- a/notebooks/manual_data.xlsx
+++ b/notebooks/manual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/covid_trials_tracker-covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B261DD-190B-0B46-9AD5-A0CE1FB33BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CDAC5-F59C-4042-974E-C1B046DA711E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="880" windowWidth="22220" windowHeight="14380" activeTab="4" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
+    <workbookView xWindow="4200" yWindow="2020" windowWidth="22220" windowHeight="14380" activeTab="1" xr2:uid="{EB2E916D-92E5-6547-902E-71CC9B785F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsor" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12396" uniqueCount="4839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12429" uniqueCount="4851">
   <si>
     <t>unique_spon_names</t>
   </si>
@@ -13643,9 +13643,6 @@
     <t>Sedation with sevoflurane versus propofol in patients with Acute Respiratory Distress Syndrome caused by COVID-19 infection</t>
   </si>
   <si>
-    <t>Preventative Drug Treatment for COVID-19 Infectious Disease</t>
-  </si>
-  <si>
     <t>Use of a respiratory multiplex PCR and procalcitonin to reduce antibiotic exposure in patients with severe confirmed COVID-19 pneumonia</t>
   </si>
   <si>
@@ -14607,6 +14604,47 @@
   </si>
   <si>
     <t>Sarilumab; azithromycin; hydroxychloroquine</t>
+  </si>
+  <si>
+    <t>RBR-9ktwx6</t>
+  </si>
+  <si>
+    <t>REBEC</t>
+  </si>
+  <si>
+    <t>Socidade Brasileira de Reumatologia</t>
+  </si>
+  <si>
+    <t>Evaluation of the effect of chronic use of Antimalarials on the frequency of infection with the New Corona Virus 2019 (Severe Acute Respiratory Syndrome Coronavirus 2 - SARS-CoV-2) in patients with Immunomedical Rheumatic Diseases</t>
+  </si>
+  <si>
+    <t>Chloroquine and Hydroxychloroquine</t>
+  </si>
+  <si>
+    <t>http://www.ensaiosclinicos.gov.br/rg/RBR-9ktwx6/</t>
+  </si>
+  <si>
+    <t>EUCTR2020-001224-33</t>
+  </si>
+  <si>
+    <t>NCT04352933</t>
+  </si>
+  <si>
+    <t>EUCTR2020-001331-26</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>PROLIFIC ChemoprophylaxisTrial (COVID-19)</t>
+  </si>
+  <si>
+    <t>Drug: Hydroxychloroquine - Daily dosing
+Drug: Hydroxychloroquine - Weekly Dosing
+Other: Matched Placebo Hydroxychloroquine</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT04352933</t>
   </si>
 </sst>
 </file>
@@ -15063,10 +15101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D462C6-375D-2A4D-81F0-358CC20C32FE}">
-  <dimension ref="A1:B946"/>
+  <dimension ref="A1:B947"/>
   <sheetViews>
-    <sheetView topLeftCell="A864" workbookViewId="0">
-      <selection activeCell="A880" sqref="A880"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15445,7 +15483,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="B47" t="s">
         <v>2236</v>
@@ -16013,10 +16051,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="B118" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -22641,6 +22679,14 @@
       </c>
       <c r="B946" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B947" t="s">
+        <v>4840</v>
       </c>
     </row>
   </sheetData>
@@ -22655,10 +22701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC06582-2DEF-3F4C-9BDF-F5E9FA92249B}">
-  <dimension ref="A1:F1480"/>
+  <dimension ref="A1:F1481"/>
   <sheetViews>
-    <sheetView topLeftCell="A748" workbookViewId="0">
-      <selection activeCell="C759" sqref="C759"/>
+    <sheetView tabSelected="1" topLeftCell="A1470" workbookViewId="0">
+      <selection activeCell="B1481" sqref="B1481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24631,7 +24677,7 @@
         <v>1055</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="F109" s="26"/>
     </row>
@@ -24700,10 +24746,10 @@
         <v>1049</v>
       </c>
       <c r="D113" s="27" t="s">
+        <v>4661</v>
+      </c>
+      <c r="E113" s="27" t="s">
         <v>4662</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>4663</v>
       </c>
       <c r="F113" s="26"/>
     </row>
@@ -24808,10 +24854,10 @@
         <v>1049</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="F119" s="26"/>
     </row>
@@ -24892,7 +24938,7 @@
         <v>4126</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="C124" s="27" t="s">
         <v>1049</v>
@@ -24946,7 +24992,7 @@
         <v>4163</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="C127" s="27" t="s">
         <v>1049</v>
@@ -24964,7 +25010,7 @@
         <v>4220</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="C128" s="27" t="s">
         <v>1049</v>
@@ -29324,7 +29370,7 @@
         <v>4174</v>
       </c>
       <c r="B367" s="26" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="C367" s="27" t="s">
         <v>1756</v>
@@ -29342,7 +29388,7 @@
         <v>4175</v>
       </c>
       <c r="B368" s="26" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="C368" s="27" t="s">
         <v>1756</v>
@@ -29360,7 +29406,7 @@
         <v>4179</v>
       </c>
       <c r="B369" s="26" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="C369" s="27" t="s">
         <v>1756</v>
@@ -29378,7 +29424,7 @@
         <v>4182</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="C370" s="27" t="s">
         <v>1756</v>
@@ -29396,7 +29442,7 @@
         <v>4183</v>
       </c>
       <c r="B371" s="26" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="C371" s="27" t="s">
         <v>1756</v>
@@ -29414,7 +29460,7 @@
         <v>4184</v>
       </c>
       <c r="B372" s="26" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="C372" s="27" t="s">
         <v>1756</v>
@@ -29432,7 +29478,7 @@
         <v>4185</v>
       </c>
       <c r="B373" s="26" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="C373" s="27" t="s">
         <v>1756</v>
@@ -29450,7 +29496,7 @@
         <v>4190</v>
       </c>
       <c r="B374" s="26" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
       <c r="C374" s="27" t="s">
         <v>1756</v>
@@ -29468,7 +29514,7 @@
         <v>4194</v>
       </c>
       <c r="B375" s="26" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="C375" s="27" t="s">
         <v>1756</v>
@@ -29486,7 +29532,7 @@
         <v>4195</v>
       </c>
       <c r="B376" s="26" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="C376" s="27" t="s">
         <v>1756</v>
@@ -29504,7 +29550,7 @@
         <v>4203</v>
       </c>
       <c r="B377" s="26" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="C377" s="27" t="s">
         <v>1756</v>
@@ -29522,7 +29568,7 @@
         <v>4204</v>
       </c>
       <c r="B378" s="26" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="C378" s="27" t="s">
         <v>1756</v>
@@ -29540,7 +29586,7 @@
         <v>4207</v>
       </c>
       <c r="B379" s="26" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="C379" s="27" t="s">
         <v>1756</v>
@@ -29558,7 +29604,7 @@
         <v>4209</v>
       </c>
       <c r="B380" s="26" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="C380" s="27" t="s">
         <v>1756</v>
@@ -29576,7 +29622,7 @@
         <v>4213</v>
       </c>
       <c r="B381" s="26" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="C381" s="27" t="s">
         <v>1756</v>
@@ -29594,7 +29640,7 @@
         <v>4216</v>
       </c>
       <c r="B382" s="26" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="C382" s="27" t="s">
         <v>1756</v>
@@ -29992,7 +30038,7 @@
         <v>4170</v>
       </c>
       <c r="B404" s="26" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="C404" s="27" t="s">
         <v>3445</v>
@@ -30010,7 +30056,7 @@
         <v>4173</v>
       </c>
       <c r="B405" s="26" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="C405" s="27" t="s">
         <v>3445</v>
@@ -30028,7 +30074,7 @@
         <v>4187</v>
       </c>
       <c r="B406" s="26" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="C406" s="27" t="s">
         <v>3445</v>
@@ -30046,7 +30092,7 @@
         <v>4189</v>
       </c>
       <c r="B407" s="26" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="C407" s="27" t="s">
         <v>3445</v>
@@ -30064,7 +30110,7 @@
         <v>4206</v>
       </c>
       <c r="B408" s="26" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="C408" s="27" t="s">
         <v>3445</v>
@@ -30082,7 +30128,7 @@
         <v>4210</v>
       </c>
       <c r="B409" s="26" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="C409" s="27" t="s">
         <v>3445</v>
@@ -31318,7 +31364,7 @@
         <v>4168</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="C477" s="25" t="s">
         <v>3443</v>
@@ -31336,7 +31382,7 @@
         <v>4180</v>
       </c>
       <c r="B478" s="26" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="C478" s="27" t="s">
         <v>3443</v>
@@ -31354,7 +31400,7 @@
         <v>4192</v>
       </c>
       <c r="B479" s="26" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="C479" s="27" t="s">
         <v>3443</v>
@@ -31372,7 +31418,7 @@
         <v>4215</v>
       </c>
       <c r="B480" s="26" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="C480" s="25" t="s">
         <v>3443</v>
@@ -35320,10 +35366,10 @@
         <v>1057</v>
       </c>
       <c r="D699" s="18" t="s">
+        <v>4814</v>
+      </c>
+      <c r="E699" s="18" t="s">
         <v>4815</v>
-      </c>
-      <c r="E699" s="18" t="s">
-        <v>4816</v>
       </c>
       <c r="F699" s="26"/>
     </row>
@@ -36400,10 +36446,10 @@
         <v>1057</v>
       </c>
       <c r="D759" s="18" t="s">
+        <v>4836</v>
+      </c>
+      <c r="E759" s="18" t="s">
         <v>4837</v>
-      </c>
-      <c r="E759" s="18" t="s">
-        <v>4838</v>
       </c>
       <c r="F759" s="26"/>
     </row>
@@ -36940,10 +36986,10 @@
         <v>1057</v>
       </c>
       <c r="D789" s="18" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E789" s="18" t="s">
         <v>4829</v>
-      </c>
-      <c r="E789" s="18" t="s">
-        <v>4830</v>
       </c>
       <c r="F789" s="26"/>
     </row>
@@ -37606,10 +37652,10 @@
         <v>1057</v>
       </c>
       <c r="D826" s="26" t="s">
+        <v>4593</v>
+      </c>
+      <c r="E826" s="26" t="s">
         <v>4594</v>
-      </c>
-      <c r="E826" s="26" t="s">
-        <v>4595</v>
       </c>
       <c r="F826" s="26"/>
     </row>
@@ -37624,7 +37670,7 @@
         <v>1057</v>
       </c>
       <c r="D827" s="26" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="E827" s="26" t="s">
         <v>2713</v>
@@ -37642,10 +37688,10 @@
         <v>1057</v>
       </c>
       <c r="D828" s="18" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="E828" s="18" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="F828" s="26"/>
     </row>
@@ -37678,7 +37724,7 @@
         <v>1057</v>
       </c>
       <c r="D830" s="26" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="E830" s="26" t="s">
         <v>1916</v>
@@ -37714,10 +37760,10 @@
         <v>1057</v>
       </c>
       <c r="D832" s="22" t="s">
+        <v>4598</v>
+      </c>
+      <c r="E832" s="22" t="s">
         <v>4599</v>
-      </c>
-      <c r="E832" s="22" t="s">
-        <v>4600</v>
       </c>
       <c r="F832" s="26"/>
     </row>
@@ -37732,10 +37778,10 @@
         <v>1057</v>
       </c>
       <c r="D833" s="26" t="s">
-        <v>4746</v>
+        <v>4745</v>
       </c>
       <c r="E833" s="26" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="F833" s="26"/>
     </row>
@@ -37786,10 +37832,10 @@
         <v>1057</v>
       </c>
       <c r="D836" s="26" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="E836" s="26" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="F836" s="26"/>
     </row>
@@ -37822,10 +37868,10 @@
         <v>1057</v>
       </c>
       <c r="D838" s="26" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="E838" s="26" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="F838" s="26"/>
     </row>
@@ -37840,10 +37886,10 @@
         <v>1057</v>
       </c>
       <c r="D839" s="29" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="E839" s="29" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="F839" s="26"/>
     </row>
@@ -37858,10 +37904,10 @@
         <v>1057</v>
       </c>
       <c r="D840" s="27" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E840" s="27" t="s">
         <v>4605</v>
-      </c>
-      <c r="E840" s="27" t="s">
-        <v>4606</v>
       </c>
       <c r="F840" s="26"/>
     </row>
@@ -37876,10 +37922,10 @@
         <v>1057</v>
       </c>
       <c r="D841" s="27" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="E841" s="29" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="F841" s="26"/>
     </row>
@@ -37894,10 +37940,10 @@
         <v>1057</v>
       </c>
       <c r="D842" s="26" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="E842" s="26" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="F842" s="26"/>
     </row>
@@ -37948,10 +37994,10 @@
         <v>1057</v>
       </c>
       <c r="D845" s="27" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E845" s="27" t="s">
         <v>4609</v>
-      </c>
-      <c r="E845" s="27" t="s">
-        <v>4610</v>
       </c>
       <c r="F845" s="26"/>
     </row>
@@ -38002,10 +38048,10 @@
         <v>1057</v>
       </c>
       <c r="D848" s="26" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="E848" s="26" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="F848" s="26"/>
     </row>
@@ -38020,10 +38066,10 @@
         <v>1057</v>
       </c>
       <c r="D849" s="26" t="s">
+        <v>4611</v>
+      </c>
+      <c r="E849" s="26" t="s">
         <v>4612</v>
-      </c>
-      <c r="E849" s="26" t="s">
-        <v>4613</v>
       </c>
       <c r="F849" s="26"/>
     </row>
@@ -38038,10 +38084,10 @@
         <v>1057</v>
       </c>
       <c r="D850" s="26" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="E850" s="26" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="F850" s="26"/>
     </row>
@@ -38056,10 +38102,10 @@
         <v>1057</v>
       </c>
       <c r="D851" s="26" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="E851" s="26" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="F851" s="26"/>
     </row>
@@ -38074,10 +38120,10 @@
         <v>1057</v>
       </c>
       <c r="D852" s="26" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E852" s="26" t="s">
         <v>4753</v>
-      </c>
-      <c r="E852" s="26" t="s">
-        <v>4754</v>
       </c>
       <c r="F852" s="26"/>
     </row>
@@ -38092,10 +38138,10 @@
         <v>1057</v>
       </c>
       <c r="D853" s="26" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="E853" s="26" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="F853" s="26"/>
     </row>
@@ -38146,10 +38192,10 @@
         <v>1057</v>
       </c>
       <c r="D856" s="26" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="E856" s="26" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="F856" s="26"/>
     </row>
@@ -38182,10 +38228,10 @@
         <v>1057</v>
       </c>
       <c r="D858" s="26" t="s">
+        <v>4617</v>
+      </c>
+      <c r="E858" s="26" t="s">
         <v>4618</v>
-      </c>
-      <c r="E858" s="26" t="s">
-        <v>4619</v>
       </c>
       <c r="F858" s="26"/>
     </row>
@@ -38218,10 +38264,10 @@
         <v>1057</v>
       </c>
       <c r="D860" s="26" t="s">
+        <v>4619</v>
+      </c>
+      <c r="E860" s="26" t="s">
         <v>4620</v>
-      </c>
-      <c r="E860" s="26" t="s">
-        <v>4621</v>
       </c>
       <c r="F860" s="26"/>
     </row>
@@ -38236,10 +38282,10 @@
         <v>1057</v>
       </c>
       <c r="D861" s="26" t="s">
+        <v>4621</v>
+      </c>
+      <c r="E861" s="26" t="s">
         <v>4622</v>
-      </c>
-      <c r="E861" s="26" t="s">
-        <v>4623</v>
       </c>
       <c r="F861" s="26"/>
     </row>
@@ -38254,10 +38300,10 @@
         <v>1057</v>
       </c>
       <c r="D862" s="26" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="E862" s="26" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="F862" s="26"/>
     </row>
@@ -38290,10 +38336,10 @@
         <v>1057</v>
       </c>
       <c r="D864" s="26" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="E864" s="26" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="F864" s="26"/>
     </row>
@@ -38308,10 +38354,10 @@
         <v>1057</v>
       </c>
       <c r="D865" s="26" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="E865" s="26" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="F865" s="26"/>
     </row>
@@ -38344,10 +38390,10 @@
         <v>1057</v>
       </c>
       <c r="D867" s="26" t="s">
+        <v>4627</v>
+      </c>
+      <c r="E867" s="26" t="s">
         <v>4628</v>
-      </c>
-      <c r="E867" s="26" t="s">
-        <v>4629</v>
       </c>
       <c r="F867" s="26"/>
     </row>
@@ -38380,10 +38426,10 @@
         <v>1057</v>
       </c>
       <c r="D869" s="26" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="E869" s="29" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="F869" s="26"/>
     </row>
@@ -38416,10 +38462,10 @@
         <v>1057</v>
       </c>
       <c r="D871" s="26" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="E871" s="26" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="F871" s="26"/>
     </row>
@@ -38434,10 +38480,10 @@
         <v>1057</v>
       </c>
       <c r="D872" s="26" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="E872" s="26" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="F872" s="26"/>
     </row>
@@ -38452,10 +38498,10 @@
         <v>1057</v>
       </c>
       <c r="D873" s="27" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="E873" s="26" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="F873" s="26"/>
     </row>
@@ -38470,10 +38516,10 @@
         <v>1057</v>
       </c>
       <c r="D874" s="26" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="E874" s="26" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="F874" s="26"/>
     </row>
@@ -38488,10 +38534,10 @@
         <v>1057</v>
       </c>
       <c r="D875" s="26" t="s">
+        <v>4635</v>
+      </c>
+      <c r="E875" s="26" t="s">
         <v>4636</v>
-      </c>
-      <c r="E875" s="26" t="s">
-        <v>4637</v>
       </c>
       <c r="F875" s="26"/>
     </row>
@@ -38506,10 +38552,10 @@
         <v>1057</v>
       </c>
       <c r="D876" s="26" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="E876" s="26" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="F876" s="26"/>
     </row>
@@ -38542,10 +38588,10 @@
         <v>1057</v>
       </c>
       <c r="D878" s="26" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="E878" s="26" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="F878" s="26"/>
     </row>
@@ -38560,10 +38606,10 @@
         <v>1057</v>
       </c>
       <c r="D879" s="27" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E879" s="27" t="s">
         <v>4640</v>
-      </c>
-      <c r="E879" s="27" t="s">
-        <v>4641</v>
       </c>
       <c r="F879" s="26"/>
     </row>
@@ -38578,10 +38624,10 @@
         <v>1057</v>
       </c>
       <c r="D880" s="27" t="s">
+        <v>4641</v>
+      </c>
+      <c r="E880" s="27" t="s">
         <v>4642</v>
-      </c>
-      <c r="E880" s="27" t="s">
-        <v>4643</v>
       </c>
       <c r="F880" s="26"/>
     </row>
@@ -38596,10 +38642,10 @@
         <v>1057</v>
       </c>
       <c r="D881" s="27" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="E881" s="27" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="F881" s="26"/>
     </row>
@@ -38614,7 +38660,7 @@
         <v>1057</v>
       </c>
       <c r="D882" s="27" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
       <c r="E882" s="27" t="s">
         <v>1934</v>
@@ -38668,10 +38714,10 @@
         <v>1057</v>
       </c>
       <c r="D885" s="27" t="s">
+        <v>4646</v>
+      </c>
+      <c r="E885" s="27" t="s">
         <v>4647</v>
-      </c>
-      <c r="E885" s="27" t="s">
-        <v>4648</v>
       </c>
       <c r="F885" s="26"/>
     </row>
@@ -38686,7 +38732,7 @@
         <v>1057</v>
       </c>
       <c r="D886" s="27" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
       <c r="E886" s="27" t="s">
         <v>3426</v>
@@ -38704,10 +38750,10 @@
         <v>1057</v>
       </c>
       <c r="D887" s="27" t="s">
+        <v>4649</v>
+      </c>
+      <c r="E887" s="27" t="s">
         <v>4650</v>
-      </c>
-      <c r="E887" s="27" t="s">
-        <v>4651</v>
       </c>
       <c r="F887" s="26"/>
     </row>
@@ -38722,7 +38768,7 @@
         <v>1057</v>
       </c>
       <c r="D888" s="27" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="E888" s="27" t="s">
         <v>2713</v>
@@ -38776,10 +38822,10 @@
         <v>1057</v>
       </c>
       <c r="D891" s="27" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="E891" s="27" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="F891" s="26"/>
     </row>
@@ -38812,10 +38858,10 @@
         <v>1057</v>
       </c>
       <c r="D893" s="27" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="E893" s="27" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="F893" s="26"/>
     </row>
@@ -38848,7 +38894,7 @@
         <v>1057</v>
       </c>
       <c r="D895" s="27" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="E895" s="27" t="s">
         <v>2713</v>
@@ -38866,10 +38912,10 @@
         <v>1057</v>
       </c>
       <c r="D896" s="27" t="s">
+        <v>4655</v>
+      </c>
+      <c r="E896" s="27" t="s">
         <v>4656</v>
-      </c>
-      <c r="E896" s="27" t="s">
-        <v>4657</v>
       </c>
       <c r="F896" s="26"/>
     </row>
@@ -38884,10 +38930,10 @@
         <v>1057</v>
       </c>
       <c r="D897" s="26" t="s">
+        <v>4657</v>
+      </c>
+      <c r="E897" s="26" t="s">
         <v>4658</v>
-      </c>
-      <c r="E897" s="26" t="s">
-        <v>4659</v>
       </c>
       <c r="F897" s="26"/>
     </row>
@@ -38920,10 +38966,10 @@
         <v>1057</v>
       </c>
       <c r="D899" s="27" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="E899" s="27" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="F899" s="26"/>
     </row>
@@ -38974,10 +39020,10 @@
         <v>1057</v>
       </c>
       <c r="D902" s="27" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="E902" s="27" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="F902" s="26"/>
     </row>
@@ -38992,10 +39038,10 @@
         <v>1057</v>
       </c>
       <c r="D903" s="27" t="s">
+        <v>4663</v>
+      </c>
+      <c r="E903" s="27" t="s">
         <v>4664</v>
-      </c>
-      <c r="E903" s="27" t="s">
-        <v>4665</v>
       </c>
       <c r="F903" s="26"/>
     </row>
@@ -39010,10 +39056,10 @@
         <v>1057</v>
       </c>
       <c r="D904" s="27" t="s">
+        <v>4665</v>
+      </c>
+      <c r="E904" s="27" t="s">
         <v>4666</v>
-      </c>
-      <c r="E904" s="27" t="s">
-        <v>4667</v>
       </c>
       <c r="F904" s="26"/>
     </row>
@@ -39028,10 +39074,10 @@
         <v>1057</v>
       </c>
       <c r="D905" s="27" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E905" s="27" t="s">
         <v>4668</v>
-      </c>
-      <c r="E905" s="27" t="s">
-        <v>4669</v>
       </c>
       <c r="F905" s="26"/>
     </row>
@@ -39040,7 +39086,7 @@
         <v>4048</v>
       </c>
       <c r="B906" s="26" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="C906" s="27" t="s">
         <v>1057</v>
@@ -39082,10 +39128,10 @@
         <v>1057</v>
       </c>
       <c r="D908" s="27" t="s">
+        <v>4669</v>
+      </c>
+      <c r="E908" s="27" t="s">
         <v>4670</v>
-      </c>
-      <c r="E908" s="27" t="s">
-        <v>4671</v>
       </c>
       <c r="F908" s="26"/>
     </row>
@@ -39118,10 +39164,10 @@
         <v>1057</v>
       </c>
       <c r="D910" s="27" t="s">
+        <v>4671</v>
+      </c>
+      <c r="E910" s="27" t="s">
         <v>4672</v>
-      </c>
-      <c r="E910" s="27" t="s">
-        <v>4673</v>
       </c>
       <c r="F910" s="26"/>
     </row>
@@ -39136,10 +39182,10 @@
         <v>1057</v>
       </c>
       <c r="D911" s="27" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="E911" s="27" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="F911" s="26"/>
     </row>
@@ -39148,16 +39194,16 @@
         <v>4063</v>
       </c>
       <c r="B912" s="26" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="C912" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D912" s="27" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="E912" s="27" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="F912" s="26"/>
     </row>
@@ -39172,10 +39218,10 @@
         <v>1057</v>
       </c>
       <c r="D913" s="27" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="E913" s="27" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="F913" s="26"/>
     </row>
@@ -39184,16 +39230,16 @@
         <v>4068</v>
       </c>
       <c r="B914" s="26" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="C914" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D914" s="27" t="s">
+        <v>4675</v>
+      </c>
+      <c r="E914" s="27" t="s">
         <v>4676</v>
-      </c>
-      <c r="E914" s="27" t="s">
-        <v>4677</v>
       </c>
       <c r="F914" s="26"/>
     </row>
@@ -39208,10 +39254,10 @@
         <v>1057</v>
       </c>
       <c r="D915" s="27" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="E915" s="27" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="F915" s="26"/>
     </row>
@@ -39226,10 +39272,10 @@
         <v>1057</v>
       </c>
       <c r="D916" s="27" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="E916" s="27" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="F916" s="26"/>
     </row>
@@ -39244,10 +39290,10 @@
         <v>1057</v>
       </c>
       <c r="D917" s="27" t="s">
+        <v>4679</v>
+      </c>
+      <c r="E917" s="27" t="s">
         <v>4680</v>
-      </c>
-      <c r="E917" s="27" t="s">
-        <v>4681</v>
       </c>
       <c r="F917" s="26"/>
     </row>
@@ -39256,16 +39302,16 @@
         <v>4072</v>
       </c>
       <c r="B918" s="26" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="C918" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D918" s="27" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E918" s="27" t="s">
         <v>4682</v>
-      </c>
-      <c r="E918" s="27" t="s">
-        <v>4683</v>
       </c>
       <c r="F918" s="26"/>
     </row>
@@ -39280,10 +39326,10 @@
         <v>1057</v>
       </c>
       <c r="D919" s="27" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="E919" s="27" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="F919" s="26"/>
     </row>
@@ -39298,10 +39344,10 @@
         <v>1057</v>
       </c>
       <c r="D920" s="27" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="E920" s="27" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="F920" s="26"/>
     </row>
@@ -39316,10 +39362,10 @@
         <v>1057</v>
       </c>
       <c r="D921" s="27" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="E921" s="27" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="F921" s="26"/>
     </row>
@@ -39334,10 +39380,10 @@
         <v>1057</v>
       </c>
       <c r="D922" s="27" t="s">
+        <v>4685</v>
+      </c>
+      <c r="E922" s="27" t="s">
         <v>4686</v>
-      </c>
-      <c r="E922" s="27" t="s">
-        <v>4687</v>
       </c>
       <c r="F922" s="26"/>
     </row>
@@ -39352,10 +39398,10 @@
         <v>1057</v>
       </c>
       <c r="D923" s="27" t="s">
+        <v>4687</v>
+      </c>
+      <c r="E923" s="27" t="s">
         <v>4688</v>
-      </c>
-      <c r="E923" s="27" t="s">
-        <v>4689</v>
       </c>
       <c r="F923" s="26"/>
     </row>
@@ -39370,10 +39416,10 @@
         <v>1057</v>
       </c>
       <c r="D924" s="27" t="s">
+        <v>4689</v>
+      </c>
+      <c r="E924" s="27" t="s">
         <v>4690</v>
-      </c>
-      <c r="E924" s="27" t="s">
-        <v>4691</v>
       </c>
       <c r="F924" s="26"/>
     </row>
@@ -39388,10 +39434,10 @@
         <v>1057</v>
       </c>
       <c r="D925" s="27" t="s">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="E925" s="27" t="s">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="F925" s="26"/>
     </row>
@@ -39442,10 +39488,10 @@
         <v>1057</v>
       </c>
       <c r="D928" s="27" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="E928" s="27" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="F928" s="26"/>
     </row>
@@ -39460,10 +39506,10 @@
         <v>1057</v>
       </c>
       <c r="D929" s="27" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="E929" s="27" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="F929" s="26"/>
     </row>
@@ -39532,10 +39578,10 @@
         <v>1057</v>
       </c>
       <c r="D933" s="27" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="E933" s="27" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="F933" s="26"/>
     </row>
@@ -39550,10 +39596,10 @@
         <v>1057</v>
       </c>
       <c r="D934" s="30" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="E934" s="30" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="F934" s="26"/>
     </row>
@@ -39568,10 +39614,10 @@
         <v>1057</v>
       </c>
       <c r="D935" s="27" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="E935" s="27" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="F935" s="26"/>
     </row>
@@ -39586,10 +39632,10 @@
         <v>1057</v>
       </c>
       <c r="D936" s="27" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E936" s="27" t="s">
         <v>4701</v>
-      </c>
-      <c r="E936" s="27" t="s">
-        <v>4702</v>
       </c>
       <c r="F936" s="26"/>
     </row>
@@ -39604,10 +39650,10 @@
         <v>1057</v>
       </c>
       <c r="D937" s="27" t="s">
+        <v>4702</v>
+      </c>
+      <c r="E937" s="27" t="s">
         <v>4703</v>
-      </c>
-      <c r="E937" s="27" t="s">
-        <v>4704</v>
       </c>
       <c r="F937" s="26"/>
     </row>
@@ -39622,10 +39668,10 @@
         <v>1057</v>
       </c>
       <c r="D938" s="27" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="E938" s="27" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="F938" s="26"/>
     </row>
@@ -39640,10 +39686,10 @@
         <v>1057</v>
       </c>
       <c r="D939" s="27" t="s">
+        <v>4705</v>
+      </c>
+      <c r="E939" s="27" t="s">
         <v>4706</v>
-      </c>
-      <c r="E939" s="27" t="s">
-        <v>4707</v>
       </c>
       <c r="F939" s="26"/>
     </row>
@@ -39658,10 +39704,10 @@
         <v>1057</v>
       </c>
       <c r="D940" s="27" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="E940" s="27" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="F940" s="26"/>
     </row>
@@ -39670,16 +39716,16 @@
         <v>4111</v>
       </c>
       <c r="B941" s="26" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="C941" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D941" s="27" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="E941" s="27" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="F941" s="26"/>
     </row>
@@ -39694,10 +39740,10 @@
         <v>1057</v>
       </c>
       <c r="D942" s="27" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="E942" s="27" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="F942" s="26"/>
     </row>
@@ -39706,16 +39752,16 @@
         <v>4114</v>
       </c>
       <c r="B943" s="26" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="C943" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D943" s="27" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="E943" s="27" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="F943" s="26"/>
     </row>
@@ -39730,10 +39776,10 @@
         <v>1057</v>
       </c>
       <c r="D944" s="27" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="E944" s="27" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="F944" s="26"/>
     </row>
@@ -39748,10 +39794,10 @@
         <v>1057</v>
       </c>
       <c r="D945" s="27" t="s">
+        <v>4710</v>
+      </c>
+      <c r="E945" s="27" t="s">
         <v>4711</v>
-      </c>
-      <c r="E945" s="27" t="s">
-        <v>4712</v>
       </c>
       <c r="F945" s="26"/>
     </row>
@@ -39766,10 +39812,10 @@
         <v>1057</v>
       </c>
       <c r="D946" s="27" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E946" s="27" t="s">
         <v>4713</v>
-      </c>
-      <c r="E946" s="27" t="s">
-        <v>4714</v>
       </c>
       <c r="F946" s="26"/>
     </row>
@@ -39784,10 +39830,10 @@
         <v>1057</v>
       </c>
       <c r="D947" s="27" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="E947" s="27" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="F947" s="26"/>
     </row>
@@ -39814,16 +39860,16 @@
         <v>4123</v>
       </c>
       <c r="B949" s="26" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="C949" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D949" s="27" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E949" s="27" t="s">
         <v>4716</v>
-      </c>
-      <c r="E949" s="27" t="s">
-        <v>4717</v>
       </c>
       <c r="F949" s="26"/>
     </row>
@@ -39856,10 +39902,10 @@
         <v>1057</v>
       </c>
       <c r="D951" s="27" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="E951" s="27" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="F951" s="26"/>
     </row>
@@ -39874,10 +39920,10 @@
         <v>1057</v>
       </c>
       <c r="D952" s="27" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="E952" s="27" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="F952" s="26"/>
     </row>
@@ -39955,10 +40001,10 @@
     </row>
     <row r="957" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A957" s="25" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B957" s="26" t="s">
         <v>4800</v>
-      </c>
-      <c r="B957" s="26" t="s">
-        <v>4801</v>
       </c>
       <c r="C957" s="27" t="s">
         <v>1057</v>
@@ -39973,19 +40019,19 @@
     </row>
     <row r="958" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A958" s="25" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B958" s="26" t="s">
         <v>4795</v>
-      </c>
-      <c r="B958" s="26" t="s">
-        <v>4796</v>
       </c>
       <c r="C958" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D958" s="27" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="E958" s="27" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="F958" s="26"/>
     </row>
@@ -40000,10 +40046,10 @@
         <v>1057</v>
       </c>
       <c r="D959" s="27" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="E959" s="27" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="F959" s="26"/>
     </row>
@@ -40054,10 +40100,10 @@
         <v>1057</v>
       </c>
       <c r="D962" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E962" s="27" t="s">
         <v>4725</v>
-      </c>
-      <c r="E962" s="27" t="s">
-        <v>4726</v>
       </c>
       <c r="F962" s="26"/>
     </row>
@@ -40072,10 +40118,10 @@
         <v>1057</v>
       </c>
       <c r="D963" s="27" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="E963" s="27" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="F963" s="26"/>
     </row>
@@ -40108,7 +40154,7 @@
         <v>1057</v>
       </c>
       <c r="D965" s="27" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="E965" s="27" t="s">
         <v>2713</v>
@@ -40126,10 +40172,10 @@
         <v>1057</v>
       </c>
       <c r="D966" s="27" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E966" s="27" t="s">
         <v>4729</v>
-      </c>
-      <c r="E966" s="27" t="s">
-        <v>4730</v>
       </c>
       <c r="F966" s="26"/>
     </row>
@@ -40138,16 +40184,16 @@
         <v>4161</v>
       </c>
       <c r="B967" s="26" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="C967" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D967" s="27" t="s">
+        <v>4730</v>
+      </c>
+      <c r="E967" s="27" t="s">
         <v>4731</v>
-      </c>
-      <c r="E967" s="27" t="s">
-        <v>4732</v>
       </c>
       <c r="F967" s="26"/>
     </row>
@@ -40162,10 +40208,10 @@
         <v>1057</v>
       </c>
       <c r="D968" s="26" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E968" s="26" t="s">
         <v>4733</v>
-      </c>
-      <c r="E968" s="26" t="s">
-        <v>4734</v>
       </c>
       <c r="F968" s="26"/>
     </row>
@@ -40174,16 +40220,16 @@
         <v>4162</v>
       </c>
       <c r="B969" s="26" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="C969" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D969" s="27" t="s">
+        <v>4734</v>
+      </c>
+      <c r="E969" s="27" t="s">
         <v>4735</v>
-      </c>
-      <c r="E969" s="27" t="s">
-        <v>4736</v>
       </c>
       <c r="F969" s="26"/>
     </row>
@@ -40192,16 +40238,16 @@
         <v>4164</v>
       </c>
       <c r="B970" s="26" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="C970" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D970" s="27" t="s">
+        <v>4736</v>
+      </c>
+      <c r="E970" s="27" t="s">
         <v>4737</v>
-      </c>
-      <c r="E970" s="27" t="s">
-        <v>4738</v>
       </c>
       <c r="F970" s="26"/>
     </row>
@@ -40210,16 +40256,16 @@
         <v>4166</v>
       </c>
       <c r="B971" s="26" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="C971" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D971" s="27" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E971" s="27" t="s">
         <v>4739</v>
-      </c>
-      <c r="E971" s="27" t="s">
-        <v>4740</v>
       </c>
       <c r="F971" s="26"/>
     </row>
@@ -40228,16 +40274,16 @@
         <v>4167</v>
       </c>
       <c r="B972" s="26" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="C972" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D972" s="27" t="s">
+        <v>4740</v>
+      </c>
+      <c r="E972" s="27" t="s">
         <v>4741</v>
-      </c>
-      <c r="E972" s="27" t="s">
-        <v>4742</v>
       </c>
       <c r="F972" s="26"/>
     </row>
@@ -40246,7 +40292,7 @@
         <v>4172</v>
       </c>
       <c r="B973" s="26" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="C973" s="27" t="s">
         <v>1057</v>
@@ -40264,16 +40310,16 @@
         <v>4181</v>
       </c>
       <c r="B974" s="26" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="C974" s="27" t="s">
         <v>1057</v>
       </c>
       <c r="D974" s="27" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="E974" s="27" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="F974" s="26"/>
     </row>
@@ -40282,7 +40328,7 @@
         <v>4193</v>
       </c>
       <c r="B975" s="26" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="C975" s="27" t="s">
         <v>1057</v>
@@ -40300,7 +40346,7 @@
         <v>4197</v>
       </c>
       <c r="B976" s="26" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="C976" s="27" t="s">
         <v>1057</v>
@@ -40318,7 +40364,7 @@
         <v>4202</v>
       </c>
       <c r="B977" s="26" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="C977" s="27" t="s">
         <v>1057</v>
@@ -40339,13 +40385,13 @@
         <v>4272</v>
       </c>
       <c r="C978" s="27" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="D978" s="26" t="s">
+        <v>4750</v>
+      </c>
+      <c r="E978" s="26" t="s">
         <v>4751</v>
-      </c>
-      <c r="E978" s="26" t="s">
-        <v>4752</v>
       </c>
       <c r="F978" s="26"/>
     </row>
@@ -40357,13 +40403,13 @@
         <v>4504</v>
       </c>
       <c r="C979" s="27" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="D979" s="27" t="s">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="E979" s="27" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="F979" s="26"/>
     </row>
@@ -40411,7 +40457,7 @@
         <v>4471</v>
       </c>
       <c r="C982" s="27" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="D982" s="27" t="s">
         <v>1084</v>
@@ -40864,10 +40910,10 @@
         <v>2673</v>
       </c>
       <c r="D1007" s="26" t="s">
+        <v>4747</v>
+      </c>
+      <c r="E1007" s="26" t="s">
         <v>4748</v>
-      </c>
-      <c r="E1007" s="26" t="s">
-        <v>4749</v>
       </c>
       <c r="F1007" s="26"/>
     </row>
@@ -40918,10 +40964,10 @@
         <v>2673</v>
       </c>
       <c r="D1010" s="26" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="E1010" s="26" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="F1010" s="26"/>
     </row>
@@ -40969,7 +41015,7 @@
         <v>4418</v>
       </c>
       <c r="C1013" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1013" s="27" t="s">
         <v>1084</v>
@@ -40987,7 +41033,7 @@
         <v>4500</v>
       </c>
       <c r="C1014" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1014" s="27" t="s">
         <v>1084</v>
@@ -41005,7 +41051,7 @@
         <v>4502</v>
       </c>
       <c r="C1015" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1015" s="27" t="s">
         <v>1084</v>
@@ -41023,7 +41069,7 @@
         <v>4503</v>
       </c>
       <c r="C1016" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1016" s="27" t="s">
         <v>1084</v>
@@ -41041,7 +41087,7 @@
         <v>4514</v>
       </c>
       <c r="C1017" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1017" s="27" t="s">
         <v>1084</v>
@@ -41059,25 +41105,25 @@
         <v>4518</v>
       </c>
       <c r="C1018" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1018" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="E1018" s="27" t="s">
         <v>4723</v>
       </c>
-      <c r="E1018" s="27" t="s">
-        <v>4724</v>
-      </c>
       <c r="F1018" s="26"/>
     </row>
-    <row r="1019" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1019" s="25" t="s">
-        <v>4159</v>
+        <v>4845</v>
       </c>
       <c r="B1019" s="26" t="s">
-        <v>4524</v>
+        <v>4848</v>
       </c>
       <c r="C1019" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1019" s="27" t="s">
         <v>1084</v>
@@ -41092,10 +41138,10 @@
         <v>4165</v>
       </c>
       <c r="B1020" s="26" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="C1020" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1020" s="27" t="s">
         <v>1084</v>
@@ -41110,16 +41156,16 @@
         <v>4223</v>
       </c>
       <c r="B1021" s="26" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="C1021" s="27" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D1021" s="27" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="E1021" s="27" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="F1021" s="26"/>
     </row>
@@ -41326,7 +41372,7 @@
         <v>4178</v>
       </c>
       <c r="B1033" s="26" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="C1033" s="27" t="s">
         <v>3447</v>
@@ -41836,10 +41882,10 @@
         <v>1115</v>
       </c>
       <c r="D1061" s="27" t="s">
+        <v>4651</v>
+      </c>
+      <c r="E1061" s="27" t="s">
         <v>4652</v>
-      </c>
-      <c r="E1061" s="27" t="s">
-        <v>4653</v>
       </c>
       <c r="F1061" s="26"/>
     </row>
@@ -41866,7 +41912,7 @@
         <v>4030</v>
       </c>
       <c r="B1063" s="26" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
       <c r="C1063" s="27" t="s">
         <v>1115</v>
@@ -41884,7 +41930,7 @@
         <v>4160</v>
       </c>
       <c r="B1064" s="26" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="C1064" s="27" t="s">
         <v>1115</v>
@@ -42142,10 +42188,10 @@
         <v>1116</v>
       </c>
       <c r="D1078" s="26" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="E1078" s="26" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="F1078" s="26"/>
     </row>
@@ -42160,10 +42206,10 @@
         <v>1116</v>
       </c>
       <c r="D1079" s="24" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="E1079" s="24" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="F1079" s="26"/>
     </row>
@@ -42178,10 +42224,10 @@
         <v>1116</v>
       </c>
       <c r="D1080" s="26" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="E1080" s="26" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="F1080" s="26"/>
     </row>
@@ -42196,10 +42242,10 @@
         <v>1116</v>
       </c>
       <c r="D1081" s="27" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="E1081" s="27" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="F1081" s="26"/>
     </row>
@@ -42214,10 +42260,10 @@
         <v>1116</v>
       </c>
       <c r="D1082" s="27" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="E1082" s="27" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="F1082" s="26"/>
     </row>
@@ -42232,10 +42278,10 @@
         <v>1116</v>
       </c>
       <c r="D1083" s="27" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="E1083" s="27" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="F1083" s="26"/>
     </row>
@@ -42250,10 +42296,10 @@
         <v>1116</v>
       </c>
       <c r="D1084" s="27" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="E1084" s="27" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="F1084" s="26"/>
     </row>
@@ -42262,16 +42308,16 @@
         <v>4224</v>
       </c>
       <c r="B1085" s="26" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="C1085" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="D1085" s="27" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="E1085" s="27" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="F1085" s="26"/>
     </row>
@@ -42406,7 +42452,7 @@
         <v>4214</v>
       </c>
       <c r="B1093" s="26" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="C1093" s="25" t="s">
         <v>1117</v>
@@ -42424,7 +42470,7 @@
         <v>4217</v>
       </c>
       <c r="B1094" s="26" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="C1094" s="25" t="s">
         <v>1117</v>
@@ -42838,7 +42884,7 @@
         <v>4201</v>
       </c>
       <c r="B1117" s="26" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="C1117" s="25" t="s">
         <v>1119</v>
@@ -42856,7 +42902,7 @@
         <v>4221</v>
       </c>
       <c r="B1118" s="26" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="C1118" s="25" t="s">
         <v>1119</v>
@@ -42874,7 +42920,7 @@
         <v>4222</v>
       </c>
       <c r="B1119" s="26" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="C1119" s="25" t="s">
         <v>1119</v>
@@ -44296,7 +44342,7 @@
         <v>4130</v>
       </c>
       <c r="B1198" s="26" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="C1198" s="27" t="s">
         <v>1121</v>
@@ -44314,7 +44360,7 @@
         <v>4169</v>
       </c>
       <c r="B1199" s="26" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="C1199" s="27" t="s">
         <v>1121</v>
@@ -44332,7 +44378,7 @@
         <v>4171</v>
       </c>
       <c r="B1200" s="26" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="C1200" s="27" t="s">
         <v>1121</v>
@@ -44350,7 +44396,7 @@
         <v>4176</v>
       </c>
       <c r="B1201" s="26" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="C1201" s="27" t="s">
         <v>1121</v>
@@ -44368,7 +44414,7 @@
         <v>4177</v>
       </c>
       <c r="B1202" s="26" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="C1202" s="27" t="s">
         <v>1121</v>
@@ -44386,7 +44432,7 @@
         <v>4186</v>
       </c>
       <c r="B1203" s="26" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="C1203" s="27" t="s">
         <v>1121</v>
@@ -44404,7 +44450,7 @@
         <v>4188</v>
       </c>
       <c r="B1204" s="26" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="C1204" s="27" t="s">
         <v>1121</v>
@@ -44422,7 +44468,7 @@
         <v>4196</v>
       </c>
       <c r="B1205" s="26" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="C1205" s="27" t="s">
         <v>1121</v>
@@ -44440,7 +44486,7 @@
         <v>4199</v>
       </c>
       <c r="B1206" s="26" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="C1206" s="27" t="s">
         <v>1121</v>
@@ -44458,7 +44504,7 @@
         <v>4211</v>
       </c>
       <c r="B1207" s="26" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="C1207" s="27" t="s">
         <v>1121</v>
@@ -44476,7 +44522,7 @@
         <v>4219</v>
       </c>
       <c r="B1208" s="26" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="C1208" s="27" t="s">
         <v>1121</v>
@@ -44774,10 +44820,10 @@
         <v>3071</v>
       </c>
       <c r="D1224" s="26" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="E1224" s="26" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="F1224" s="26"/>
     </row>
@@ -44846,10 +44892,10 @@
         <v>3071</v>
       </c>
       <c r="D1228" s="27" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="E1228" s="27" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="F1228" s="26"/>
     </row>
@@ -45812,7 +45858,7 @@
         <v>4218</v>
       </c>
       <c r="B1282" s="26" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="C1282" s="25" t="s">
         <v>1125</v>
@@ -47201,7 +47247,7 @@
         <v>4420</v>
       </c>
       <c r="C1359" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1359" s="27" t="s">
         <v>1127</v>
@@ -47219,7 +47265,7 @@
         <v>4422</v>
       </c>
       <c r="C1360" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1360" s="27" t="s">
         <v>1127</v>
@@ -47237,7 +47283,7 @@
         <v>4427</v>
       </c>
       <c r="C1361" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1361" s="27" t="s">
         <v>1127</v>
@@ -47255,7 +47301,7 @@
         <v>4428</v>
       </c>
       <c r="C1362" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1362" s="27" t="s">
         <v>1127</v>
@@ -47273,7 +47319,7 @@
         <v>4429</v>
       </c>
       <c r="C1363" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1363" s="27" t="s">
         <v>1127</v>
@@ -47291,7 +47337,7 @@
         <v>4434</v>
       </c>
       <c r="C1364" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1364" s="27" t="s">
         <v>1127</v>
@@ -47309,7 +47355,7 @@
         <v>4435</v>
       </c>
       <c r="C1365" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1365" s="27" t="s">
         <v>1127</v>
@@ -47327,7 +47373,7 @@
         <v>4436</v>
       </c>
       <c r="C1366" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1366" s="27" t="s">
         <v>1127</v>
@@ -47345,7 +47391,7 @@
         <v>4437</v>
       </c>
       <c r="C1367" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1367" s="27" t="s">
         <v>1127</v>
@@ -47363,7 +47409,7 @@
         <v>4438</v>
       </c>
       <c r="C1368" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1368" s="27" t="s">
         <v>1127</v>
@@ -47381,7 +47427,7 @@
         <v>4440</v>
       </c>
       <c r="C1369" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1369" s="27" t="s">
         <v>1127</v>
@@ -47399,7 +47445,7 @@
         <v>4450</v>
       </c>
       <c r="C1370" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1370" s="27" t="s">
         <v>1127</v>
@@ -47417,7 +47463,7 @@
         <v>4473</v>
       </c>
       <c r="C1371" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1371" s="27" t="s">
         <v>1127</v>
@@ -47435,7 +47481,7 @@
         <v>4474</v>
       </c>
       <c r="C1372" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1372" s="27" t="s">
         <v>1127</v>
@@ -47453,7 +47499,7 @@
         <v>4477</v>
       </c>
       <c r="C1373" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1373" s="27" t="s">
         <v>1127</v>
@@ -47471,7 +47517,7 @@
         <v>4478</v>
       </c>
       <c r="C1374" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1374" s="27" t="s">
         <v>1127</v>
@@ -47489,7 +47535,7 @@
         <v>4479</v>
       </c>
       <c r="C1375" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1375" s="27" t="s">
         <v>1127</v>
@@ -47507,7 +47553,7 @@
         <v>4486</v>
       </c>
       <c r="C1376" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1376" s="27" t="s">
         <v>1127</v>
@@ -47525,7 +47571,7 @@
         <v>4489</v>
       </c>
       <c r="C1377" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1377" s="27" t="s">
         <v>1127</v>
@@ -47543,7 +47589,7 @@
         <v>4491</v>
       </c>
       <c r="C1378" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1378" s="27" t="s">
         <v>1127</v>
@@ -47558,10 +47604,10 @@
         <v>4127</v>
       </c>
       <c r="B1379" s="26" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="C1379" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1379" s="27" t="s">
         <v>1127</v>
@@ -47579,7 +47625,7 @@
         <v>4498</v>
       </c>
       <c r="C1380" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1380" s="27" t="s">
         <v>1127</v>
@@ -47597,7 +47643,7 @@
         <v>4506</v>
       </c>
       <c r="C1381" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1381" s="27" t="s">
         <v>1127</v>
@@ -47615,7 +47661,7 @@
         <v>4507</v>
       </c>
       <c r="C1382" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1382" s="27" t="s">
         <v>1127</v>
@@ -47633,7 +47679,7 @@
         <v>4509</v>
       </c>
       <c r="C1383" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1383" s="27" t="s">
         <v>1127</v>
@@ -47648,10 +47694,10 @@
         <v>4191</v>
       </c>
       <c r="B1384" s="26" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="C1384" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1384" s="27" t="s">
         <v>1127</v>
@@ -47666,10 +47712,10 @@
         <v>4198</v>
       </c>
       <c r="B1385" s="26" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="C1385" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1385" s="27" t="s">
         <v>1127</v>
@@ -47684,10 +47730,10 @@
         <v>4205</v>
       </c>
       <c r="B1386" s="26" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="C1386" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1386" s="27" t="s">
         <v>1127</v>
@@ -47702,10 +47748,10 @@
         <v>4212</v>
       </c>
       <c r="B1387" s="26" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="C1387" s="27" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D1387" s="27" t="s">
         <v>1127</v>
@@ -48188,10 +48234,10 @@
         <v>4136</v>
       </c>
       <c r="B1414" s="26" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="C1414" s="27" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="D1414" s="27" t="s">
         <v>1127</v>
@@ -48206,10 +48252,10 @@
         <v>4208</v>
       </c>
       <c r="B1415" s="26" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="C1415" s="27" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="D1415" s="27" t="s">
         <v>1127</v>
@@ -49286,7 +49332,7 @@
         <v>4200</v>
       </c>
       <c r="B1475" s="26" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="C1475" s="27" t="s">
         <v>1779</v>
@@ -49301,16 +49347,16 @@
     </row>
     <row r="1476" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A1476" s="3" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="B1476" s="21" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="C1476" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="D1476" s="3" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="E1476" s="3" t="s">
         <v>2713</v>
@@ -49324,21 +49370,21 @@
         <v>3835</v>
       </c>
       <c r="C1477" s="3" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="D1477" s="3" t="s">
+        <v>4822</v>
+      </c>
+      <c r="E1477" s="3" t="s">
         <v>4823</v>
-      </c>
-      <c r="E1477" s="3" t="s">
-        <v>4824</v>
       </c>
     </row>
     <row r="1478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1478" s="3" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="B1478" s="15" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="C1478" s="27" t="s">
         <v>1049</v>
@@ -49352,10 +49398,10 @@
     </row>
     <row r="1479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1479" s="3" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B1479" t="s">
         <v>4825</v>
-      </c>
-      <c r="B1479" t="s">
-        <v>4826</v>
       </c>
       <c r="C1479" s="3" t="s">
         <v>1057</v>
@@ -49369,19 +49415,36 @@
     </row>
     <row r="1480" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A1480" s="3" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B1480" s="15" t="s">
         <v>4831</v>
-      </c>
-      <c r="B1480" s="15" t="s">
-        <v>4832</v>
       </c>
       <c r="C1480" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="D1480" s="3" t="s">
+        <v>4834</v>
+      </c>
+      <c r="E1480" s="3" t="s">
         <v>4835</v>
       </c>
-      <c r="E1480" s="3" t="s">
-        <v>4836</v>
+    </row>
+    <row r="1481" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1481" s="3" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B1481" s="15" t="s">
+        <v>4841</v>
+      </c>
+      <c r="C1481" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1481" s="3" t="s">
+        <v>4621</v>
+      </c>
+      <c r="E1481" s="3" t="s">
+        <v>4622</v>
       </c>
     </row>
   </sheetData>
@@ -49397,10 +49460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCEDD8-99CD-E64D-83C4-23A5F7177A3C}">
-  <dimension ref="A1:C1987"/>
+  <dimension ref="A1:C1988"/>
   <sheetViews>
-    <sheetView topLeftCell="A1462" workbookViewId="0">
-      <selection activeCell="D1484" sqref="D1484"/>
+    <sheetView topLeftCell="A1458" workbookViewId="0">
+      <selection activeCell="D1477" sqref="D1477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58586,7 +58649,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="12" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="B835" s="12" t="s">
         <v>2202</v>
@@ -65488,8 +65551,8 @@
       <c r="B1462" s="12" t="s">
         <v>2202</v>
       </c>
-      <c r="C1462" s="12" t="s">
-        <v>2202</v>
+      <c r="C1462" s="7">
+        <v>44022</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
@@ -65499,8 +65562,8 @@
       <c r="B1463" s="12" t="s">
         <v>2202</v>
       </c>
-      <c r="C1463" s="12" t="s">
-        <v>2202</v>
+      <c r="C1463" s="7">
+        <v>43936</v>
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
@@ -65510,8 +65573,8 @@
       <c r="B1464" s="12" t="s">
         <v>2202</v>
       </c>
-      <c r="C1464" s="12" t="s">
-        <v>2202</v>
+      <c r="C1464" s="7">
+        <v>44118</v>
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
@@ -65521,181 +65584,181 @@
       <c r="B1465" s="12" t="s">
         <v>2202</v>
       </c>
-      <c r="C1465" s="12" t="s">
-        <v>2202</v>
+      <c r="C1465" s="7">
+        <v>44043</v>
       </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" s="12" t="s">
-        <v>3850</v>
+        <v>4838</v>
       </c>
       <c r="B1466" s="12" t="s">
         <v>2202</v>
       </c>
-      <c r="C1466" s="12" t="s">
-        <v>2202</v>
+      <c r="C1466" s="7">
+        <v>44042</v>
       </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" s="12" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="B1467" s="12" t="s">
         <v>2202</v>
       </c>
       <c r="C1467" s="7">
-        <v>44027</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="B1468" s="7">
-        <v>43935</v>
+        <v>3849</v>
+      </c>
+      <c r="B1468" s="12" t="s">
+        <v>2202</v>
       </c>
       <c r="C1468" s="7">
-        <v>43935</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B1469" s="7">
-        <v>43921</v>
+        <v>43935</v>
       </c>
       <c r="C1469" s="7">
-        <v>43921</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" s="12" t="s">
-        <v>3848</v>
+        <v>823</v>
       </c>
       <c r="B1470" s="7">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="C1470" s="7">
-        <v>44196</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471" s="12" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="B1471" s="7">
-        <v>44043</v>
+        <v>44196</v>
       </c>
       <c r="C1471" s="7">
-        <v>44043</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" s="12" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="B1472" s="7">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="C1472" s="7">
-        <v>44012</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1473" s="12" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="B1473" s="7">
-        <v>43952</v>
+        <v>44012</v>
       </c>
       <c r="C1473" s="7">
-        <v>43952</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="B1474" s="12" t="s">
-        <v>2202</v>
+        <v>3845</v>
+      </c>
+      <c r="B1474" s="7">
+        <v>43952</v>
       </c>
       <c r="C1474" s="7">
-        <v>43900</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475" s="12" t="s">
-        <v>3830</v>
-      </c>
-      <c r="B1475" s="7">
-        <v>44362</v>
+        <v>957</v>
+      </c>
+      <c r="B1475" s="12" t="s">
+        <v>2202</v>
       </c>
       <c r="C1475" s="7">
-        <v>44362</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1476" s="12" t="s">
-        <v>3841</v>
+        <v>3830</v>
       </c>
       <c r="B1476" s="7">
-        <v>44348</v>
+        <v>44362</v>
       </c>
       <c r="C1476" s="7">
-        <v>44348</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1477" s="12" t="s">
-        <v>4795</v>
+        <v>3841</v>
       </c>
       <c r="B1477" s="7">
-        <v>44136</v>
+        <v>44348</v>
       </c>
       <c r="C1477" s="7">
-        <v>44136</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1478" s="12" t="s">
-        <v>4802</v>
+        <v>4794</v>
       </c>
       <c r="B1478" s="7">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C1478" s="7">
-        <v>44044</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1479" s="12" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="B1479" s="7">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="C1479" s="7">
-        <v>44013</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1480" s="12" t="s">
-        <v>4817</v>
+        <v>4799</v>
       </c>
       <c r="B1480" s="7">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="C1480" s="7">
-        <v>44044</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1481" s="12" t="s">
-        <v>4825</v>
+        <v>4816</v>
       </c>
       <c r="B1481" s="7">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="C1481" s="7">
         <v>44044</v>
@@ -65703,23 +65766,41 @@
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1482" s="12" t="s">
-        <v>4831</v>
+        <v>4824</v>
       </c>
       <c r="B1482" s="7">
+        <v>44013</v>
+      </c>
+      <c r="C1482" s="7">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1483" s="12" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B1483" s="7">
         <v>44287</v>
       </c>
-      <c r="C1482" s="7">
+      <c r="C1483" s="7">
         <v>44409</v>
       </c>
     </row>
-    <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1483" s="12"/>
-    </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1484" s="12"/>
+      <c r="A1484" s="12" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B1484" s="7">
+        <v>44135</v>
+      </c>
+      <c r="C1484" s="7">
+        <v>44287</v>
+      </c>
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1485" s="12"/>
+      <c r="B1485" s="7"/>
+      <c r="C1485" s="7"/>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1486" s="12"/>
@@ -67226,6 +67307,9 @@
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1987" s="12"/>
+    </row>
+    <row r="1988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1988" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -67744,7 +67828,7 @@
         <v>3060</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>2204</v>
@@ -67758,7 +67842,7 @@
         <v>2014</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>2204</v>
@@ -73571,9 +73655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2897C11-45D0-1143-9B66-314A64F11CA5}">
   <dimension ref="A1:Q1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74363,7 +74447,7 @@
         <v>2771</v>
       </c>
       <c r="F16" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="G16" t="s">
         <v>1797</v>
@@ -74378,16 +74462,16 @@
         <v>1808</v>
       </c>
       <c r="K16" t="s">
+        <v>4791</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>4792</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>4793</v>
       </c>
       <c r="M16">
         <v>194</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="P16" s="4">
         <v>43927</v>
@@ -74398,7 +74482,7 @@
     </row>
     <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="B17" t="s">
         <v>1796</v>
@@ -74428,16 +74512,16 @@
         <v>1808</v>
       </c>
       <c r="K17" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="M17">
         <v>304</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="P17" s="4">
         <v>43941</v>
@@ -74448,7 +74532,7 @@
     </row>
     <row r="18" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="B18" t="s">
         <v>1796</v>
@@ -74463,7 +74547,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="G18" t="s">
         <v>1807</v>
@@ -74478,16 +74562,16 @@
         <v>1808</v>
       </c>
       <c r="K18" t="s">
+        <v>4804</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>4805</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>4806</v>
       </c>
       <c r="M18">
         <v>138</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="P18" s="4">
         <v>43945</v>
@@ -74498,7 +74582,7 @@
     </row>
     <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="B19" t="s">
         <v>1796</v>
@@ -74528,16 +74612,16 @@
         <v>1808</v>
       </c>
       <c r="K19" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="M19">
         <v>260</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
       <c r="P19" s="4">
         <v>43942</v>
@@ -74548,7 +74632,7 @@
     </row>
     <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="B20" t="s">
         <v>1796</v>
@@ -74578,16 +74662,16 @@
         <v>2366</v>
       </c>
       <c r="K20" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="M20">
         <v>500</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="P20" s="4">
         <v>43945</v>
@@ -74598,7 +74682,7 @@
     </row>
     <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="B21" t="s">
         <v>1796</v>
@@ -74625,16 +74709,16 @@
         <v>1799</v>
       </c>
       <c r="K21" t="s">
+        <v>4825</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>4826</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>4827</v>
       </c>
       <c r="M21">
         <v>440</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="P21" s="4">
         <v>43928</v>
@@ -74645,7 +74729,7 @@
     </row>
     <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="B22" t="s">
         <v>1796</v>
@@ -74675,21 +74759,121 @@
         <v>2366</v>
       </c>
       <c r="K22" t="s">
+        <v>4831</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>4832</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>4833</v>
       </c>
       <c r="M22">
         <v>500</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="P22" s="4">
         <v>43931</v>
       </c>
       <c r="Q22" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43917</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43910</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4840</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2372</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4841</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="M23">
+        <v>6000</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>4843</v>
+      </c>
+      <c r="P23" s="4">
+        <v>43930</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43928</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43922</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3571</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4847</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4848</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>4849</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>4850</v>
+      </c>
+      <c r="P24" s="4">
+        <v>43941</v>
+      </c>
+      <c r="Q24" s="4">
         <v>43943</v>
       </c>
     </row>
@@ -74714,6 +74898,8 @@
     <hyperlink ref="N20" r:id="rId14" xr:uid="{51FCB3E7-387F-5147-BA11-3712E92D1ACE}"/>
     <hyperlink ref="N21" r:id="rId15" xr:uid="{211996B6-7C5B-C448-9DF3-8173DBE852F8}"/>
     <hyperlink ref="N22" r:id="rId16" xr:uid="{10BD727B-D2E9-EE49-9804-34B01BE50D82}"/>
+    <hyperlink ref="N23" r:id="rId17" xr:uid="{2268B2A9-4184-104E-AAD9-E48427D36758}"/>
+    <hyperlink ref="N24" r:id="rId18" xr:uid="{6A6406AA-FC72-6C41-9F2F-BDFB1098F670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -74721,10 +74907,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218A77D-399C-1D47-B6D8-167C71D40314}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75061,10 +75247,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B25" t="s">
         <v>4783</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4784</v>
       </c>
       <c r="D25" t="s">
         <v>1796</v>
@@ -75075,7 +75261,7 @@
         <v>757</v>
       </c>
       <c r="B26" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="D26" t="s">
         <v>1796</v>
@@ -75086,7 +75272,7 @@
         <v>4026</v>
       </c>
       <c r="B27" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="D27" t="s">
         <v>1796</v>
@@ -75097,7 +75283,7 @@
         <v>2057</v>
       </c>
       <c r="B28" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="D28" t="s">
         <v>1796</v>
@@ -75108,7 +75294,7 @@
         <v>3902</v>
       </c>
       <c r="B29" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="D29" t="s">
         <v>1796</v>
@@ -75119,7 +75305,7 @@
         <v>3897</v>
       </c>
       <c r="B30" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="D30" t="s">
         <v>1796</v>
@@ -75130,7 +75316,7 @@
         <v>2983</v>
       </c>
       <c r="B31" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="C31" t="s">
         <v>4160</v>
@@ -75141,10 +75327,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="B32" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="C32" t="s">
         <v>4146</v>
@@ -75155,10 +75341,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B33" t="s">
         <v>4802</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4803</v>
       </c>
       <c r="C33" t="s">
         <v>4148</v>
@@ -75169,10 +75355,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="B34" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
       <c r="C34" t="s">
         <v>4149</v>
@@ -75186,7 +75372,7 @@
         <v>2466</v>
       </c>
       <c r="B35" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
       <c r="D35" t="s">
         <v>1796</v>
@@ -75197,10 +75383,38 @@
         <v>2421</v>
       </c>
       <c r="B36" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="D36" t="s">
         <v>2762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4844</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4846</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
